--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="167">
   <si>
     <t>frames</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>old fps</t>
-  </si>
-  <si>
-    <t>length (datetime)</t>
   </si>
   <si>
     <t>ID</t>
@@ -576,12 +573,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,27 +872,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -907,25 +903,22 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>6450</v>
@@ -936,17 +929,14 @@
       <c r="H2">
         <v>30</v>
       </c>
-      <c r="I2" s="2">
-        <v>0.002488425925925926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>2464</v>
@@ -957,21 +947,18 @@
       <c r="H3">
         <v>30</v>
       </c>
-      <c r="I3" s="2">
-        <v>0.0009506172800925925</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>1867</v>
@@ -982,25 +969,22 @@
       <c r="H4">
         <v>30</v>
       </c>
-      <c r="I4" s="2">
-        <v>0.0007202932060185185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>1813</v>
@@ -1011,19 +995,16 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" s="2">
-        <v>0.00209837962962963</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>1988</v>
@@ -1034,21 +1015,18 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
-        <v>0.002300925925925926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>1855</v>
@@ -1059,19 +1037,16 @@
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" s="2">
-        <v>0.002146990740740741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8">
         <v>2103</v>
@@ -1082,23 +1057,20 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" s="2">
-        <v>0.002434027777777778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9">
         <v>2006</v>
@@ -1109,19 +1081,16 @@
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" s="2">
-        <v>0.002321759259259259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>1869</v>
@@ -1132,21 +1101,18 @@
       <c r="H10">
         <v>10</v>
       </c>
-      <c r="I10" s="2">
-        <v>0.002163194444444445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>1821</v>
@@ -1157,19 +1123,16 @@
       <c r="H11">
         <v>10</v>
       </c>
-      <c r="I11" s="2">
-        <v>0.002107638888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1938</v>
@@ -1180,25 +1143,22 @@
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12" s="2">
-        <v>0.002243055555555556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>1822</v>
@@ -1209,19 +1169,16 @@
       <c r="H13">
         <v>10</v>
       </c>
-      <c r="I13" s="2">
-        <v>0.002108796296296296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14">
         <v>2009</v>
@@ -1232,21 +1189,18 @@
       <c r="H14">
         <v>10</v>
       </c>
-      <c r="I14" s="2">
-        <v>0.002325231481481482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>1768</v>
@@ -1257,19 +1211,16 @@
       <c r="H15">
         <v>10</v>
       </c>
-      <c r="I15" s="2">
-        <v>0.002046296296296296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>1759</v>
@@ -1280,17 +1231,14 @@
       <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.00203587962962963</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1821</v>
@@ -1301,23 +1249,20 @@
       <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17" s="2">
-        <v>0.002107638888888889</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <v>1981</v>
@@ -1328,19 +1273,16 @@
       <c r="H18">
         <v>10</v>
       </c>
-      <c r="I18" s="2">
-        <v>0.002292824074074074</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>740</v>
@@ -1351,17 +1293,14 @@
       <c r="H19">
         <v>10</v>
       </c>
-      <c r="I19" s="2">
-        <v>0.0008564814814814815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>1129</v>
@@ -1372,21 +1311,18 @@
       <c r="H20">
         <v>10</v>
       </c>
-      <c r="I20" s="2">
-        <v>0.001306712962962963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21">
         <v>2130</v>
@@ -1397,19 +1333,16 @@
       <c r="H21">
         <v>10</v>
       </c>
-      <c r="I21" s="2">
-        <v>0.002465277777777778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>1932</v>
@@ -1420,25 +1353,22 @@
       <c r="H22">
         <v>10</v>
       </c>
-      <c r="I22" s="2">
-        <v>0.002236111111111111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23">
         <v>1925</v>
@@ -1449,19 +1379,16 @@
       <c r="H23">
         <v>10</v>
       </c>
-      <c r="I23" s="2">
-        <v>0.002228009259259259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24">
         <v>1951</v>
@@ -1472,21 +1399,18 @@
       <c r="H24">
         <v>10</v>
       </c>
-      <c r="I24" s="2">
-        <v>0.002258101851851852</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>1957</v>
@@ -1497,19 +1421,16 @@
       <c r="H25">
         <v>10</v>
       </c>
-      <c r="I25" s="2">
-        <v>0.002265046296296296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26">
         <v>1889</v>
@@ -1520,23 +1441,20 @@
       <c r="H26">
         <v>10</v>
       </c>
-      <c r="I26" s="2">
-        <v>0.002186342592592593</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>2059</v>
@@ -1547,19 +1465,16 @@
       <c r="H27">
         <v>10</v>
       </c>
-      <c r="I27" s="2">
-        <v>0.002383101851851852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>1910</v>
@@ -1570,21 +1485,18 @@
       <c r="H28">
         <v>10</v>
       </c>
-      <c r="I28" s="2">
-        <v>0.002210648148148148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>2031</v>
@@ -1595,19 +1507,16 @@
       <c r="H29">
         <v>10</v>
       </c>
-      <c r="I29" s="2">
-        <v>0.002350694444444444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30">
         <v>1907</v>
@@ -1618,25 +1527,22 @@
       <c r="H30">
         <v>10</v>
       </c>
-      <c r="I30" s="2">
-        <v>0.002207175925925926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31">
         <v>1985</v>
@@ -1647,19 +1553,16 @@
       <c r="H31">
         <v>10</v>
       </c>
-      <c r="I31" s="2">
-        <v>0.002297453703703704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>2589</v>
@@ -1670,21 +1573,18 @@
       <c r="H32">
         <v>10</v>
       </c>
-      <c r="I32" s="2">
-        <v>0.002996527777777778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <v>2011</v>
@@ -1695,19 +1595,16 @@
       <c r="H33">
         <v>10</v>
       </c>
-      <c r="I33" s="2">
-        <v>0.002327546296296296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>2112</v>
@@ -1718,23 +1615,20 @@
       <c r="H34">
         <v>10</v>
       </c>
-      <c r="I34" s="2">
-        <v>0.002444444444444444</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35">
         <v>2075</v>
@@ -1745,19 +1639,16 @@
       <c r="H35">
         <v>10</v>
       </c>
-      <c r="I35" s="2">
-        <v>0.00240162037037037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36">
         <v>2077</v>
@@ -1768,21 +1659,18 @@
       <c r="H36">
         <v>10</v>
       </c>
-      <c r="I36" s="2">
-        <v>0.002403935185185185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37">
         <v>2025</v>
@@ -1793,19 +1681,16 @@
       <c r="H37">
         <v>10</v>
       </c>
-      <c r="I37" s="2">
-        <v>0.00234375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38">
         <v>2075</v>
@@ -1816,25 +1701,22 @@
       <c r="H38">
         <v>10</v>
       </c>
-      <c r="I38" s="2">
-        <v>0.00240162037037037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39">
         <v>2255</v>
@@ -1845,17 +1727,14 @@
       <c r="H39">
         <v>10</v>
       </c>
-      <c r="I39" s="2">
-        <v>0.002609953703703704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F40">
         <v>2310</v>
@@ -1866,23 +1745,20 @@
       <c r="H40">
         <v>10</v>
       </c>
-      <c r="I40" s="2">
-        <v>0.002673611111111111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F41">
         <v>1930</v>
@@ -1893,19 +1769,16 @@
       <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41" s="2">
-        <v>0.002233796296296296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F42">
         <v>205</v>
@@ -1916,17 +1789,14 @@
       <c r="H42">
         <v>10</v>
       </c>
-      <c r="I42" s="2">
-        <v>0.0002372685185185185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43">
         <v>1296</v>
@@ -1937,25 +1807,22 @@
       <c r="H43">
         <v>10</v>
       </c>
-      <c r="I43" s="2">
-        <v>0.0015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44">
         <v>127</v>
@@ -1966,17 +1833,14 @@
       <c r="H44">
         <v>10</v>
       </c>
-      <c r="I44" s="2">
-        <v>0.0001469907407407407</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45">
         <v>160</v>
@@ -1987,17 +1851,14 @@
       <c r="H45">
         <v>10</v>
       </c>
-      <c r="I45" s="2">
-        <v>0.0001851851851851852</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2008,17 +1869,14 @@
       <c r="H46">
         <v>10</v>
       </c>
-      <c r="I46" s="2">
-        <v>1.157407407407407E-06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47">
         <v>29</v>
@@ -2029,17 +1887,14 @@
       <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47" s="2">
-        <v>3.356481481481482E-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F48">
         <v>25</v>
@@ -2050,17 +1905,14 @@
       <c r="H48">
         <v>10</v>
       </c>
-      <c r="I48" s="2">
-        <v>2.893518518518519E-05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F49">
         <v>50</v>
@@ -2071,17 +1923,14 @@
       <c r="H49">
         <v>10</v>
       </c>
-      <c r="I49" s="2">
-        <v>5.787037037037037E-05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F50">
         <v>32</v>
@@ -2092,19 +1941,16 @@
       <c r="H50">
         <v>10</v>
       </c>
-      <c r="I50" s="2">
-        <v>3.703703703703704E-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>114</v>
@@ -2115,17 +1961,14 @@
       <c r="H51">
         <v>10</v>
       </c>
-      <c r="I51" s="2">
-        <v>0.0001319444444444445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F52">
         <v>14</v>
@@ -2136,17 +1979,14 @@
       <c r="H52">
         <v>5</v>
       </c>
-      <c r="I52" s="2">
-        <v>3.240740740740741E-05</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2157,17 +1997,14 @@
       <c r="H53">
         <v>5</v>
       </c>
-      <c r="I53" s="2">
-        <v>2.314814814814815E-06</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F54">
         <v>64</v>
@@ -2178,17 +2015,14 @@
       <c r="H54">
         <v>10</v>
       </c>
-      <c r="I54" s="2">
-        <v>7.407407407407407E-05</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F55">
         <v>176</v>
@@ -2199,21 +2033,18 @@
       <c r="H55">
         <v>10</v>
       </c>
-      <c r="I55" s="2">
-        <v>0.0002037037037037037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56">
         <v>27</v>
@@ -2224,17 +2055,14 @@
       <c r="H56">
         <v>10</v>
       </c>
-      <c r="I56" s="2">
-        <v>3.125E-05</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F57">
         <v>66</v>
@@ -2245,17 +2073,14 @@
       <c r="H57">
         <v>10</v>
       </c>
-      <c r="I57" s="2">
-        <v>7.638888888888889E-05</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58">
         <v>543</v>
@@ -2266,17 +2091,14 @@
       <c r="H58">
         <v>10</v>
       </c>
-      <c r="I58" s="2">
-        <v>0.0006284722222222222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59">
         <v>633</v>
@@ -2287,19 +2109,16 @@
       <c r="H59">
         <v>10</v>
       </c>
-      <c r="I59" s="2">
-        <v>0.0007326388888888889</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60">
         <v>995</v>
@@ -2310,17 +2129,14 @@
       <c r="H60">
         <v>10</v>
       </c>
-      <c r="I60" s="2">
-        <v>0.00115162037037037</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2331,17 +2147,14 @@
       <c r="H61">
         <v>10</v>
       </c>
-      <c r="I61" s="2">
-        <v>1.157407407407407E-06</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F62">
         <v>105</v>
@@ -2352,17 +2165,14 @@
       <c r="H62">
         <v>10</v>
       </c>
-      <c r="I62" s="2">
-        <v>0.0001215277777777778</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63">
         <v>56</v>
@@ -2373,17 +2183,14 @@
       <c r="H63">
         <v>10</v>
       </c>
-      <c r="I63" s="2">
-        <v>6.481481481481482E-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F64">
         <v>206</v>
@@ -2394,17 +2201,14 @@
       <c r="H64">
         <v>10</v>
       </c>
-      <c r="I64" s="2">
-        <v>0.0002384259259259259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65">
         <v>391</v>
@@ -2415,17 +2219,14 @@
       <c r="H65">
         <v>5</v>
       </c>
-      <c r="I65" s="2">
-        <v>0.0009050925925925926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66">
         <v>28</v>
@@ -2436,17 +2237,14 @@
       <c r="H66">
         <v>5</v>
       </c>
-      <c r="I66" s="2">
-        <v>6.481481481481482E-05</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67">
         <v>77</v>
@@ -2457,17 +2255,14 @@
       <c r="H67">
         <v>5</v>
       </c>
-      <c r="I67" s="2">
-        <v>0.0001782407407407407</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68">
         <v>92</v>
@@ -2478,25 +2273,22 @@
       <c r="H68">
         <v>5</v>
       </c>
-      <c r="I68" s="2">
-        <v>0.0002129629629629629</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F69">
         <v>4567</v>
@@ -2507,19 +2299,16 @@
       <c r="H69">
         <v>30</v>
       </c>
-      <c r="I69" s="2">
-        <v>0.001761959872685185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F70">
         <v>4466</v>
@@ -2530,21 +2319,18 @@
       <c r="H70">
         <v>30</v>
       </c>
-      <c r="I70" s="2">
-        <v>0.001722993831018519</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F71">
         <v>4691</v>
@@ -2555,19 +2341,16 @@
       <c r="H71">
         <v>30</v>
       </c>
-      <c r="I71" s="2">
-        <v>0.001809799386574074</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F72">
         <v>4344</v>
@@ -2578,23 +2361,20 @@
       <c r="H72">
         <v>30</v>
       </c>
-      <c r="I72" s="2">
-        <v>0.001675925925925926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73">
         <v>3992</v>
@@ -2605,19 +2385,16 @@
       <c r="H73">
         <v>30</v>
       </c>
-      <c r="I73" s="2">
-        <v>0.001540123460648148</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F74">
         <v>3952</v>
@@ -2628,21 +2405,18 @@
       <c r="H74">
         <v>30</v>
       </c>
-      <c r="I74" s="2">
-        <v>0.001524691354166667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F75">
         <v>3834</v>
@@ -2653,19 +2427,16 @@
       <c r="H75">
         <v>30</v>
       </c>
-      <c r="I75" s="2">
-        <v>0.001479166666666667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F76">
         <v>656</v>
@@ -2676,17 +2447,14 @@
       <c r="H76">
         <v>30</v>
       </c>
-      <c r="I76" s="2">
-        <v>0.0002530864236111111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F77">
         <v>3880</v>
@@ -2697,25 +2465,22 @@
       <c r="H77">
         <v>30</v>
       </c>
-      <c r="I77" s="2">
-        <v>0.001496913576388889</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78">
         <v>3295</v>
@@ -2726,19 +2491,16 @@
       <c r="H78">
         <v>30</v>
       </c>
-      <c r="I78" s="2">
-        <v>0.001271219131944444</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>3921</v>
@@ -2749,21 +2511,18 @@
       <c r="H79">
         <v>30</v>
       </c>
-      <c r="I79" s="2">
-        <v>0.001512731481481481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F80">
         <v>4064</v>
@@ -2774,19 +2533,16 @@
       <c r="H80">
         <v>30</v>
       </c>
-      <c r="I80" s="2">
-        <v>0.001567901238425926</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F81">
         <v>3949</v>
@@ -2797,25 +2553,22 @@
       <c r="H81">
         <v>30</v>
       </c>
-      <c r="I81" s="2">
-        <v>0.001523533946759259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2826,17 +2579,14 @@
       <c r="H82">
         <v>30</v>
       </c>
-      <c r="I82" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F83">
         <v>4756</v>
@@ -2847,19 +2597,16 @@
       <c r="H83">
         <v>30</v>
       </c>
-      <c r="I83" s="2">
-        <v>0.001834876539351852</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84">
         <v>2626</v>
@@ -2870,21 +2617,18 @@
       <c r="H84">
         <v>30</v>
       </c>
-      <c r="I84" s="2">
-        <v>0.001013117280092593</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85">
         <v>3821</v>
@@ -2895,19 +2639,16 @@
       <c r="H85">
         <v>30</v>
       </c>
-      <c r="I85" s="2">
-        <v>0.001474151238425926</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F86">
         <v>4594</v>
@@ -2918,23 +2659,20 @@
       <c r="H86">
         <v>30</v>
       </c>
-      <c r="I86" s="2">
-        <v>0.001772376539351852</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F87">
         <v>4683</v>
@@ -2945,19 +2683,16 @@
       <c r="H87">
         <v>30</v>
       </c>
-      <c r="I87" s="2">
-        <v>0.001806712962962963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F88">
         <v>3855</v>
@@ -2968,21 +2703,18 @@
       <c r="H88">
         <v>30</v>
       </c>
-      <c r="I88" s="2">
-        <v>0.001487268518518519</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F89">
         <v>3871</v>
@@ -2993,19 +2725,16 @@
       <c r="H89">
         <v>30</v>
       </c>
-      <c r="I89" s="2">
-        <v>0.001493441354166667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90">
         <v>124</v>
@@ -3016,17 +2745,14 @@
       <c r="H90">
         <v>30.00030000300003</v>
       </c>
-      <c r="I90" s="2">
-        <v>4.783902777777778E-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91">
         <v>3497</v>
@@ -3037,25 +2763,22 @@
       <c r="H91">
         <v>30</v>
       </c>
-      <c r="I91" s="2">
-        <v>0.001349151238425926</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F92">
         <v>3579</v>
@@ -3066,19 +2789,16 @@
       <c r="H92">
         <v>10</v>
       </c>
-      <c r="I92" s="2">
-        <v>0.004142361111111111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F93">
         <v>3471</v>
@@ -3089,21 +2809,18 @@
       <c r="H93">
         <v>10</v>
       </c>
-      <c r="I93" s="2">
-        <v>0.004017361111111111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F94">
         <v>4450</v>
@@ -3114,19 +2831,16 @@
       <c r="H94">
         <v>10</v>
       </c>
-      <c r="I94" s="2">
-        <v>0.005150462962962963</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F95">
         <v>3554</v>
@@ -3137,23 +2851,20 @@
       <c r="H95">
         <v>10</v>
       </c>
-      <c r="I95" s="2">
-        <v>0.004113425925925926</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1"/>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96">
         <v>4079</v>
@@ -3164,19 +2875,16 @@
       <c r="H96">
         <v>30</v>
       </c>
-      <c r="I96" s="2">
-        <v>0.001573688275462963</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F97">
         <v>4041</v>
@@ -3187,21 +2895,18 @@
       <c r="H97">
         <v>30</v>
       </c>
-      <c r="I97" s="2">
-        <v>0.001559027777777778</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F98">
         <v>4026</v>
@@ -3212,19 +2917,16 @@
       <c r="H98">
         <v>30</v>
       </c>
-      <c r="I98" s="2">
-        <v>0.001553240740740741</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99">
         <v>3556</v>
@@ -3235,25 +2937,22 @@
       <c r="H99">
         <v>30</v>
       </c>
-      <c r="I99" s="2">
-        <v>0.001371913576388889</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F100">
         <v>2186</v>
@@ -3264,19 +2963,16 @@
       <c r="H100">
         <v>10</v>
       </c>
-      <c r="I100" s="2">
-        <v>0.002530092592592592</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F101">
         <v>2214</v>
@@ -3287,21 +2983,18 @@
       <c r="H101">
         <v>10</v>
       </c>
-      <c r="I101" s="2">
-        <v>0.0025625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F102">
         <v>2566</v>
@@ -3312,19 +3005,16 @@
       <c r="H102">
         <v>10</v>
       </c>
-      <c r="I102" s="2">
-        <v>0.002969907407407408</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F103">
         <v>2438</v>
@@ -3335,23 +3025,20 @@
       <c r="H103">
         <v>10</v>
       </c>
-      <c r="I103" s="2">
-        <v>0.00282175925925926</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1"/>
       <c r="B104" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F104">
         <v>4844</v>
@@ -3362,17 +3049,14 @@
       <c r="H104">
         <v>10</v>
       </c>
-      <c r="I104" s="2">
-        <v>0.005606481481481481</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F105">
         <v>1452</v>
@@ -3383,17 +3067,14 @@
       <c r="H105">
         <v>10</v>
       </c>
-      <c r="I105" s="2">
-        <v>0.001680555555555555</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F106">
         <v>3246</v>
@@ -3404,19 +3085,16 @@
       <c r="H106">
         <v>10</v>
       </c>
-      <c r="I106" s="2">
-        <v>0.003756944444444445</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F107">
         <v>2703</v>
@@ -3427,17 +3105,14 @@
       <c r="H107">
         <v>30</v>
       </c>
-      <c r="I107" s="2">
-        <v>0.001042824074074074</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F108">
         <v>1538</v>
@@ -3448,17 +3123,14 @@
       <c r="H108">
         <v>30</v>
       </c>
-      <c r="I108" s="2">
-        <v>0.0005933642013888888</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F109">
         <v>1423</v>
@@ -3469,21 +3141,18 @@
       <c r="H109">
         <v>30</v>
       </c>
-      <c r="I109" s="2">
-        <v>0.0005489969097222222</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F110">
         <v>3910</v>
@@ -3494,19 +3163,16 @@
       <c r="H110">
         <v>10</v>
       </c>
-      <c r="I110" s="2">
-        <v>0.004525462962962963</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F111">
         <v>3710</v>
@@ -3517,25 +3183,22 @@
       <c r="H111">
         <v>30</v>
       </c>
-      <c r="I111" s="2">
-        <v>0.001431327164351852</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F112">
         <v>3585</v>
@@ -3546,19 +3209,16 @@
       <c r="H112">
         <v>10</v>
       </c>
-      <c r="I112" s="2">
-        <v>0.004149305555555555</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F113">
         <v>3453</v>
@@ -3569,21 +3229,18 @@
       <c r="H113">
         <v>10</v>
       </c>
-      <c r="I113" s="2">
-        <v>0.003996527777777778</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F114">
         <v>5048</v>
@@ -3594,19 +3251,16 @@
       <c r="H114">
         <v>10</v>
       </c>
-      <c r="I114" s="2">
-        <v>0.005842592592592593</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F115">
         <v>2593</v>
@@ -3617,23 +3271,20 @@
       <c r="H115">
         <v>30</v>
       </c>
-      <c r="I115" s="2">
-        <v>0.001000385798611111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1"/>
       <c r="B116" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F116">
         <v>3611</v>
@@ -3644,19 +3295,16 @@
       <c r="H116">
         <v>10</v>
       </c>
-      <c r="I116" s="2">
-        <v>0.004179398148148148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F117">
         <v>3599</v>
@@ -3667,21 +3315,18 @@
       <c r="H117">
         <v>10</v>
       </c>
-      <c r="I117" s="2">
-        <v>0.004165509259259259</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F118">
         <v>3946</v>
@@ -3692,19 +3337,16 @@
       <c r="H118">
         <v>10</v>
       </c>
-      <c r="I118" s="2">
-        <v>0.00456712962962963</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F119">
         <v>3438</v>
@@ -3715,25 +3357,22 @@
       <c r="H119">
         <v>10</v>
       </c>
-      <c r="I119" s="2">
-        <v>0.003979166666666666</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F120">
         <v>3544</v>
@@ -3744,19 +3383,16 @@
       <c r="H120">
         <v>10</v>
       </c>
-      <c r="I120" s="2">
-        <v>0.004101851851851851</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F121">
         <v>3551</v>
@@ -3767,17 +3403,14 @@
       <c r="H121">
         <v>10</v>
       </c>
-      <c r="I121" s="2">
-        <v>0.004109953703703704</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F122">
         <v>3741</v>
@@ -3788,21 +3421,18 @@
       <c r="H122">
         <v>10</v>
       </c>
-      <c r="I122" s="2">
-        <v>0.004329861111111112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F123">
         <v>3553</v>
@@ -3813,17 +3443,14 @@
       <c r="H123">
         <v>10</v>
       </c>
-      <c r="I123" s="2">
-        <v>0.004112268518518519</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F124">
         <v>3550</v>
@@ -3834,23 +3461,20 @@
       <c r="H124">
         <v>10</v>
       </c>
-      <c r="I124" s="2">
-        <v>0.004108796296296296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1"/>
       <c r="B125" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F125">
         <v>1917</v>
@@ -3861,19 +3485,16 @@
       <c r="H125">
         <v>10</v>
       </c>
-      <c r="I125" s="2">
-        <v>0.00221875</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F126">
         <v>3706</v>
@@ -3884,21 +3505,18 @@
       <c r="H126">
         <v>10</v>
       </c>
-      <c r="I126" s="2">
-        <v>0.004289351851851852</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F127">
         <v>1935</v>
@@ -3909,19 +3527,16 @@
       <c r="H127">
         <v>10</v>
       </c>
-      <c r="I127" s="2">
-        <v>0.002239583333333333</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F128">
         <v>3569</v>
@@ -3932,25 +3547,22 @@
       <c r="H128">
         <v>10</v>
       </c>
-      <c r="I128" s="2">
-        <v>0.004130787037037037</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F129">
         <v>3380</v>
@@ -3961,19 +3573,16 @@
       <c r="H129">
         <v>10</v>
       </c>
-      <c r="I129" s="2">
-        <v>0.003912037037037037</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F130">
         <v>3570</v>
@@ -3984,21 +3593,18 @@
       <c r="H130">
         <v>10</v>
       </c>
-      <c r="I130" s="2">
-        <v>0.004131944444444444</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F131">
         <v>1654</v>
@@ -4009,17 +3615,14 @@
       <c r="H131">
         <v>10</v>
       </c>
-      <c r="I131" s="2">
-        <v>0.001914351851851852</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F132">
         <v>1487</v>
@@ -4030,19 +3633,16 @@
       <c r="H132">
         <v>10</v>
       </c>
-      <c r="I132" s="2">
-        <v>0.001721064814814815</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F133">
         <v>1546</v>
@@ -4053,17 +3653,14 @@
       <c r="H133">
         <v>10</v>
       </c>
-      <c r="I133" s="2">
-        <v>0.001789351851851852</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F134">
         <v>1752</v>
@@ -4074,23 +3671,20 @@
       <c r="H134">
         <v>10</v>
       </c>
-      <c r="I134" s="2">
-        <v>0.002027777777777778</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1"/>
       <c r="B135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F135">
         <v>1784</v>
@@ -4101,19 +3695,16 @@
       <c r="H135">
         <v>10</v>
       </c>
-      <c r="I135" s="2">
-        <v>0.002064814814814815</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F136">
         <v>1944</v>
@@ -4124,21 +3715,18 @@
       <c r="H136">
         <v>10</v>
       </c>
-      <c r="I136" s="2">
-        <v>0.00225</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F137">
         <v>1937</v>
@@ -4149,19 +3737,16 @@
       <c r="H137">
         <v>10</v>
       </c>
-      <c r="I137" s="2">
-        <v>0.002241898148148148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F138">
         <v>1814</v>
@@ -4171,9 +3756,6 @@
       </c>
       <c r="H138">
         <v>10</v>
-      </c>
-      <c r="I138" s="2">
-        <v>0.002099537037037037</v>
       </c>
     </row>
   </sheetData>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,49 +1640,61 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>2 meters</t>
+          <t>15_2</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>15_2nd_2meters</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>15_2nd_hold_blanket_2meters</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>output_video.mp4</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>127</v>
+        <v>2114</v>
       </c>
       <c r="G44" t="n">
-        <v>12.7</v>
+        <v>70.46666666666667</v>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
-      <c r="C45" s="1" t="n"/>
-      <c r="D45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>12.7</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
@@ -1695,14 +1707,14 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>16</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
@@ -1715,14 +1727,14 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
@@ -1735,14 +1747,14 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
@@ -1755,14 +1767,14 @@
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
@@ -1775,14 +1787,14 @@
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
@@ -1792,21 +1804,17 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="G51" t="n">
-        <v>11.4</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
         <v>10</v>
@@ -1816,20 +1824,24 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>11.4</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -1839,14 +1851,14 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>5</v>
@@ -1859,17 +1871,17 @@
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>0.2</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1879,14 +1891,14 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="G55" t="n">
-        <v>17.6</v>
+        <v>6.4</v>
       </c>
       <c r="H55" t="n">
         <v>10</v>
@@ -1895,26 +1907,18 @@
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>17.6</v>
       </c>
       <c r="H56" t="n">
         <v>10</v>
@@ -1923,18 +1927,26 @@
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="n"/>
-      <c r="D57" s="1" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G57" t="n">
-        <v>6.6</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>10</v>
@@ -1947,14 +1959,14 @@
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>543</v>
+        <v>66</v>
       </c>
       <c r="G58" t="n">
-        <v>54.3</v>
+        <v>6.6</v>
       </c>
       <c r="H58" t="n">
         <v>10</v>
@@ -1967,14 +1979,14 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>633</v>
+        <v>543</v>
       </c>
       <c r="G59" t="n">
-        <v>63.3</v>
+        <v>54.3</v>
       </c>
       <c r="H59" t="n">
         <v>10</v>
@@ -1984,21 +1996,17 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>995</v>
+        <v>633</v>
       </c>
       <c r="G60" t="n">
-        <v>99.5</v>
+        <v>63.3</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
@@ -2008,17 +2016,21 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>995</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>99.5</v>
       </c>
       <c r="H61" t="n">
         <v>10</v>
@@ -2031,14 +2043,14 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>10.5</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="n">
         <v>10</v>
@@ -2051,14 +2063,14 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="G63" t="n">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="H63" t="n">
         <v>10</v>
@@ -2071,14 +2083,14 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="G64" t="n">
-        <v>20.6</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
         <v>10</v>
@@ -2091,17 +2103,17 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>391</v>
+        <v>206</v>
       </c>
       <c r="G65" t="n">
-        <v>78.2</v>
+        <v>20.6</v>
       </c>
       <c r="H65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66">
@@ -2111,14 +2123,14 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>28</v>
+        <v>391</v>
       </c>
       <c r="G66" t="n">
-        <v>5.6</v>
+        <v>78.2</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
@@ -2131,14 +2143,14 @@
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G67" t="n">
-        <v>15.4</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>5</v>
@@ -2151,74 +2163,70 @@
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G68" t="n">
-        <v>18.4</v>
+        <v>15.4</v>
       </c>
       <c r="H68" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>92</v>
+      </c>
+      <c r="G69" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="B70" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C69" s="1" t="inlineStr">
+      <c r="C70" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr">
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
         <is>
           <t>2_H_B_2m-12222022100256.avi</t>
         </is>
       </c>
-      <c r="F69" t="n">
+      <c r="F70" t="n">
         <v>4567</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G70" t="n">
         <v>152.2333333333333</v>
-      </c>
-      <c r="H69" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E70" s="1" t="inlineStr">
-        <is>
-          <t>2_H_WOB_2m-12222022095411.avi</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>4466</v>
-      </c>
-      <c r="G70" t="n">
-        <v>148.8666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>30</v>
@@ -2227,26 +2235,22 @@
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_2m-12222022095917.avi</t>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4691</v>
+        <v>4466</v>
       </c>
       <c r="G71" t="n">
-        <v>156.3666666666667</v>
+        <v>148.8666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>30</v>
@@ -2255,22 +2259,26 @@
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="n"/>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_2m-12222022095034.avi</t>
+          <t>2_R_B_2m-12222022095917.avi</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4344</v>
+        <v>4691</v>
       </c>
       <c r="G72" t="n">
-        <v>144.8</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
@@ -2278,31 +2286,23 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C73" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_3m-12222022102602.avi</t>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3992</v>
+        <v>4344</v>
       </c>
       <c r="G73" t="n">
-        <v>133.0666666666667</v>
+        <v>144.8</v>
       </c>
       <c r="H73" t="n">
         <v>30</v>
@@ -2310,23 +2310,31 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_3m-12222022101944.avi</t>
+          <t>2_H_B_3m-12222022102602.avi</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3952</v>
+        <v>3992</v>
       </c>
       <c r="G74" t="n">
-        <v>131.7333333333333</v>
+        <v>133.0666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>30</v>
@@ -2335,26 +2343,22 @@
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_3m-12222022102314.avi</t>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3834</v>
+        <v>3952</v>
       </c>
       <c r="G75" t="n">
-        <v>127.8</v>
+        <v>131.7333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>30</v>
@@ -2363,22 +2367,26 @@
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101525.avi</t>
+          <t>2_R_B_3m-12222022102314.avi</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>656</v>
+        <v>3834</v>
       </c>
       <c r="G76" t="n">
-        <v>21.86666666666667</v>
+        <v>127.8</v>
       </c>
       <c r="H76" t="n">
         <v>30</v>
@@ -2388,77 +2396,77 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101644.avi</t>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3880</v>
+        <v>656</v>
       </c>
       <c r="G77" t="n">
-        <v>129.3333333333333</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C78" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D78" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>3_HB_B_3m-12222022103839.avi</t>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3295</v>
+        <v>3880</v>
       </c>
       <c r="G78" t="n">
-        <v>109.8333333333333</v>
+        <v>129.3333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="n"/>
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+          <t>3_HB_B_3m-12222022103839.avi</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3921</v>
+        <v>3295</v>
       </c>
       <c r="G79" t="n">
-        <v>130.7</v>
+        <v>109.8333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>30</v>
@@ -2467,26 +2475,22 @@
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C80" s="1" t="n"/>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>3_R_B_3METERS-12222022103546.avi</t>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4064</v>
+        <v>3921</v>
       </c>
       <c r="G80" t="n">
-        <v>135.4666666666667</v>
+        <v>130.7</v>
       </c>
       <c r="H80" t="n">
         <v>30</v>
@@ -2495,78 +2499,86 @@
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>3_R_WOB_3m-12222022103229.avi</t>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3949</v>
+        <v>4064</v>
       </c>
       <c r="G81" t="n">
-        <v>131.6333333333333</v>
+        <v>135.4666666666667</v>
       </c>
       <c r="H81" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>3949</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>131.6333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="n"/>
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4756</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>158.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>30</v>
@@ -2576,21 +2588,17 @@
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2626</v>
+        <v>4756</v>
       </c>
       <c r="G84" t="n">
-        <v>87.53333333333333</v>
+        <v>158.5333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>30</v>
@@ -2599,26 +2607,22 @@
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C85" s="1" t="n"/>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3821</v>
+        <v>2626</v>
       </c>
       <c r="G85" t="n">
-        <v>127.3666666666667</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>30</v>
@@ -2627,22 +2631,26 @@
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="n"/>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4594</v>
+        <v>3821</v>
       </c>
       <c r="G86" t="n">
-        <v>153.1333333333333</v>
+        <v>127.3666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>30</v>
@@ -2650,31 +2658,23 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C87" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4683</v>
+        <v>4594</v>
       </c>
       <c r="G87" t="n">
-        <v>156.1</v>
+        <v>153.1333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>30</v>
@@ -2682,23 +2682,31 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3855</v>
+        <v>4683</v>
       </c>
       <c r="G88" t="n">
-        <v>128.5</v>
+        <v>156.1</v>
       </c>
       <c r="H88" t="n">
         <v>30</v>
@@ -2707,26 +2715,22 @@
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C89" s="1" t="n"/>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3871</v>
+        <v>3855</v>
       </c>
       <c r="G89" t="n">
-        <v>129.0333333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H89" t="n">
         <v>30</v>
@@ -2735,102 +2739,106 @@
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>124</v>
+        <v>3871</v>
       </c>
       <c r="G90" t="n">
-        <v>4.133292</v>
+        <v>129.0333333333333</v>
       </c>
       <c r="H90" t="n">
-        <v>30.00030000300003</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="n"/>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>124</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.133292</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30.00030000300003</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
           <t>4_relaxed_wob_3ME-12222022114811.avi</t>
         </is>
       </c>
-      <c r="F91" t="n">
+      <c r="F92" t="n">
         <v>3497</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G92" t="n">
         <v>116.5666666666667</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H92" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B92" s="1" t="inlineStr">
+      <c r="B93" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C92" s="1" t="inlineStr">
+      <c r="C93" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D92" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E92" s="1" t="inlineStr">
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
         <is>
           <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
         </is>
       </c>
-      <c r="F92" t="n">
+      <c r="F93" t="n">
         <v>3579</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G93" t="n">
         <v>357.9</v>
-      </c>
-      <c r="H92" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n"/>
-      <c r="C93" s="1" t="n"/>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E93" s="1" t="inlineStr">
-        <is>
-          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>3471</v>
-      </c>
-      <c r="G93" t="n">
-        <v>347.1</v>
       </c>
       <c r="H93" t="n">
         <v>10</v>
@@ -2839,26 +2847,22 @@
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4450</v>
+        <v>3471</v>
       </c>
       <c r="G94" t="n">
-        <v>445</v>
+        <v>347.1</v>
       </c>
       <c r="H94" t="n">
         <v>10</v>
@@ -2867,22 +2871,26 @@
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="n"/>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3554</v>
+        <v>4450</v>
       </c>
       <c r="G95" t="n">
-        <v>355.4</v>
+        <v>445</v>
       </c>
       <c r="H95" t="n">
         <v>10</v>
@@ -2890,55 +2898,55 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C96" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4079</v>
+        <v>3554</v>
       </c>
       <c r="G96" t="n">
-        <v>135.9666666666667</v>
+        <v>355.4</v>
       </c>
       <c r="H96" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>5_holding_wob_3ME-12222022120954.avi</t>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4041</v>
+        <v>4079</v>
       </c>
       <c r="G97" t="n">
-        <v>134.7</v>
+        <v>135.9666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>30</v>
@@ -2947,26 +2955,22 @@
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C98" s="1" t="n"/>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4026</v>
+        <v>4041</v>
       </c>
       <c r="G98" t="n">
-        <v>134.2</v>
+        <v>134.7</v>
       </c>
       <c r="H98" t="n">
         <v>30</v>
@@ -2975,82 +2979,86 @@
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3556</v>
+        <v>4026</v>
       </c>
       <c r="G99" t="n">
-        <v>118.5333333333333</v>
+        <v>134.2</v>
       </c>
       <c r="H99" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3556</v>
+      </c>
+      <c r="G100" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B100" s="1" t="inlineStr">
+      <c r="B101" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C100" s="1" t="inlineStr">
+      <c r="C101" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D100" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E100" s="1" t="inlineStr">
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
         <is>
           <t>6_holding_blanket_2me-12222022161854.avi</t>
         </is>
       </c>
-      <c r="F100" t="n">
+      <c r="F101" t="n">
         <v>2186</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G101" t="n">
         <v>218.6</v>
-      </c>
-      <c r="H100" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n"/>
-      <c r="C101" s="1" t="n"/>
-      <c r="D101" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E101" s="1" t="inlineStr">
-        <is>
-          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>2214</v>
-      </c>
-      <c r="G101" t="n">
-        <v>221.4</v>
       </c>
       <c r="H101" t="n">
         <v>10</v>
@@ -3059,26 +3067,22 @@
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C102" s="1" t="n"/>
       <c r="D102" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>6_relax_blanket_2me-12222022161616.avi</t>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2566</v>
+        <v>2214</v>
       </c>
       <c r="G102" t="n">
-        <v>256.6</v>
+        <v>221.4</v>
       </c>
       <c r="H102" t="n">
         <v>10</v>
@@ -3087,22 +3091,26 @@
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="n"/>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2438</v>
+        <v>2566</v>
       </c>
       <c r="G103" t="n">
-        <v>243.8</v>
+        <v>256.6</v>
       </c>
       <c r="H103" t="n">
         <v>10</v>
@@ -3110,31 +3118,23 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4844</v>
+        <v>2438</v>
       </c>
       <c r="G104" t="n">
-        <v>484.4</v>
+        <v>243.8</v>
       </c>
       <c r="H104" t="n">
         <v>10</v>
@@ -3142,19 +3142,31 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="n"/>
-      <c r="C105" s="1" t="n"/>
-      <c r="D105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1452</v>
+        <v>4844</v>
       </c>
       <c r="G105" t="n">
-        <v>145.2</v>
+        <v>484.4</v>
       </c>
       <c r="H105" t="n">
         <v>10</v>
@@ -3167,14 +3179,14 @@
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3246</v>
+        <v>1452</v>
       </c>
       <c r="G106" t="n">
-        <v>324.6</v>
+        <v>145.2</v>
       </c>
       <c r="H106" t="n">
         <v>10</v>
@@ -3184,41 +3196,41 @@
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D107" s="1" t="n"/>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2703</v>
+        <v>3246</v>
       </c>
       <c r="G107" t="n">
-        <v>90.09999999999999</v>
+        <v>324.6</v>
       </c>
       <c r="H107" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="n"/>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1538</v>
+        <v>2703</v>
       </c>
       <c r="G108" t="n">
-        <v>51.26666666666667</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>30</v>
@@ -3231,14 +3243,14 @@
       <c r="D109" s="1" t="n"/>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1423</v>
+        <v>1538</v>
       </c>
       <c r="G109" t="n">
-        <v>47.43333333333333</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>30</v>
@@ -3247,110 +3259,106 @@
     <row r="110">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="n"/>
-      <c r="C110" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3910</v>
+        <v>1423</v>
       </c>
       <c r="G110" t="n">
-        <v>391</v>
+        <v>47.43333333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="n"/>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G111" t="n">
+        <v>391</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
           <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
         </is>
       </c>
-      <c r="F111" t="n">
+      <c r="F112" t="n">
         <v>3710</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G112" t="n">
         <v>123.6666666666667</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H112" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="inlineStr">
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B112" s="1" t="inlineStr">
+      <c r="B113" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C112" s="1" t="inlineStr">
+      <c r="C113" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E112" s="1" t="inlineStr">
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
         <is>
           <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
         </is>
       </c>
-      <c r="F112" t="n">
+      <c r="F113" t="n">
         <v>3585</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G113" t="n">
         <v>358.5</v>
-      </c>
-      <c r="H112" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="n"/>
-      <c r="C113" s="1" t="n"/>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E113" s="1" t="inlineStr">
-        <is>
-          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>3453</v>
-      </c>
-      <c r="G113" t="n">
-        <v>345.3</v>
       </c>
       <c r="H113" t="n">
         <v>10</v>
@@ -3359,26 +3367,22 @@
     <row r="114">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="n"/>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C114" s="1" t="n"/>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5048</v>
+        <v>3453</v>
       </c>
       <c r="G114" t="n">
-        <v>504.8</v>
+        <v>345.3</v>
       </c>
       <c r="H114" t="n">
         <v>10</v>
@@ -3387,78 +3391,82 @@
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="n"/>
-      <c r="C115" s="1" t="n"/>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>7_relax_wob_2me-12222022131934.avi</t>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2593</v>
+        <v>5048</v>
       </c>
       <c r="G115" t="n">
-        <v>86.43333333333334</v>
+        <v>504.8</v>
       </c>
       <c r="H115" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C116" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3611</v>
+        <v>2593</v>
       </c>
       <c r="G116" t="n">
-        <v>361.1</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="H116" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="n"/>
-      <c r="C117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3599</v>
+        <v>3611</v>
       </c>
       <c r="G117" t="n">
-        <v>359.9</v>
+        <v>361.1</v>
       </c>
       <c r="H117" t="n">
         <v>10</v>
@@ -3467,26 +3475,22 @@
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n"/>
-      <c r="C118" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C118" s="1" t="n"/>
       <c r="D118" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3946</v>
+        <v>3599</v>
       </c>
       <c r="G118" t="n">
-        <v>394.6</v>
+        <v>359.9</v>
       </c>
       <c r="H118" t="n">
         <v>10</v>
@@ -3495,82 +3499,86 @@
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="n"/>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D119" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3946</v>
+      </c>
+      <c r="G119" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
           <t>7_relax_WOB_3ME_-12222022130055.avi</t>
         </is>
       </c>
-      <c r="F119" t="n">
+      <c r="F120" t="n">
         <v>3438</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G120" t="n">
         <v>343.8</v>
       </c>
-      <c r="H119" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B120" s="1" t="inlineStr">
+      <c r="B121" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C120" s="1" t="inlineStr">
+      <c r="C121" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E120" s="1" t="inlineStr">
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
         <is>
           <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
         </is>
       </c>
-      <c r="F120" t="n">
+      <c r="F121" t="n">
         <v>3544</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G121" t="n">
         <v>354.4</v>
-      </c>
-      <c r="H120" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="n"/>
-      <c r="D121" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E121" s="1" t="inlineStr">
-        <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>3551</v>
-      </c>
-      <c r="G121" t="n">
-        <v>355.1</v>
       </c>
       <c r="H121" t="n">
         <v>10</v>
@@ -3580,17 +3588,21 @@
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="n"/>
-      <c r="D122" s="1" t="n"/>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3741</v>
+        <v>3551</v>
       </c>
       <c r="G122" t="n">
-        <v>374.1</v>
+        <v>355.1</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
@@ -3599,26 +3611,18 @@
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="n"/>
-      <c r="C123" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D123" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3553</v>
+        <v>3741</v>
       </c>
       <c r="G123" t="n">
-        <v>355.3</v>
+        <v>374.1</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
@@ -3627,18 +3631,26 @@
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
-      <c r="C124" s="1" t="n"/>
-      <c r="D124" s="1" t="n"/>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3550</v>
+        <v>3553</v>
       </c>
       <c r="G124" t="n">
-        <v>355</v>
+        <v>355.3</v>
       </c>
       <c r="H124" t="n">
         <v>10</v>
@@ -3646,31 +3658,19 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D125" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1917</v>
+        <v>3550</v>
       </c>
       <c r="G125" t="n">
-        <v>191.7</v>
+        <v>355</v>
       </c>
       <c r="H125" t="n">
         <v>10</v>
@@ -3678,23 +3678,31 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="n"/>
-      <c r="C126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3706</v>
+        <v>1917</v>
       </c>
       <c r="G126" t="n">
-        <v>370.6</v>
+        <v>191.7</v>
       </c>
       <c r="H126" t="n">
         <v>10</v>
@@ -3703,26 +3711,22 @@
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="n"/>
-      <c r="C127" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C127" s="1" t="n"/>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1935</v>
+        <v>3706</v>
       </c>
       <c r="G127" t="n">
-        <v>193.5</v>
+        <v>370.6</v>
       </c>
       <c r="H127" t="n">
         <v>10</v>
@@ -3731,82 +3735,86 @@
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="n"/>
-      <c r="C128" s="1" t="n"/>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1935</v>
+      </c>
+      <c r="G128" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="inlineStr">
+        <is>
           <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
         </is>
       </c>
-      <c r="F128" t="n">
+      <c r="F129" t="n">
         <v>3569</v>
       </c>
-      <c r="G128" t="n">
+      <c r="G129" t="n">
         <v>356.9</v>
       </c>
-      <c r="H128" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="B130" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C129" s="1" t="inlineStr">
+      <c r="C130" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E129" s="1" t="inlineStr">
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
         <is>
           <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
         </is>
       </c>
-      <c r="F129" t="n">
+      <c r="F130" t="n">
         <v>3380</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G130" t="n">
         <v>338</v>
-      </c>
-      <c r="H129" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="n"/>
-      <c r="C130" s="1" t="n"/>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E130" s="1" t="inlineStr">
-        <is>
-          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>3570</v>
-      </c>
-      <c r="G130" t="n">
-        <v>357</v>
       </c>
       <c r="H130" t="n">
         <v>10</v>
@@ -3815,26 +3823,22 @@
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C131" s="1" t="n"/>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E131" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1654</v>
+        <v>3570</v>
       </c>
       <c r="G131" t="n">
-        <v>165.4</v>
+        <v>357</v>
       </c>
       <c r="H131" t="n">
         <v>10</v>
@@ -3843,18 +3847,26 @@
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="n"/>
-      <c r="C132" s="1" t="n"/>
-      <c r="D132" s="1" t="n"/>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E132" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1487</v>
+        <v>1654</v>
       </c>
       <c r="G132" t="n">
-        <v>148.7</v>
+        <v>165.4</v>
       </c>
       <c r="H132" t="n">
         <v>10</v>
@@ -3864,21 +3876,17 @@
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n"/>
       <c r="C133" s="1" t="n"/>
-      <c r="D133" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D133" s="1" t="n"/>
       <c r="E133" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1546</v>
+        <v>1487</v>
       </c>
       <c r="G133" t="n">
-        <v>154.6</v>
+        <v>148.7</v>
       </c>
       <c r="H133" t="n">
         <v>10</v>
@@ -3888,17 +3896,21 @@
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="n"/>
-      <c r="D134" s="1" t="n"/>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1752</v>
+        <v>1546</v>
       </c>
       <c r="G134" t="n">
-        <v>175.2</v>
+        <v>154.6</v>
       </c>
       <c r="H134" t="n">
         <v>10</v>
@@ -3906,31 +3918,19 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C135" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D135" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="n"/>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1784</v>
+        <v>1752</v>
       </c>
       <c r="G135" t="n">
-        <v>178.4</v>
+        <v>175.2</v>
       </c>
       <c r="H135" t="n">
         <v>10</v>
@@ -3938,23 +3938,31 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="n"/>
-      <c r="C136" s="1" t="n"/>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1944</v>
+        <v>1784</v>
       </c>
       <c r="G136" t="n">
-        <v>194.4</v>
+        <v>178.4</v>
       </c>
       <c r="H136" t="n">
         <v>10</v>
@@ -3963,26 +3971,22 @@
     <row r="137">
       <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="n"/>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C137" s="1" t="n"/>
       <c r="D137" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E137" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1937</v>
+        <v>1944</v>
       </c>
       <c r="G137" t="n">
-        <v>193.7</v>
+        <v>194.4</v>
       </c>
       <c r="H137" t="n">
         <v>10</v>
@@ -3991,140 +3995,168 @@
     <row r="138">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="n"/>
-      <c r="C138" s="1" t="n"/>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E138" s="1" t="inlineStr">
         <is>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G138" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
           <t>9_relaxed_wob_3me-12222022142904.avi</t>
         </is>
       </c>
-      <c r="F138" t="n">
+      <c r="F139" t="n">
         <v>1814</v>
       </c>
-      <c r="G138" t="n">
+      <c r="G139" t="n">
         <v>181.4</v>
       </c>
-      <c r="H138" t="n">
+      <c r="H139" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="A101:A112"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A79:A82"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D134:D135"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C44:C55"/>
-    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C105:C110"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="A113:A120"/>
     <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A129:A138"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B44:B68"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A44:A69"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A130:A139"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C97:C98"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C56:C68"/>
-    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="B93:B96"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C95:C96"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C57:C69"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C90:C92"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D45:D51"/>
     <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C103:C104"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="D61:D69"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C113:C114"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A44:A68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B45:B69"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D105:D107"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="B121:B125"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C121:C123"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D133:D134"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B18:B22"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B113:B116"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B129:B134"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A112:A119"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A100:A111"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C124:C125"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="B117:B120"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C130:C131"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D121:D122"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C81:C82"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C136:C137"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="B104:B111"/>
-    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D124:D125"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>old fps</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>alias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -530,6 +535,11 @@
       </c>
       <c r="H2" t="n">
         <v>30</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -551,6 +561,11 @@
       <c r="H3" t="n">
         <v>30</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -579,6 +594,11 @@
       <c r="H4" t="n">
         <v>30</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -614,6 +634,11 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -639,6 +664,11 @@
       <c r="H6" t="n">
         <v>10</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -666,6 +696,11 @@
       </c>
       <c r="H7" t="n">
         <v>10</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -691,6 +726,11 @@
       <c r="H8" t="n">
         <v>10</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -722,6 +762,11 @@
       </c>
       <c r="H9" t="n">
         <v>10</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -747,6 +792,11 @@
       <c r="H10" t="n">
         <v>10</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -774,6 +824,11 @@
       </c>
       <c r="H11" t="n">
         <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -799,6 +854,11 @@
       <c r="H12" t="n">
         <v>10</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -834,6 +894,11 @@
       </c>
       <c r="H13" t="n">
         <v>10</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -859,6 +924,11 @@
       <c r="H14" t="n">
         <v>10</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -886,6 +956,11 @@
       </c>
       <c r="H15" t="n">
         <v>10</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -910,6 +985,11 @@
       </c>
       <c r="H16" t="n">
         <v>10</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -931,6 +1011,11 @@
       <c r="H17" t="n">
         <v>10</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -962,6 +1047,11 @@
       </c>
       <c r="H18" t="n">
         <v>10</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -986,6 +1076,11 @@
       </c>
       <c r="H19" t="n">
         <v>10</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1007,6 +1102,11 @@
       <c r="H20" t="n">
         <v>10</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1034,6 +1134,11 @@
       </c>
       <c r="H21" t="n">
         <v>10</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1059,6 +1164,11 @@
       <c r="H22" t="n">
         <v>10</v>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1094,6 +1204,11 @@
       </c>
       <c r="H23" t="n">
         <v>10</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1119,6 +1234,11 @@
       <c r="H24" t="n">
         <v>10</v>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -1146,6 +1266,11 @@
       </c>
       <c r="H25" t="n">
         <v>10</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1171,6 +1296,11 @@
       <c r="H26" t="n">
         <v>10</v>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -1202,6 +1332,11 @@
       </c>
       <c r="H27" t="n">
         <v>10</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1227,6 +1362,11 @@
       <c r="H28" t="n">
         <v>10</v>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -1254,6 +1394,11 @@
       </c>
       <c r="H29" t="n">
         <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1279,6 +1424,11 @@
       <c r="H30" t="n">
         <v>10</v>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1314,6 +1464,11 @@
       </c>
       <c r="H31" t="n">
         <v>10</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -1339,6 +1494,11 @@
       <c r="H32" t="n">
         <v>10</v>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -1366,6 +1526,11 @@
       </c>
       <c r="H33" t="n">
         <v>10</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1391,6 +1556,11 @@
       <c r="H34" t="n">
         <v>10</v>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -1422,6 +1592,11 @@
       </c>
       <c r="H35" t="n">
         <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1447,6 +1622,11 @@
       <c r="H36" t="n">
         <v>10</v>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -1474,6 +1654,11 @@
       </c>
       <c r="H37" t="n">
         <v>10</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -1499,6 +1684,11 @@
       <c r="H38" t="n">
         <v>10</v>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1534,6 +1724,11 @@
       </c>
       <c r="H39" t="n">
         <v>10</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -1555,6 +1750,11 @@
       <c r="H40" t="n">
         <v>10</v>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
@@ -1586,6 +1786,11 @@
       </c>
       <c r="H41" t="n">
         <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1610,6 +1815,11 @@
       </c>
       <c r="H42" t="n">
         <v>10</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -1631,6 +1841,11 @@
       <c r="H43" t="n">
         <v>10</v>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1640,64 +1855,62 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>15_2</t>
+          <t>2 meters</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>15_2nd_2meters</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>15_2nd_hold_blanket_2meters</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>output_video.mp4</t>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2114</v>
+        <v>127</v>
       </c>
       <c r="G44" t="n">
-        <v>70.46666666666667</v>
+        <v>12.7</v>
       </c>
       <c r="H44" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="G45" t="n">
-        <v>12.7</v>
+        <v>16</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -1707,17 +1920,22 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>16</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1727,17 +1945,22 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -1747,17 +1970,22 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -1767,17 +1995,22 @@
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -1787,61 +2020,76 @@
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
         <v>10</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>11.4</v>
       </c>
       <c r="H51" t="n">
         <v>10</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>11.4</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -1851,17 +2099,22 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="H53" t="n">
         <v>5</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -1871,17 +2124,22 @@
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -1891,65 +2149,80 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="G55" t="n">
-        <v>6.4</v>
+        <v>17.6</v>
       </c>
       <c r="H55" t="n">
         <v>10</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="G56" t="n">
-        <v>17.6</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>10</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>6.6</v>
       </c>
       <c r="H57" t="n">
         <v>10</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -1959,17 +2232,22 @@
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>66</v>
+        <v>543</v>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>54.3</v>
       </c>
       <c r="H58" t="n">
         <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -1979,61 +2257,76 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>543</v>
+        <v>633</v>
       </c>
       <c r="G59" t="n">
-        <v>54.3</v>
+        <v>63.3</v>
       </c>
       <c r="H59" t="n">
         <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="n"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>633</v>
+        <v>995</v>
       </c>
       <c r="G60" t="n">
-        <v>63.3</v>
+        <v>99.5</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>995</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>99.5</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>10</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -2043,17 +2336,22 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>10.5</v>
       </c>
       <c r="H62" t="n">
         <v>10</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -2063,17 +2361,22 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="G63" t="n">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
       <c r="H63" t="n">
         <v>10</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2083,17 +2386,22 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>20.6</v>
       </c>
       <c r="H64" t="n">
         <v>10</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -2103,17 +2411,22 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>206</v>
+        <v>391</v>
       </c>
       <c r="G65" t="n">
-        <v>20.6</v>
+        <v>78.2</v>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -2123,17 +2436,22 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="G66" t="n">
-        <v>78.2</v>
+        <v>5.6</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -2143,17 +2461,22 @@
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>15.4</v>
       </c>
       <c r="H67" t="n">
         <v>5</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -2163,1013 +2486,1203 @@
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G68" t="n">
-        <v>15.4</v>
+        <v>18.4</v>
       </c>
       <c r="H68" t="n">
         <v>5</v>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="n"/>
-      <c r="D69" s="1" t="n"/>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+          <t>2_H_B_2m-12222022100256.avi</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>92</v>
+        <v>4567</v>
       </c>
       <c r="G69" t="n">
-        <v>18.4</v>
+        <v>152.2333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>30</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_2m-12222022100256.avi</t>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4567</v>
+        <v>4466</v>
       </c>
       <c r="G70" t="n">
-        <v>152.2333333333333</v>
+        <v>148.8666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>30</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
-      <c r="C71" s="1" t="n"/>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_2m-12222022095411.avi</t>
+          <t>2_R_B_2m-12222022095917.avi</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4466</v>
+        <v>4691</v>
       </c>
       <c r="G71" t="n">
-        <v>148.8666666666667</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>30</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_2m-12222022095917.avi</t>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4691</v>
+        <v>4344</v>
       </c>
       <c r="G72" t="n">
-        <v>156.3666666666667</v>
+        <v>144.8</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_2m-12222022095034.avi</t>
+          <t>2_H_B_3m-12222022102602.avi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4344</v>
+        <v>3992</v>
       </c>
       <c r="G73" t="n">
-        <v>144.8</v>
+        <v>133.0666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>30</v>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_3m-12222022102602.avi</t>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3992</v>
+        <v>3952</v>
       </c>
       <c r="G74" t="n">
-        <v>133.0666666666667</v>
+        <v>131.7333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>30</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_3m-12222022101944.avi</t>
+          <t>2_R_B_3m-12222022102314.avi</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3952</v>
+        <v>3834</v>
       </c>
       <c r="G75" t="n">
-        <v>131.7333333333333</v>
+        <v>127.8</v>
       </c>
       <c r="H75" t="n">
         <v>30</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_3m-12222022102314.avi</t>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3834</v>
+        <v>656</v>
       </c>
       <c r="G76" t="n">
-        <v>127.8</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>30</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101525.avi</t>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>656</v>
+        <v>3880</v>
       </c>
       <c r="G77" t="n">
-        <v>21.86666666666667</v>
+        <v>129.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>30</v>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
-      <c r="D78" s="1" t="n"/>
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101644.avi</t>
+          <t>3_HB_B_3m-12222022103839.avi</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3880</v>
+        <v>3295</v>
       </c>
       <c r="G78" t="n">
-        <v>129.3333333333333</v>
+        <v>109.8333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>30</v>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>3_HB_B_3m-12222022103839.avi</t>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3295</v>
+        <v>3921</v>
       </c>
       <c r="G79" t="n">
-        <v>109.8333333333333</v>
+        <v>130.7</v>
       </c>
       <c r="H79" t="n">
         <v>30</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="n"/>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3921</v>
+        <v>4064</v>
       </c>
       <c r="G80" t="n">
-        <v>130.7</v>
+        <v>135.4666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>30</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C81" s="1" t="n"/>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>3_R_B_3METERS-12222022103546.avi</t>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4064</v>
+        <v>3949</v>
       </c>
       <c r="G81" t="n">
-        <v>135.4666666666667</v>
+        <v>131.6333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>30</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>3_R_WOB_3m-12222022103229.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3949</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>131.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>30</v>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>158.5333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>30</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
       <c r="B84" s="1" t="n"/>
       <c r="C84" s="1" t="n"/>
-      <c r="D84" s="1" t="n"/>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4756</v>
+        <v>2626</v>
       </c>
       <c r="G84" t="n">
-        <v>158.5333333333333</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>30</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n"/>
-      <c r="C85" s="1" t="n"/>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2626</v>
+        <v>3821</v>
       </c>
       <c r="G85" t="n">
-        <v>87.53333333333333</v>
+        <v>127.3666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>30</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C86" s="1" t="n"/>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3821</v>
+        <v>4594</v>
       </c>
       <c r="G86" t="n">
-        <v>127.3666666666667</v>
+        <v>153.1333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>30</v>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
-      <c r="C87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4594</v>
+        <v>4683</v>
       </c>
       <c r="G87" t="n">
-        <v>153.1333333333333</v>
+        <v>156.1</v>
       </c>
       <c r="H87" t="n">
         <v>30</v>
       </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4683</v>
+        <v>3855</v>
       </c>
       <c r="G88" t="n">
-        <v>156.1</v>
+        <v>128.5</v>
       </c>
       <c r="H88" t="n">
         <v>30</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3855</v>
+        <v>3871</v>
       </c>
       <c r="G89" t="n">
-        <v>128.5</v>
+        <v>129.0333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>30</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C90" s="1" t="n"/>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3871</v>
+        <v>124</v>
       </c>
       <c r="G90" t="n">
-        <v>129.0333333333333</v>
+        <v>4.133292</v>
       </c>
       <c r="H90" t="n">
-        <v>30</v>
+        <v>30.00030000300003</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>124</v>
+        <v>3497</v>
       </c>
       <c r="G91" t="n">
-        <v>4.133292</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>30.00030000300003</v>
+        <v>30</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
-      <c r="C92" s="1" t="n"/>
-      <c r="D92" s="1" t="n"/>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3497</v>
+        <v>3579</v>
       </c>
       <c r="G92" t="n">
-        <v>116.5666666666667</v>
+        <v>357.9</v>
       </c>
       <c r="H92" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
       <c r="D93" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3579</v>
+        <v>3471</v>
       </c>
       <c r="G93" t="n">
-        <v>357.9</v>
+        <v>347.1</v>
       </c>
       <c r="H93" t="n">
         <v>10</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="n"/>
-      <c r="C94" s="1" t="n"/>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3471</v>
+        <v>4450</v>
       </c>
       <c r="G94" t="n">
-        <v>347.1</v>
+        <v>445</v>
       </c>
       <c r="H94" t="n">
         <v>10</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4450</v>
+        <v>3554</v>
       </c>
       <c r="G95" t="n">
-        <v>445</v>
+        <v>355.4</v>
       </c>
       <c r="H95" t="n">
         <v>10</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D96" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3554</v>
+        <v>4079</v>
       </c>
       <c r="G96" t="n">
-        <v>355.4</v>
+        <v>135.9666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C97" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4079</v>
+        <v>4041</v>
       </c>
       <c r="G97" t="n">
-        <v>135.9666666666667</v>
+        <v>134.7</v>
       </c>
       <c r="H97" t="n">
         <v>30</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="n"/>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>5_holding_wob_3ME-12222022120954.avi</t>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4041</v>
+        <v>4026</v>
       </c>
       <c r="G98" t="n">
-        <v>134.7</v>
+        <v>134.2</v>
       </c>
       <c r="H98" t="n">
         <v>30</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C99" s="1" t="n"/>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4026</v>
+        <v>3556</v>
       </c>
       <c r="G99" t="n">
-        <v>134.2</v>
+        <v>118.5333333333333</v>
       </c>
       <c r="H99" t="n">
         <v>30</v>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+          <t>6_holding_blanket_2me-12222022161854.avi</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3556</v>
+        <v>2186</v>
       </c>
       <c r="G100" t="n">
-        <v>118.5333333333333</v>
+        <v>218.6</v>
       </c>
       <c r="H100" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C101" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
       <c r="D101" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>6_holding_blanket_2me-12222022161854.avi</t>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2186</v>
+        <v>2214</v>
       </c>
       <c r="G101" t="n">
-        <v>218.6</v>
+        <v>221.4</v>
       </c>
       <c r="H101" t="n">
         <v>10</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="n"/>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D102" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2214</v>
+        <v>2566</v>
       </c>
       <c r="G102" t="n">
-        <v>221.4</v>
+        <v>256.6</v>
       </c>
       <c r="H102" t="n">
         <v>10</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C103" s="1" t="n"/>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>6_relax_blanket_2me-12222022161616.avi</t>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2566</v>
+        <v>2438</v>
       </c>
       <c r="G103" t="n">
-        <v>256.6</v>
+        <v>243.8</v>
       </c>
       <c r="H103" t="n">
         <v>10</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="n"/>
-      <c r="C104" s="1" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2438</v>
+        <v>4844</v>
       </c>
       <c r="G104" t="n">
-        <v>243.8</v>
+        <v>484.4</v>
       </c>
       <c r="H104" t="n">
         <v>10</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4844</v>
+        <v>1452</v>
       </c>
       <c r="G105" t="n">
-        <v>484.4</v>
+        <v>145.2</v>
       </c>
       <c r="H105" t="n">
         <v>10</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -3179,61 +3692,76 @@
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1452</v>
+        <v>3246</v>
       </c>
       <c r="G106" t="n">
-        <v>145.2</v>
+        <v>324.6</v>
       </c>
       <c r="H106" t="n">
         <v>10</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="n"/>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3246</v>
+        <v>2703</v>
       </c>
       <c r="G107" t="n">
-        <v>324.6</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H107" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D108" s="1" t="n"/>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2703</v>
+        <v>1538</v>
       </c>
       <c r="G108" t="n">
-        <v>90.09999999999999</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>30</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="109">
@@ -3243,920 +3771,1050 @@
       <c r="D109" s="1" t="n"/>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1538</v>
+        <v>1423</v>
       </c>
       <c r="G109" t="n">
-        <v>51.26666666666667</v>
+        <v>47.43333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>30</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="n"/>
-      <c r="C110" s="1" t="n"/>
-      <c r="D110" s="1" t="n"/>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1423</v>
+        <v>3910</v>
       </c>
       <c r="G110" t="n">
-        <v>47.43333333333333</v>
+        <v>391</v>
       </c>
       <c r="H110" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C111" s="1" t="n"/>
       <c r="D111" s="1" t="inlineStr">
         <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G111" t="n">
+        <v>123.6666666666667</v>
+      </c>
+      <c r="H111" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E111" s="1" t="inlineStr">
-        <is>
-          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>3910</v>
-      </c>
-      <c r="G111" t="n">
-        <v>391</v>
-      </c>
-      <c r="H111" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="n"/>
-      <c r="C112" s="1" t="n"/>
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3710</v>
+        <v>3585</v>
       </c>
       <c r="G112" t="n">
-        <v>123.6666666666667</v>
+        <v>358.5</v>
       </c>
       <c r="H112" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
       <c r="D113" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3585</v>
+        <v>3453</v>
       </c>
       <c r="G113" t="n">
-        <v>358.5</v>
+        <v>345.3</v>
       </c>
       <c r="H113" t="n">
         <v>10</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="n"/>
-      <c r="C114" s="1" t="n"/>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3453</v>
+        <v>5048</v>
       </c>
       <c r="G114" t="n">
-        <v>345.3</v>
+        <v>504.8</v>
       </c>
       <c r="H114" t="n">
         <v>10</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="n"/>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C115" s="1" t="n"/>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5048</v>
+        <v>2593</v>
       </c>
       <c r="G115" t="n">
-        <v>504.8</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="n"/>
-      <c r="C116" s="1" t="n"/>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>7_relax_wob_2me-12222022131934.avi</t>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2593</v>
+        <v>3611</v>
       </c>
       <c r="G116" t="n">
-        <v>86.43333333333334</v>
+        <v>361.1</v>
       </c>
       <c r="H116" t="n">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3611</v>
+        <v>3599</v>
       </c>
       <c r="G117" t="n">
-        <v>361.1</v>
+        <v>359.9</v>
       </c>
       <c r="H117" t="n">
         <v>10</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n"/>
-      <c r="C118" s="1" t="n"/>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D118" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3599</v>
+        <v>3946</v>
       </c>
       <c r="G118" t="n">
-        <v>359.9</v>
+        <v>394.6</v>
       </c>
       <c r="H118" t="n">
         <v>10</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C119" s="1" t="n"/>
       <c r="D119" s="1" t="inlineStr">
         <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3438</v>
+      </c>
+      <c r="G119" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E119" s="1" t="inlineStr">
-        <is>
-          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>3946</v>
-      </c>
-      <c r="G119" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="H119" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="n"/>
-      <c r="C120" s="1" t="n"/>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
       <c r="E120" s="1" t="inlineStr">
         <is>
-          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3438</v>
+        <v>3544</v>
       </c>
       <c r="G120" t="n">
-        <v>343.8</v>
+        <v>354.4</v>
       </c>
       <c r="H120" t="n">
         <v>10</v>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3544</v>
+        <v>3551</v>
       </c>
       <c r="G121" t="n">
-        <v>354.4</v>
+        <v>355.1</v>
       </c>
       <c r="H121" t="n">
         <v>10</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="n"/>
-      <c r="D122" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D122" s="1" t="n"/>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3551</v>
+        <v>3741</v>
       </c>
       <c r="G122" t="n">
-        <v>355.1</v>
+        <v>374.1</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
       <c r="B123" s="1" t="n"/>
-      <c r="C123" s="1" t="n"/>
-      <c r="D123" s="1" t="n"/>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3741</v>
+        <v>3553</v>
       </c>
       <c r="G123" t="n">
-        <v>374.1</v>
+        <v>355.3</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="G124" t="n">
-        <v>355.3</v>
+        <v>355</v>
       </c>
       <c r="H124" t="n">
         <v>10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="n"/>
-      <c r="C125" s="1" t="n"/>
-      <c r="D125" s="1" t="n"/>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3550</v>
+        <v>1917</v>
       </c>
       <c r="G125" t="n">
-        <v>355</v>
+        <v>191.7</v>
       </c>
       <c r="H125" t="n">
         <v>10</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1917</v>
+        <v>3706</v>
       </c>
       <c r="G126" t="n">
-        <v>191.7</v>
+        <v>370.6</v>
       </c>
       <c r="H126" t="n">
         <v>10</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="n"/>
-      <c r="C127" s="1" t="n"/>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3706</v>
+        <v>1935</v>
       </c>
       <c r="G127" t="n">
-        <v>370.6</v>
+        <v>193.5</v>
       </c>
       <c r="H127" t="n">
         <v>10</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="n"/>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C128" s="1" t="n"/>
       <c r="D128" s="1" t="inlineStr">
         <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>3569</v>
+      </c>
+      <c r="G128" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E128" s="1" t="inlineStr">
-        <is>
-          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>1935</v>
-      </c>
-      <c r="G128" t="n">
-        <v>193.5</v>
-      </c>
-      <c r="H128" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="n"/>
-      <c r="C129" s="1" t="n"/>
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3569</v>
+        <v>3380</v>
       </c>
       <c r="G129" t="n">
-        <v>356.9</v>
+        <v>338</v>
       </c>
       <c r="H129" t="n">
         <v>10</v>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
       <c r="D130" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E130" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3380</v>
+        <v>3570</v>
       </c>
       <c r="G130" t="n">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H130" t="n">
         <v>10</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
-      <c r="C131" s="1" t="n"/>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E131" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3570</v>
+        <v>1654</v>
       </c>
       <c r="G131" t="n">
-        <v>357</v>
+        <v>165.4</v>
       </c>
       <c r="H131" t="n">
         <v>10</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="n"/>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="n"/>
       <c r="E132" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1654</v>
+        <v>1487</v>
       </c>
       <c r="G132" t="n">
-        <v>165.4</v>
+        <v>148.7</v>
       </c>
       <c r="H132" t="n">
         <v>10</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n"/>
       <c r="C133" s="1" t="n"/>
-      <c r="D133" s="1" t="n"/>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E133" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1487</v>
+        <v>1546</v>
       </c>
       <c r="G133" t="n">
-        <v>148.7</v>
+        <v>154.6</v>
       </c>
       <c r="H133" t="n">
         <v>10</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="n"/>
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D134" s="1" t="n"/>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1546</v>
+        <v>1752</v>
       </c>
       <c r="G134" t="n">
-        <v>154.6</v>
+        <v>175.2</v>
       </c>
       <c r="H134" t="n">
         <v>10</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="n"/>
-      <c r="C135" s="1" t="n"/>
-      <c r="D135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C135" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1752</v>
+        <v>1784</v>
       </c>
       <c r="G135" t="n">
-        <v>175.2</v>
+        <v>178.4</v>
       </c>
       <c r="H135" t="n">
         <v>10</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1784</v>
+        <v>1944</v>
       </c>
       <c r="G136" t="n">
-        <v>178.4</v>
+        <v>194.4</v>
       </c>
       <c r="H136" t="n">
         <v>10</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="n"/>
-      <c r="C137" s="1" t="n"/>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D137" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E137" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1944</v>
+        <v>1937</v>
       </c>
       <c r="G137" t="n">
-        <v>194.4</v>
+        <v>193.7</v>
       </c>
       <c r="H137" t="n">
         <v>10</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="n"/>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C138" s="1" t="n"/>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E138" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+          <t>9_relaxed_wob_3me-12222022142904.avi</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1937</v>
+        <v>1814</v>
       </c>
       <c r="G138" t="n">
-        <v>193.7</v>
+        <v>181.4</v>
       </c>
       <c r="H138" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="n"/>
-      <c r="C139" s="1" t="n"/>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E139" s="1" t="inlineStr">
-        <is>
-          <t>9_relaxed_wob_3me-12222022142904.avi</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>1814</v>
-      </c>
-      <c r="G139" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="H139" t="n">
-        <v>10</v>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A101:A112"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A92:A99"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="B116:B119"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C44:C55"/>
+    <mergeCell ref="D44:D50"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="D60:D68"/>
     <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A44:A69"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A130:A139"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="A129:A138"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B44:B68"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C112:C113"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C56:C68"/>
+    <mergeCell ref="D51:D55"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C129:C130"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B92:B95"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B135:B138"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D90:D91"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C103:C104"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D131:D132"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B45:B69"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A44:A68"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:A91"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D105:D107"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="C78:C79"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C121:C123"/>
     <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D133:D134"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B18:B22"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B113:B116"/>
     <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B129:B134"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A112:A119"/>
     <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A100:A111"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="A120:A128"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C118:C119"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C127:C128"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C130:C131"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="D123:D124"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D82:D83"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B104:B111"/>
+    <mergeCell ref="C92:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1698,29 +1698,29 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>14_1</t>
+          <t>2 meters</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>2 meters</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
+          <t>14_holdbreathing_blanked_2me-12222022162951.avi</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2255</v>
+        <v>1930</v>
       </c>
       <c r="G39" t="n">
-        <v>225.5</v>
+        <v>193</v>
       </c>
       <c r="H39" t="n">
         <v>10</v>
@@ -1735,17 +1735,21 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_wob_2me-12222022162257.avi</t>
+          <t>14_holdbreathing2_wob_2me-12222022162548.avi</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2310</v>
+        <v>205</v>
       </c>
       <c r="G40" t="n">
-        <v>231</v>
+        <v>20.5</v>
       </c>
       <c r="H40" t="n">
         <v>10</v>
@@ -1758,60 +1762,60 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing_wob_2me-12222022162453.avi</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>2 meters</t>
         </is>
       </c>
-      <c r="C41" s="1" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D41" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E41" s="1" t="inlineStr">
-        <is>
-          <t>14_holdbreathing_blanked_2me-12222022162951.avi</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>1930</v>
-      </c>
-      <c r="G41" t="n">
-        <v>193</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>14_holdbreathing2_wob_2me-12222022162548.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="G42" t="n">
-        <v>20.5</v>
+        <v>12.7</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -1829,14 +1833,14 @@
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>14_holdbreathing_wob_2me-12222022162453.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1296</v>
+        <v>160</v>
       </c>
       <c r="G43" t="n">
-        <v>129.6</v>
+        <v>16</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
@@ -1848,36 +1852,20 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>12.7</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
@@ -1895,14 +1883,14 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
@@ -1920,14 +1908,14 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
@@ -1945,14 +1933,14 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
@@ -1970,14 +1958,14 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
@@ -1992,17 +1980,21 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="n"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>11.4</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
@@ -2020,17 +2012,17 @@
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2042,24 +2034,20 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>11.4</v>
+        <v>0.2</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2074,17 +2062,17 @@
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G52" t="n">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2099,17 +2087,17 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2</v>
+        <v>17.6</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2120,18 +2108,26 @@
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
-      <c r="D54" s="1" t="n"/>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>2.7</v>
       </c>
       <c r="H54" t="n">
         <v>10</v>
@@ -2149,14 +2145,14 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="G55" t="n">
-        <v>17.6</v>
+        <v>6.6</v>
       </c>
       <c r="H55" t="n">
         <v>10</v>
@@ -2170,26 +2166,18 @@
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>27</v>
+        <v>543</v>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>54.3</v>
       </c>
       <c r="H56" t="n">
         <v>10</v>
@@ -2207,14 +2195,14 @@
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>66</v>
+        <v>633</v>
       </c>
       <c r="G57" t="n">
-        <v>6.6</v>
+        <v>63.3</v>
       </c>
       <c r="H57" t="n">
         <v>10</v>
@@ -2229,17 +2217,21 @@
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="n"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>543</v>
+        <v>995</v>
       </c>
       <c r="G58" t="n">
-        <v>54.3</v>
+        <v>99.5</v>
       </c>
       <c r="H58" t="n">
         <v>10</v>
@@ -2257,14 +2249,14 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>633</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>63.3</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>10</v>
@@ -2279,21 +2271,17 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>995</v>
+        <v>105</v>
       </c>
       <c r="G60" t="n">
-        <v>99.5</v>
+        <v>10.5</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
@@ -2311,14 +2299,14 @@
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1</v>
+        <v>5.6</v>
       </c>
       <c r="H61" t="n">
         <v>10</v>
@@ -2336,14 +2324,14 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="G62" t="n">
-        <v>10.5</v>
+        <v>20.6</v>
       </c>
       <c r="H62" t="n">
         <v>10</v>
@@ -2361,17 +2349,17 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>56</v>
+        <v>391</v>
       </c>
       <c r="G63" t="n">
-        <v>5.6</v>
+        <v>78.2</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2386,17 +2374,17 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c r="G64" t="n">
-        <v>20.6</v>
+        <v>5.6</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2411,14 +2399,14 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="G65" t="n">
-        <v>78.2</v>
+        <v>15.4</v>
       </c>
       <c r="H65" t="n">
         <v>5</v>
@@ -2436,14 +2424,14 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="G66" t="n">
-        <v>5.6</v>
+        <v>18.4</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
@@ -2455,23 +2443,39 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="n"/>
-      <c r="D67" s="1" t="n"/>
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>2_H_B_2m-12222022100256.avi</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>77</v>
+        <v>4567</v>
       </c>
       <c r="G67" t="n">
-        <v>15.4</v>
+        <v>152.2333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2483,20 +2487,24 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="n"/>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>92</v>
+        <v>4466</v>
       </c>
       <c r="G68" t="n">
-        <v>18.4</v>
+        <v>148.8666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2505,19 +2513,11 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
@@ -2527,14 +2527,14 @@
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_2m-12222022100256.avi</t>
+          <t>2_R_B_2m-12222022095917.avi</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4567</v>
+        <v>4691</v>
       </c>
       <c r="G69" t="n">
-        <v>152.2333333333333</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>30</v>
@@ -2556,14 +2556,14 @@
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_2m-12222022095411.avi</t>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4466</v>
+        <v>4344</v>
       </c>
       <c r="G70" t="n">
-        <v>148.8666666666667</v>
+        <v>144.8</v>
       </c>
       <c r="H70" t="n">
         <v>30</v>
@@ -2576,10 +2576,14 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="n"/>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
@@ -2589,14 +2593,14 @@
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_2m-12222022095917.avi</t>
+          <t>2_H_B_3m-12222022102602.avi</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4691</v>
+        <v>3992</v>
       </c>
       <c r="G71" t="n">
-        <v>156.3666666666667</v>
+        <v>133.0666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>30</v>
@@ -2618,14 +2622,14 @@
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_2m-12222022095034.avi</t>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4344</v>
+        <v>3952</v>
       </c>
       <c r="G72" t="n">
-        <v>144.8</v>
+        <v>131.7333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
@@ -2638,14 +2642,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
@@ -2655,14 +2655,14 @@
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_3m-12222022102602.avi</t>
+          <t>2_R_B_3m-12222022102314.avi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3992</v>
+        <v>3834</v>
       </c>
       <c r="G73" t="n">
-        <v>133.0666666666667</v>
+        <v>127.8</v>
       </c>
       <c r="H73" t="n">
         <v>30</v>
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_3m-12222022101944.avi</t>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3952</v>
+        <v>656</v>
       </c>
       <c r="G74" t="n">
-        <v>131.7333333333333</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="H74" t="n">
         <v>30</v>
@@ -2705,26 +2705,18 @@
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_3m-12222022102314.avi</t>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3834</v>
+        <v>3880</v>
       </c>
       <c r="G75" t="n">
-        <v>127.8</v>
+        <v>129.3333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>30</v>
@@ -2736,24 +2728,36 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="n"/>
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101525.avi</t>
+          <t>3_HB_B_3m-12222022103839.avi</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>656</v>
+        <v>3295</v>
       </c>
       <c r="G76" t="n">
-        <v>21.86666666666667</v>
+        <v>109.8333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>30</v>
@@ -2768,17 +2772,21 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101644.avi</t>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3880</v>
+        <v>3921</v>
       </c>
       <c r="G77" t="n">
-        <v>129.3333333333333</v>
+        <v>130.7</v>
       </c>
       <c r="H77" t="n">
         <v>30</v>
@@ -2790,19 +2798,11 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D78" s="1" t="inlineStr">
@@ -2812,14 +2812,14 @@
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>3_HB_B_3m-12222022103839.avi</t>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3295</v>
+        <v>4064</v>
       </c>
       <c r="G78" t="n">
-        <v>109.8333333333333</v>
+        <v>135.4666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>30</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3921</v>
+        <v>3949</v>
       </c>
       <c r="G79" t="n">
-        <v>130.7</v>
+        <v>131.6333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>30</v>
@@ -2860,11 +2860,19 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="n"/>
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
@@ -2874,14 +2882,14 @@
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>3_R_B_3METERS-12222022103546.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4064</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>135.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>30</v>
@@ -2896,21 +2904,17 @@
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="n"/>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>3_R_WOB_3m-12222022103229.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3949</v>
+        <v>4756</v>
       </c>
       <c r="G81" t="n">
-        <v>131.6333333333333</v>
+        <v>158.5333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>30</v>
@@ -2922,36 +2926,24 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2626</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>30</v>
@@ -2965,18 +2957,26 @@
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="n"/>
-      <c r="D83" s="1" t="n"/>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4756</v>
+        <v>3821</v>
       </c>
       <c r="G83" t="n">
-        <v>158.5333333333333</v>
+        <v>127.3666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>30</v>
@@ -2998,14 +2998,14 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>2626</v>
+        <v>4594</v>
       </c>
       <c r="G84" t="n">
-        <v>87.53333333333333</v>
+        <v>153.1333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>30</v>
@@ -3018,10 +3018,14 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="n"/>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
@@ -3031,14 +3035,14 @@
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>3821</v>
+        <v>4683</v>
       </c>
       <c r="G85" t="n">
-        <v>127.3666666666667</v>
+        <v>156.1</v>
       </c>
       <c r="H85" t="n">
         <v>30</v>
@@ -3060,14 +3064,14 @@
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4594</v>
+        <v>3855</v>
       </c>
       <c r="G86" t="n">
-        <v>153.1333333333333</v>
+        <v>128.5</v>
       </c>
       <c r="H86" t="n">
         <v>30</v>
@@ -3080,14 +3084,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
@@ -3097,14 +3097,14 @@
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4683</v>
+        <v>3871</v>
       </c>
       <c r="G87" t="n">
-        <v>156.1</v>
+        <v>129.0333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>30</v>
@@ -3126,17 +3126,17 @@
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3855</v>
+        <v>124</v>
       </c>
       <c r="G88" t="n">
-        <v>128.5</v>
+        <v>4.133292</v>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>30.00030000300003</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3147,26 +3147,18 @@
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3871</v>
+        <v>3497</v>
       </c>
       <c r="G89" t="n">
-        <v>129.0333333333333</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>30</v>
@@ -3178,27 +3170,39 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n"/>
-      <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="n"/>
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>124</v>
+        <v>3579</v>
       </c>
       <c r="G90" t="n">
-        <v>4.133292</v>
+        <v>357.9</v>
       </c>
       <c r="H90" t="n">
-        <v>30.00030000300003</v>
+        <v>10</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3210,20 +3214,24 @@
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="n"/>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3497</v>
+        <v>3471</v>
       </c>
       <c r="G91" t="n">
-        <v>116.5666666666667</v>
+        <v>347.1</v>
       </c>
       <c r="H91" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3232,19 +3240,11 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
@@ -3254,14 +3254,14 @@
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3579</v>
+        <v>4450</v>
       </c>
       <c r="G92" t="n">
-        <v>357.9</v>
+        <v>445</v>
       </c>
       <c r="H92" t="n">
         <v>10</v>
@@ -3283,14 +3283,14 @@
       </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3471</v>
+        <v>3554</v>
       </c>
       <c r="G93" t="n">
-        <v>347.1</v>
+        <v>355.4</v>
       </c>
       <c r="H93" t="n">
         <v>10</v>
@@ -3303,10 +3303,14 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="n"/>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
@@ -3316,17 +3320,17 @@
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4450</v>
+        <v>4079</v>
       </c>
       <c r="G94" t="n">
-        <v>445</v>
+        <v>135.9666666666667</v>
       </c>
       <c r="H94" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3345,17 +3349,17 @@
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3554</v>
+        <v>4041</v>
       </c>
       <c r="G95" t="n">
-        <v>355.4</v>
+        <v>134.7</v>
       </c>
       <c r="H95" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3365,14 +3369,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
@@ -3382,14 +3382,14 @@
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4079</v>
+        <v>4026</v>
       </c>
       <c r="G96" t="n">
-        <v>135.9666666666667</v>
+        <v>134.2</v>
       </c>
       <c r="H96" t="n">
         <v>30</v>
@@ -3411,14 +3411,14 @@
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>5_holding_wob_3ME-12222022120954.avi</t>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4041</v>
+        <v>3556</v>
       </c>
       <c r="G97" t="n">
-        <v>134.7</v>
+        <v>118.5333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>30</v>
@@ -3430,11 +3430,19 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="n"/>
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
@@ -3444,17 +3452,17 @@
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+          <t>6_holding_blanket_2me-12222022161854.avi</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4026</v>
+        <v>2186</v>
       </c>
       <c r="G98" t="n">
-        <v>134.2</v>
+        <v>218.6</v>
       </c>
       <c r="H98" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3473,17 +3481,17 @@
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3556</v>
+        <v>2214</v>
       </c>
       <c r="G99" t="n">
-        <v>118.5333333333333</v>
+        <v>221.4</v>
       </c>
       <c r="H99" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3492,19 +3500,11 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D100" s="1" t="inlineStr">
@@ -3514,14 +3514,14 @@
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>6_holding_blanket_2me-12222022161854.avi</t>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2186</v>
+        <v>2566</v>
       </c>
       <c r="G100" t="n">
-        <v>218.6</v>
+        <v>256.6</v>
       </c>
       <c r="H100" t="n">
         <v>10</v>
@@ -3543,14 +3543,14 @@
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2214</v>
+        <v>2438</v>
       </c>
       <c r="G101" t="n">
-        <v>221.4</v>
+        <v>243.8</v>
       </c>
       <c r="H101" t="n">
         <v>10</v>
@@ -3563,10 +3563,14 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n"/>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D102" s="1" t="inlineStr">
@@ -3576,14 +3580,14 @@
       </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>6_relax_blanket_2me-12222022161616.avi</t>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2566</v>
+        <v>4844</v>
       </c>
       <c r="G102" t="n">
-        <v>256.6</v>
+        <v>484.4</v>
       </c>
       <c r="H102" t="n">
         <v>10</v>
@@ -3598,21 +3602,17 @@
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="n"/>
-      <c r="D103" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D103" s="1" t="n"/>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2438</v>
+        <v>1452</v>
       </c>
       <c r="G103" t="n">
-        <v>243.8</v>
+        <v>145.2</v>
       </c>
       <c r="H103" t="n">
         <v>10</v>
@@ -3625,31 +3625,19 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D104" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="n"/>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4844</v>
+        <v>3246</v>
       </c>
       <c r="G104" t="n">
-        <v>484.4</v>
+        <v>324.6</v>
       </c>
       <c r="H104" t="n">
         <v>10</v>
@@ -3664,20 +3652,24 @@
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="n"/>
-      <c r="D105" s="1" t="n"/>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1452</v>
+        <v>2703</v>
       </c>
       <c r="G105" t="n">
-        <v>145.2</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3692,17 +3684,17 @@
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>3246</v>
+        <v>1538</v>
       </c>
       <c r="G106" t="n">
-        <v>324.6</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3714,21 +3706,17 @@
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D107" s="1" t="n"/>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>2703</v>
+        <v>1423</v>
       </c>
       <c r="G107" t="n">
-        <v>90.09999999999999</v>
+        <v>47.43333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>30</v>
@@ -3742,21 +3730,29 @@
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
-      <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="n"/>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1538</v>
+        <v>3910</v>
       </c>
       <c r="G108" t="n">
-        <v>51.26666666666667</v>
+        <v>391</v>
       </c>
       <c r="H108" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3768,17 +3764,21 @@
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="n"/>
-      <c r="D109" s="1" t="n"/>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1423</v>
+        <v>3710</v>
       </c>
       <c r="G109" t="n">
-        <v>47.43333333333333</v>
+        <v>123.6666666666667</v>
       </c>
       <c r="H109" t="n">
         <v>30</v>
@@ -3790,11 +3790,19 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="n"/>
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D110" s="1" t="inlineStr">
@@ -3804,14 +3812,14 @@
       </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3910</v>
+        <v>3585</v>
       </c>
       <c r="G110" t="n">
-        <v>391</v>
+        <v>358.5</v>
       </c>
       <c r="H110" t="n">
         <v>10</v>
@@ -3833,17 +3841,17 @@
       </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3710</v>
+        <v>3453</v>
       </c>
       <c r="G111" t="n">
-        <v>123.6666666666667</v>
+        <v>345.3</v>
       </c>
       <c r="H111" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -3852,19 +3860,11 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
@@ -3874,14 +3874,14 @@
       </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3585</v>
+        <v>5048</v>
       </c>
       <c r="G112" t="n">
-        <v>358.5</v>
+        <v>504.8</v>
       </c>
       <c r="H112" t="n">
         <v>10</v>
@@ -3903,17 +3903,17 @@
       </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3453</v>
+        <v>2593</v>
       </c>
       <c r="G113" t="n">
-        <v>345.3</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="H113" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3923,10 +3923,14 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="n"/>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D114" s="1" t="inlineStr">
@@ -3936,14 +3940,14 @@
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>5048</v>
+        <v>3611</v>
       </c>
       <c r="G114" t="n">
-        <v>504.8</v>
+        <v>361.1</v>
       </c>
       <c r="H114" t="n">
         <v>10</v>
@@ -3965,17 +3969,17 @@
       </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>7_relax_wob_2me-12222022131934.avi</t>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>2593</v>
+        <v>3599</v>
       </c>
       <c r="G115" t="n">
-        <v>86.43333333333334</v>
+        <v>359.9</v>
       </c>
       <c r="H115" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3985,14 +3989,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
@@ -4002,14 +4002,14 @@
       </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3611</v>
+        <v>3946</v>
       </c>
       <c r="G116" t="n">
-        <v>361.1</v>
+        <v>394.6</v>
       </c>
       <c r="H116" t="n">
         <v>10</v>
@@ -4031,14 +4031,14 @@
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3599</v>
+        <v>3438</v>
       </c>
       <c r="G117" t="n">
-        <v>359.9</v>
+        <v>343.8</v>
       </c>
       <c r="H117" t="n">
         <v>10</v>
@@ -4050,11 +4050,19 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n"/>
-      <c r="B118" s="1" t="n"/>
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D118" s="1" t="inlineStr">
@@ -4064,14 +4072,14 @@
       </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3946</v>
+        <v>3544</v>
       </c>
       <c r="G118" t="n">
-        <v>394.6</v>
+        <v>354.4</v>
       </c>
       <c r="H118" t="n">
         <v>10</v>
@@ -4093,14 +4101,14 @@
       </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
-          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3438</v>
+        <v>3551</v>
       </c>
       <c r="G119" t="n">
-        <v>343.8</v>
+        <v>355.1</v>
       </c>
       <c r="H119" t="n">
         <v>10</v>
@@ -4112,36 +4120,20 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="n"/>
       <c r="E120" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3544</v>
+        <v>3741</v>
       </c>
       <c r="G120" t="n">
-        <v>354.4</v>
+        <v>374.1</v>
       </c>
       <c r="H120" t="n">
         <v>10</v>
@@ -4155,22 +4147,26 @@
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="n"/>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3551</v>
+        <v>3553</v>
       </c>
       <c r="G121" t="n">
-        <v>355.1</v>
+        <v>355.3</v>
       </c>
       <c r="H121" t="n">
         <v>10</v>
@@ -4188,14 +4184,14 @@
       <c r="D122" s="1" t="n"/>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3741</v>
+        <v>3550</v>
       </c>
       <c r="G122" t="n">
-        <v>374.1</v>
+        <v>355</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
@@ -4208,10 +4204,14 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="n"/>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D123" s="1" t="inlineStr">
@@ -4221,14 +4221,14 @@
       </c>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3553</v>
+        <v>1917</v>
       </c>
       <c r="G123" t="n">
-        <v>355.3</v>
+        <v>191.7</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
@@ -4243,17 +4243,21 @@
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="n"/>
-      <c r="D124" s="1" t="n"/>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3550</v>
+        <v>3706</v>
       </c>
       <c r="G124" t="n">
-        <v>355</v>
+        <v>370.6</v>
       </c>
       <c r="H124" t="n">
         <v>10</v>
@@ -4266,14 +4270,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B125" s="1" t="n"/>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D125" s="1" t="inlineStr">
@@ -4283,14 +4283,14 @@
       </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1917</v>
+        <v>1935</v>
       </c>
       <c r="G125" t="n">
-        <v>191.7</v>
+        <v>193.5</v>
       </c>
       <c r="H125" t="n">
         <v>10</v>
@@ -4312,14 +4312,14 @@
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3706</v>
+        <v>3569</v>
       </c>
       <c r="G126" t="n">
-        <v>370.6</v>
+        <v>356.9</v>
       </c>
       <c r="H126" t="n">
         <v>10</v>
@@ -4331,11 +4331,19 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n"/>
-      <c r="B127" s="1" t="n"/>
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D127" s="1" t="inlineStr">
@@ -4345,14 +4353,14 @@
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1935</v>
+        <v>3380</v>
       </c>
       <c r="G127" t="n">
-        <v>193.5</v>
+        <v>338</v>
       </c>
       <c r="H127" t="n">
         <v>10</v>
@@ -4374,14 +4382,14 @@
       </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="G128" t="n">
-        <v>356.9</v>
+        <v>357</v>
       </c>
       <c r="H128" t="n">
         <v>10</v>
@@ -4393,19 +4401,11 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D129" s="1" t="inlineStr">
@@ -4415,14 +4415,14 @@
       </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3380</v>
+        <v>1654</v>
       </c>
       <c r="G129" t="n">
-        <v>338</v>
+        <v>165.4</v>
       </c>
       <c r="H129" t="n">
         <v>10</v>
@@ -4437,21 +4437,17 @@
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="n"/>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D130" s="1" t="n"/>
       <c r="E130" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3570</v>
+        <v>1487</v>
       </c>
       <c r="G130" t="n">
-        <v>357</v>
+        <v>148.7</v>
       </c>
       <c r="H130" t="n">
         <v>10</v>
@@ -4465,26 +4461,22 @@
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
-      <c r="C131" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C131" s="1" t="n"/>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E131" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1654</v>
+        <v>1546</v>
       </c>
       <c r="G131" t="n">
-        <v>165.4</v>
+        <v>154.6</v>
       </c>
       <c r="H131" t="n">
         <v>10</v>
@@ -4502,14 +4494,14 @@
       <c r="D132" s="1" t="n"/>
       <c r="E132" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1487</v>
+        <v>1752</v>
       </c>
       <c r="G132" t="n">
-        <v>148.7</v>
+        <v>175.2</v>
       </c>
       <c r="H132" t="n">
         <v>10</v>
@@ -4522,23 +4514,31 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="n"/>
-      <c r="C133" s="1" t="n"/>
+      <c r="B133" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E133" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1546</v>
+        <v>1784</v>
       </c>
       <c r="G133" t="n">
-        <v>154.6</v>
+        <v>178.4</v>
       </c>
       <c r="H133" t="n">
         <v>10</v>
@@ -4553,17 +4553,21 @@
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="n"/>
-      <c r="D134" s="1" t="n"/>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1752</v>
+        <v>1944</v>
       </c>
       <c r="G134" t="n">
-        <v>175.2</v>
+        <v>194.4</v>
       </c>
       <c r="H134" t="n">
         <v>10</v>
@@ -4576,14 +4580,10 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B135" s="1" t="n"/>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D135" s="1" t="inlineStr">
@@ -4593,14 +4593,14 @@
       </c>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1784</v>
+        <v>1937</v>
       </c>
       <c r="G135" t="n">
-        <v>178.4</v>
+        <v>193.7</v>
       </c>
       <c r="H135" t="n">
         <v>10</v>
@@ -4622,14 +4622,14 @@
       </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+          <t>9_relaxed_wob_3me-12222022142904.avi</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1944</v>
+        <v>1814</v>
       </c>
       <c r="G136" t="n">
-        <v>194.4</v>
+        <v>181.4</v>
       </c>
       <c r="H136" t="n">
         <v>10</v>
@@ -4640,180 +4640,115 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="n"/>
-      <c r="C137" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="E137" s="1" t="inlineStr">
-        <is>
-          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>1937</v>
-      </c>
-      <c r="G137" t="n">
-        <v>193.7</v>
-      </c>
-      <c r="H137" t="n">
-        <v>10</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="n"/>
-      <c r="C138" s="1" t="n"/>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
-      <c r="E138" s="1" t="inlineStr">
-        <is>
-          <t>9_relaxed_wob_3me-12222022142904.avi</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>1814</v>
-      </c>
-      <c r="G138" t="n">
-        <v>181.4</v>
-      </c>
-      <c r="H138" t="n">
-        <v>10</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>?</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="A92:A99"/>
+  <mergeCells count="108">
+    <mergeCell ref="A118:A126"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A127:A136"/>
     <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D102:D104"/>
+    <mergeCell ref="B67:B70"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C123:C124"/>
-    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="C87:C89"/>
     <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C42:C53"/>
+    <mergeCell ref="D42:D48"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B85:B89"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C44:C55"/>
-    <mergeCell ref="D44:D50"/>
+    <mergeCell ref="D58:D66"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="C73:C75"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D60:D68"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A129:A138"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="A80:A89"/>
+    <mergeCell ref="B42:B66"/>
+    <mergeCell ref="B127:B132"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B44:B68"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D54:D57"/>
     <mergeCell ref="C98:C99"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="C102:C107"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="C112:C113"/>
-    <mergeCell ref="B27:B30"/>
     <mergeCell ref="C100:C101"/>
-    <mergeCell ref="C56:C68"/>
-    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="A110:A117"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C76:C77"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B110:B113"/>
     <mergeCell ref="C116:C117"/>
-    <mergeCell ref="D90:D91"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="D131:D132"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A42:A66"/>
+    <mergeCell ref="D80:D81"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="A44:A68"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:A91"/>
+    <mergeCell ref="B98:B101"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A98:A109"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D105:D107"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="B123:B126"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="D119:D120"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A112:A119"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A100:A111"/>
+    <mergeCell ref="B118:B122"/>
     <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="C104:C109"/>
-    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="C35:C36"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C133:C134"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C127:C128"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B80:B84"/>
+    <mergeCell ref="B102:B109"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A90:A97"/>
     <mergeCell ref="C110:C111"/>
-    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="D121:D122"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="D74:D75"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="C96:C97"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="D49:D53"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="B114:B117"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="B104:B111"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="C80:C82"/>
     <mergeCell ref="C92:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14_1</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D42" s="1" t="inlineStr">
@@ -1808,14 +1808,14 @@
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>14_relaxed_wob_2me-12222022162257.avi</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>127</v>
+        <v>2310</v>
       </c>
       <c r="G42" t="n">
-        <v>12.7</v>
+        <v>231</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -1830,17 +1830,21 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>160</v>
+        <v>2255</v>
       </c>
       <c r="G43" t="n">
-        <v>16</v>
+        <v>225.5</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
@@ -1852,20 +1856,36 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
-      <c r="D44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1</v>
+        <v>12.7</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
@@ -1883,14 +1903,14 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="G45" t="n">
-        <v>2.9</v>
+        <v>16</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
@@ -1908,14 +1928,14 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
@@ -1933,14 +1953,14 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>10</v>
@@ -1958,14 +1978,14 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>10</v>
@@ -1980,21 +2000,17 @@
       <c r="A49" s="1" t="n"/>
       <c r="B49" s="1" t="n"/>
       <c r="C49" s="1" t="n"/>
-      <c r="D49" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="G49" t="n">
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="H49" t="n">
         <v>10</v>
@@ -2012,17 +2028,17 @@
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G50" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2034,20 +2050,24 @@
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="n"/>
       <c r="C51" s="1" t="n"/>
-      <c r="D51" s="1" t="n"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2</v>
+        <v>11.4</v>
       </c>
       <c r="H51" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2062,17 +2082,17 @@
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2087,17 +2107,17 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>17.6</v>
+        <v>0.2</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2108,26 +2128,18 @@
     <row r="54">
       <c r="A54" s="1" t="n"/>
       <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="G54" t="n">
-        <v>2.7</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
         <v>10</v>
@@ -2145,14 +2157,14 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="G55" t="n">
-        <v>6.6</v>
+        <v>17.6</v>
       </c>
       <c r="H55" t="n">
         <v>10</v>
@@ -2166,18 +2178,26 @@
     <row r="56">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="n"/>
-      <c r="C56" s="1" t="n"/>
-      <c r="D56" s="1" t="n"/>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>543</v>
+        <v>27</v>
       </c>
       <c r="G56" t="n">
-        <v>54.3</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>10</v>
@@ -2195,14 +2215,14 @@
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>633</v>
+        <v>66</v>
       </c>
       <c r="G57" t="n">
-        <v>63.3</v>
+        <v>6.6</v>
       </c>
       <c r="H57" t="n">
         <v>10</v>
@@ -2217,21 +2237,17 @@
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="n"/>
       <c r="C58" s="1" t="n"/>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>995</v>
+        <v>543</v>
       </c>
       <c r="G58" t="n">
-        <v>99.5</v>
+        <v>54.3</v>
       </c>
       <c r="H58" t="n">
         <v>10</v>
@@ -2249,14 +2265,14 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>633</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1</v>
+        <v>63.3</v>
       </c>
       <c r="H59" t="n">
         <v>10</v>
@@ -2271,17 +2287,21 @@
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="n"/>
-      <c r="D60" s="1" t="n"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>105</v>
+        <v>995</v>
       </c>
       <c r="G60" t="n">
-        <v>10.5</v>
+        <v>99.5</v>
       </c>
       <c r="H60" t="n">
         <v>10</v>
@@ -2299,14 +2319,14 @@
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>5.6</v>
+        <v>0.1</v>
       </c>
       <c r="H61" t="n">
         <v>10</v>
@@ -2324,14 +2344,14 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="G62" t="n">
-        <v>20.6</v>
+        <v>10.5</v>
       </c>
       <c r="H62" t="n">
         <v>10</v>
@@ -2349,17 +2369,17 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>391</v>
+        <v>56</v>
       </c>
       <c r="G63" t="n">
-        <v>78.2</v>
+        <v>5.6</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -2374,17 +2394,17 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>20.6</v>
       </c>
       <c r="H64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -2399,14 +2419,14 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="G65" t="n">
-        <v>15.4</v>
+        <v>78.2</v>
       </c>
       <c r="H65" t="n">
         <v>5</v>
@@ -2424,14 +2444,14 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="G66" t="n">
-        <v>18.4</v>
+        <v>5.6</v>
       </c>
       <c r="H66" t="n">
         <v>5</v>
@@ -2443,39 +2463,23 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_2m-12222022100256.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>4567</v>
+        <v>77</v>
       </c>
       <c r="G67" t="n">
-        <v>152.2333333333333</v>
+        <v>15.4</v>
       </c>
       <c r="H67" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2487,24 +2491,20 @@
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="n"/>
       <c r="C68" s="1" t="n"/>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_2m-12222022095411.avi</t>
+          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4466</v>
+        <v>92</v>
       </c>
       <c r="G68" t="n">
-        <v>148.8666666666667</v>
+        <v>18.4</v>
       </c>
       <c r="H68" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -2513,11 +2513,19 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="n"/>
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D69" s="1" t="inlineStr">
@@ -2527,14 +2535,14 @@
       </c>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_2m-12222022095917.avi</t>
+          <t>2_H_B_2m-12222022100256.avi</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4691</v>
+        <v>4567</v>
       </c>
       <c r="G69" t="n">
-        <v>156.3666666666667</v>
+        <v>152.2333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>30</v>
@@ -2556,14 +2564,14 @@
       </c>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_2m-12222022095034.avi</t>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4344</v>
+        <v>4466</v>
       </c>
       <c r="G70" t="n">
-        <v>144.8</v>
+        <v>148.8666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>30</v>
@@ -2576,14 +2584,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
@@ -2593,14 +2597,14 @@
       </c>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_3m-12222022102602.avi</t>
+          <t>2_R_B_2m-12222022095917.avi</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>3992</v>
+        <v>4691</v>
       </c>
       <c r="G71" t="n">
-        <v>133.0666666666667</v>
+        <v>156.3666666666667</v>
       </c>
       <c r="H71" t="n">
         <v>30</v>
@@ -2622,14 +2626,14 @@
       </c>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_3m-12222022101944.avi</t>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>3952</v>
+        <v>4344</v>
       </c>
       <c r="G72" t="n">
-        <v>131.7333333333333</v>
+        <v>144.8</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
@@ -2642,10 +2646,14 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D73" s="1" t="inlineStr">
@@ -2655,14 +2663,14 @@
       </c>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_3m-12222022102314.avi</t>
+          <t>2_H_B_3m-12222022102602.avi</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>3834</v>
+        <v>3992</v>
       </c>
       <c r="G73" t="n">
-        <v>127.8</v>
+        <v>133.0666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>30</v>
@@ -2684,14 +2692,14 @@
       </c>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101525.avi</t>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>656</v>
+        <v>3952</v>
       </c>
       <c r="G74" t="n">
-        <v>21.86666666666667</v>
+        <v>131.7333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>30</v>
@@ -2705,18 +2713,26 @@
     <row r="75">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
-      <c r="D75" s="1" t="n"/>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101644.avi</t>
+          <t>2_R_B_3m-12222022102314.avi</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3880</v>
+        <v>3834</v>
       </c>
       <c r="G75" t="n">
-        <v>129.3333333333333</v>
+        <v>127.8</v>
       </c>
       <c r="H75" t="n">
         <v>30</v>
@@ -2728,36 +2744,24 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>3_HB_B_3m-12222022103839.avi</t>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3295</v>
+        <v>656</v>
       </c>
       <c r="G76" t="n">
-        <v>109.8333333333333</v>
+        <v>21.86666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>30</v>
@@ -2772,21 +2776,17 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>3921</v>
+        <v>3880</v>
       </c>
       <c r="G77" t="n">
-        <v>130.7</v>
+        <v>129.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>30</v>
@@ -2798,11 +2798,19 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D78" s="1" t="inlineStr">
@@ -2812,14 +2820,14 @@
       </c>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>3_R_B_3METERS-12222022103546.avi</t>
+          <t>3_HB_B_3m-12222022103839.avi</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>4064</v>
+        <v>3295</v>
       </c>
       <c r="G78" t="n">
-        <v>135.4666666666667</v>
+        <v>109.8333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>30</v>
@@ -2841,14 +2849,14 @@
       </c>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>3_R_WOB_3m-12222022103229.avi</t>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3949</v>
+        <v>3921</v>
       </c>
       <c r="G79" t="n">
-        <v>131.6333333333333</v>
+        <v>130.7</v>
       </c>
       <c r="H79" t="n">
         <v>30</v>
@@ -2860,19 +2868,11 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D80" s="1" t="inlineStr">
@@ -2882,14 +2882,14 @@
       </c>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>4064</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>135.4666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>30</v>
@@ -2904,17 +2904,21 @@
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
       <c r="C81" s="1" t="n"/>
-      <c r="D81" s="1" t="n"/>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4756</v>
+        <v>3949</v>
       </c>
       <c r="G81" t="n">
-        <v>158.5333333333333</v>
+        <v>131.6333333333333</v>
       </c>
       <c r="H81" t="n">
         <v>30</v>
@@ -2926,24 +2930,36 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="n"/>
-      <c r="C82" s="1" t="n"/>
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2626</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>87.53333333333333</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>30</v>
@@ -2957,26 +2973,18 @@
     <row r="83">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="n"/>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>3821</v>
+        <v>4756</v>
       </c>
       <c r="G83" t="n">
-        <v>127.3666666666667</v>
+        <v>158.5333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>30</v>
@@ -2998,14 +3006,14 @@
       </c>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4594</v>
+        <v>2626</v>
       </c>
       <c r="G84" t="n">
-        <v>153.1333333333333</v>
+        <v>87.53333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>30</v>
@@ -3018,14 +3026,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
@@ -3035,14 +3039,14 @@
       </c>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4683</v>
+        <v>3821</v>
       </c>
       <c r="G85" t="n">
-        <v>156.1</v>
+        <v>127.3666666666667</v>
       </c>
       <c r="H85" t="n">
         <v>30</v>
@@ -3064,14 +3068,14 @@
       </c>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3855</v>
+        <v>4594</v>
       </c>
       <c r="G86" t="n">
-        <v>128.5</v>
+        <v>153.1333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>30</v>
@@ -3084,10 +3088,14 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
@@ -3097,14 +3105,14 @@
       </c>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>3871</v>
+        <v>4683</v>
       </c>
       <c r="G87" t="n">
-        <v>129.0333333333333</v>
+        <v>156.1</v>
       </c>
       <c r="H87" t="n">
         <v>30</v>
@@ -3126,17 +3134,17 @@
       </c>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>124</v>
+        <v>3855</v>
       </c>
       <c r="G88" t="n">
-        <v>4.133292</v>
+        <v>128.5</v>
       </c>
       <c r="H88" t="n">
-        <v>30.00030000300003</v>
+        <v>30</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
@@ -3147,18 +3155,26 @@
     <row r="89">
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="n"/>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3497</v>
+        <v>3871</v>
       </c>
       <c r="G89" t="n">
-        <v>116.5666666666667</v>
+        <v>129.0333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>30</v>
@@ -3170,39 +3186,27 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
       <c r="D90" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3579</v>
+        <v>124</v>
       </c>
       <c r="G90" t="n">
-        <v>357.9</v>
+        <v>4.133292</v>
       </c>
       <c r="H90" t="n">
-        <v>10</v>
+        <v>30.00030000300003</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3214,24 +3218,20 @@
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>3471</v>
+        <v>3497</v>
       </c>
       <c r="G91" t="n">
-        <v>347.1</v>
+        <v>116.5666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3240,11 +3240,19 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
@@ -3254,14 +3262,14 @@
       </c>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4450</v>
+        <v>3579</v>
       </c>
       <c r="G92" t="n">
-        <v>445</v>
+        <v>357.9</v>
       </c>
       <c r="H92" t="n">
         <v>10</v>
@@ -3283,14 +3291,14 @@
       </c>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3554</v>
+        <v>3471</v>
       </c>
       <c r="G93" t="n">
-        <v>355.4</v>
+        <v>347.1</v>
       </c>
       <c r="H93" t="n">
         <v>10</v>
@@ -3303,14 +3311,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
@@ -3320,17 +3324,17 @@
       </c>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4079</v>
+        <v>4450</v>
       </c>
       <c r="G94" t="n">
-        <v>135.9666666666667</v>
+        <v>445</v>
       </c>
       <c r="H94" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3349,17 +3353,17 @@
       </c>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>5_holding_wob_3ME-12222022120954.avi</t>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4041</v>
+        <v>3554</v>
       </c>
       <c r="G95" t="n">
-        <v>134.7</v>
+        <v>355.4</v>
       </c>
       <c r="H95" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -3369,10 +3373,14 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D96" s="1" t="inlineStr">
@@ -3382,14 +3390,14 @@
       </c>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4026</v>
+        <v>4079</v>
       </c>
       <c r="G96" t="n">
-        <v>134.2</v>
+        <v>135.9666666666667</v>
       </c>
       <c r="H96" t="n">
         <v>30</v>
@@ -3411,14 +3419,14 @@
       </c>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>3556</v>
+        <v>4041</v>
       </c>
       <c r="G97" t="n">
-        <v>118.5333333333333</v>
+        <v>134.7</v>
       </c>
       <c r="H97" t="n">
         <v>30</v>
@@ -3430,19 +3438,11 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>6_holding_blanket_2me-12222022161854.avi</t>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>2186</v>
+        <v>4026</v>
       </c>
       <c r="G98" t="n">
-        <v>218.6</v>
+        <v>134.2</v>
       </c>
       <c r="H98" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -3481,17 +3481,17 @@
       </c>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2214</v>
+        <v>3556</v>
       </c>
       <c r="G99" t="n">
-        <v>221.4</v>
+        <v>118.5333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3500,11 +3500,19 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C100" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D100" s="1" t="inlineStr">
@@ -3514,14 +3522,14 @@
       </c>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>6_relax_blanket_2me-12222022161616.avi</t>
+          <t>6_holding_blanket_2me-12222022161854.avi</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>2566</v>
+        <v>2186</v>
       </c>
       <c r="G100" t="n">
-        <v>256.6</v>
+        <v>218.6</v>
       </c>
       <c r="H100" t="n">
         <v>10</v>
@@ -3543,14 +3551,14 @@
       </c>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2438</v>
+        <v>2214</v>
       </c>
       <c r="G101" t="n">
-        <v>243.8</v>
+        <v>221.4</v>
       </c>
       <c r="H101" t="n">
         <v>10</v>
@@ -3563,14 +3571,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D102" s="1" t="inlineStr">
@@ -3580,14 +3584,14 @@
       </c>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4844</v>
+        <v>2566</v>
       </c>
       <c r="G102" t="n">
-        <v>484.4</v>
+        <v>256.6</v>
       </c>
       <c r="H102" t="n">
         <v>10</v>
@@ -3602,17 +3606,21 @@
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
       <c r="C103" s="1" t="n"/>
-      <c r="D103" s="1" t="n"/>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1452</v>
+        <v>2438</v>
       </c>
       <c r="G103" t="n">
-        <v>145.2</v>
+        <v>243.8</v>
       </c>
       <c r="H103" t="n">
         <v>10</v>
@@ -3625,19 +3633,31 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="n"/>
-      <c r="C104" s="1" t="n"/>
-      <c r="D104" s="1" t="n"/>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3246</v>
+        <v>4844</v>
       </c>
       <c r="G104" t="n">
-        <v>324.6</v>
+        <v>484.4</v>
       </c>
       <c r="H104" t="n">
         <v>10</v>
@@ -3652,24 +3672,20 @@
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="n"/>
       <c r="C105" s="1" t="n"/>
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D105" s="1" t="n"/>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>2703</v>
+        <v>1452</v>
       </c>
       <c r="G105" t="n">
-        <v>90.09999999999999</v>
+        <v>145.2</v>
       </c>
       <c r="H105" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -3684,17 +3700,17 @@
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1538</v>
+        <v>3246</v>
       </c>
       <c r="G106" t="n">
-        <v>51.26666666666667</v>
+        <v>324.6</v>
       </c>
       <c r="H106" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -3706,17 +3722,21 @@
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="n"/>
       <c r="C107" s="1" t="n"/>
-      <c r="D107" s="1" t="n"/>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1423</v>
+        <v>2703</v>
       </c>
       <c r="G107" t="n">
-        <v>47.43333333333333</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="H107" t="n">
         <v>30</v>
@@ -3730,29 +3750,21 @@
     <row r="108">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
-      <c r="C108" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="n"/>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3910</v>
+        <v>1538</v>
       </c>
       <c r="G108" t="n">
-        <v>391</v>
+        <v>51.26666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -3764,21 +3776,17 @@
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
       <c r="C109" s="1" t="n"/>
-      <c r="D109" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D109" s="1" t="n"/>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>3710</v>
+        <v>1423</v>
       </c>
       <c r="G109" t="n">
-        <v>123.6666666666667</v>
+        <v>47.43333333333333</v>
       </c>
       <c r="H109" t="n">
         <v>30</v>
@@ -3790,19 +3798,11 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D110" s="1" t="inlineStr">
@@ -3812,14 +3812,14 @@
       </c>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3585</v>
+        <v>3910</v>
       </c>
       <c r="G110" t="n">
-        <v>358.5</v>
+        <v>391</v>
       </c>
       <c r="H110" t="n">
         <v>10</v>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="E111" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3453</v>
+        <v>3710</v>
       </c>
       <c r="G111" t="n">
-        <v>345.3</v>
+        <v>123.6666666666667</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -3860,11 +3860,19 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="n"/>
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
@@ -3874,14 +3882,14 @@
       </c>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>5048</v>
+        <v>3585</v>
       </c>
       <c r="G112" t="n">
-        <v>504.8</v>
+        <v>358.5</v>
       </c>
       <c r="H112" t="n">
         <v>10</v>
@@ -3903,17 +3911,17 @@
       </c>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t>7_relax_wob_2me-12222022131934.avi</t>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2593</v>
+        <v>3453</v>
       </c>
       <c r="G113" t="n">
-        <v>86.43333333333334</v>
+        <v>345.3</v>
       </c>
       <c r="H113" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -3923,14 +3931,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B114" s="1" t="n"/>
       <c r="C114" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D114" s="1" t="inlineStr">
@@ -3940,14 +3944,14 @@
       </c>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3611</v>
+        <v>5048</v>
       </c>
       <c r="G114" t="n">
-        <v>361.1</v>
+        <v>504.8</v>
       </c>
       <c r="H114" t="n">
         <v>10</v>
@@ -3969,17 +3973,17 @@
       </c>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>3599</v>
+        <v>2593</v>
       </c>
       <c r="G115" t="n">
-        <v>359.9</v>
+        <v>86.43333333333334</v>
       </c>
       <c r="H115" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -3989,10 +3993,14 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="n"/>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
@@ -4002,14 +4010,14 @@
       </c>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>3946</v>
+        <v>3611</v>
       </c>
       <c r="G116" t="n">
-        <v>394.6</v>
+        <v>361.1</v>
       </c>
       <c r="H116" t="n">
         <v>10</v>
@@ -4031,14 +4039,14 @@
       </c>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3438</v>
+        <v>3599</v>
       </c>
       <c r="G117" t="n">
-        <v>343.8</v>
+        <v>359.9</v>
       </c>
       <c r="H117" t="n">
         <v>10</v>
@@ -4050,19 +4058,11 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D118" s="1" t="inlineStr">
@@ -4072,14 +4072,14 @@
       </c>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3544</v>
+        <v>3946</v>
       </c>
       <c r="G118" t="n">
-        <v>354.4</v>
+        <v>394.6</v>
       </c>
       <c r="H118" t="n">
         <v>10</v>
@@ -4101,14 +4101,14 @@
       </c>
       <c r="E119" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3551</v>
+        <v>3438</v>
       </c>
       <c r="G119" t="n">
-        <v>355.1</v>
+        <v>343.8</v>
       </c>
       <c r="H119" t="n">
         <v>10</v>
@@ -4120,20 +4120,36 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="n"/>
-      <c r="C120" s="1" t="n"/>
-      <c r="D120" s="1" t="n"/>
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E120" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3741</v>
+        <v>3544</v>
       </c>
       <c r="G120" t="n">
-        <v>374.1</v>
+        <v>354.4</v>
       </c>
       <c r="H120" t="n">
         <v>10</v>
@@ -4147,26 +4163,22 @@
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="G121" t="n">
-        <v>355.3</v>
+        <v>355.1</v>
       </c>
       <c r="H121" t="n">
         <v>10</v>
@@ -4184,14 +4196,14 @@
       <c r="D122" s="1" t="n"/>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3550</v>
+        <v>3741</v>
       </c>
       <c r="G122" t="n">
-        <v>355</v>
+        <v>374.1</v>
       </c>
       <c r="H122" t="n">
         <v>10</v>
@@ -4204,14 +4216,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
+      <c r="B123" s="1" t="n"/>
       <c r="C123" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D123" s="1" t="inlineStr">
@@ -4221,14 +4229,14 @@
       </c>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1917</v>
+        <v>3553</v>
       </c>
       <c r="G123" t="n">
-        <v>191.7</v>
+        <v>355.3</v>
       </c>
       <c r="H123" t="n">
         <v>10</v>
@@ -4243,21 +4251,17 @@
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
       <c r="C124" s="1" t="n"/>
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D124" s="1" t="n"/>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3706</v>
+        <v>3550</v>
       </c>
       <c r="G124" t="n">
-        <v>370.6</v>
+        <v>355</v>
       </c>
       <c r="H124" t="n">
         <v>10</v>
@@ -4270,10 +4274,14 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="n"/>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C125" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D125" s="1" t="inlineStr">
@@ -4283,14 +4291,14 @@
       </c>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>1935</v>
+        <v>1917</v>
       </c>
       <c r="G125" t="n">
-        <v>193.5</v>
+        <v>191.7</v>
       </c>
       <c r="H125" t="n">
         <v>10</v>
@@ -4312,14 +4320,14 @@
       </c>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3569</v>
+        <v>3706</v>
       </c>
       <c r="G126" t="n">
-        <v>356.9</v>
+        <v>370.6</v>
       </c>
       <c r="H126" t="n">
         <v>10</v>
@@ -4331,19 +4339,11 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D127" s="1" t="inlineStr">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3380</v>
+        <v>1935</v>
       </c>
       <c r="G127" t="n">
-        <v>338</v>
+        <v>193.5</v>
       </c>
       <c r="H127" t="n">
         <v>10</v>
@@ -4382,14 +4382,14 @@
       </c>
       <c r="E128" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="G128" t="n">
-        <v>357</v>
+        <v>356.9</v>
       </c>
       <c r="H128" t="n">
         <v>10</v>
@@ -4401,11 +4401,19 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="n"/>
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
       <c r="C129" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D129" s="1" t="inlineStr">
@@ -4415,14 +4423,14 @@
       </c>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1654</v>
+        <v>3380</v>
       </c>
       <c r="G129" t="n">
-        <v>165.4</v>
+        <v>338</v>
       </c>
       <c r="H129" t="n">
         <v>10</v>
@@ -4437,17 +4445,21 @@
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="n"/>
       <c r="C130" s="1" t="n"/>
-      <c r="D130" s="1" t="n"/>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E130" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1487</v>
+        <v>3570</v>
       </c>
       <c r="G130" t="n">
-        <v>148.7</v>
+        <v>357</v>
       </c>
       <c r="H130" t="n">
         <v>10</v>
@@ -4461,22 +4473,26 @@
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
-      <c r="C131" s="1" t="n"/>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E131" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1546</v>
+        <v>1654</v>
       </c>
       <c r="G131" t="n">
-        <v>154.6</v>
+        <v>165.4</v>
       </c>
       <c r="H131" t="n">
         <v>10</v>
@@ -4494,14 +4510,14 @@
       <c r="D132" s="1" t="n"/>
       <c r="E132" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1752</v>
+        <v>1487</v>
       </c>
       <c r="G132" t="n">
-        <v>175.2</v>
+        <v>148.7</v>
       </c>
       <c r="H132" t="n">
         <v>10</v>
@@ -4514,31 +4530,23 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E133" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1784</v>
+        <v>1546</v>
       </c>
       <c r="G133" t="n">
-        <v>178.4</v>
+        <v>154.6</v>
       </c>
       <c r="H133" t="n">
         <v>10</v>
@@ -4553,21 +4561,17 @@
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="n"/>
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D134" s="1" t="n"/>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1944</v>
+        <v>1752</v>
       </c>
       <c r="G134" t="n">
-        <v>194.4</v>
+        <v>175.2</v>
       </c>
       <c r="H134" t="n">
         <v>10</v>
@@ -4580,10 +4584,14 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="n"/>
+      <c r="B135" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
       <c r="C135" s="1" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="D135" s="1" t="inlineStr">
@@ -4593,14 +4601,14 @@
       </c>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1937</v>
+        <v>1784</v>
       </c>
       <c r="G135" t="n">
-        <v>193.7</v>
+        <v>178.4</v>
       </c>
       <c r="H135" t="n">
         <v>10</v>
@@ -4622,133 +4630,198 @@
       </c>
       <c r="E136" s="1" t="inlineStr">
         <is>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1944</v>
+      </c>
+      <c r="G136" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G137" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
           <t>9_relaxed_wob_3me-12222022142904.avi</t>
         </is>
       </c>
-      <c r="F136" t="n">
+      <c r="F138" t="n">
         <v>1814</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G138" t="n">
         <v>181.4</v>
       </c>
-      <c r="H136" t="n">
-        <v>10</v>
-      </c>
-      <c r="I136" t="inlineStr">
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>?</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="A118:A126"/>
+  <mergeCells count="111">
+    <mergeCell ref="B82:B86"/>
     <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A92:A99"/>
     <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A127:A136"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="D102:D104"/>
-    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B42:B43"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B116:B119"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C42:C53"/>
-    <mergeCell ref="D42:D48"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B85:B89"/>
     <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D58:D66"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C44:C55"/>
+    <mergeCell ref="D44:D50"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="A80:A89"/>
-    <mergeCell ref="B42:B66"/>
-    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="D60:D68"/>
+    <mergeCell ref="A129:A138"/>
     <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="B44:B68"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="D107:D109"/>
     <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C102:C107"/>
-    <mergeCell ref="B90:B93"/>
     <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C54:C66"/>
+    <mergeCell ref="C112:C113"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C112:C113"/>
     <mergeCell ref="C100:C101"/>
-    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="C56:C68"/>
+    <mergeCell ref="D51:D55"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C129:C130"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C131:C134"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B135:B138"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B125:B128"/>
     <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D90:D91"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="D131:D132"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A42:A66"/>
-    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="A44:A68"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:A91"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="A98:A109"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D105:D107"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="D133:D134"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B18:B22"/>
     <mergeCell ref="A5:A12"/>
-    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B129:B134"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A112:A119"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B118:B122"/>
+    <mergeCell ref="A100:A111"/>
     <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="C104:C109"/>
+    <mergeCell ref="A120:A128"/>
+    <mergeCell ref="C9:C10"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C118:C119"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C127:C128"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B80:B84"/>
-    <mergeCell ref="B102:B109"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C135:C136"/>
-    <mergeCell ref="A90:A97"/>
     <mergeCell ref="C110:C111"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="A39:A41"/>
+    <mergeCell ref="D56:D59"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="D121:D122"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="D104:D106"/>
     <mergeCell ref="C125:C126"/>
     <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="D49:D53"/>
-    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="D123:D124"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D82:D83"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="B104:B111"/>
     <mergeCell ref="C92:C93"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -988,7 +988,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>14_1</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>14_1</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2739,7 +2739,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3689,7 +3689,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>?</t>
+          <t>9</t>
         </is>
       </c>
     </row>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -1786,16 +1786,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>14_1</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
       <c r="C42" s="1" t="inlineStr">
         <is>
           <t>R</t>
@@ -1808,21 +1800,21 @@
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_wob_2me-12222022162257.avi</t>
+          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2310</v>
+        <v>2255</v>
       </c>
       <c r="G42" t="n">
-        <v>231</v>
+        <v>225.5</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>14_1</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1837,21 +1829,21 @@
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
+          <t>14_relaxed_wob_2me-12222022162257.avi</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2255</v>
+        <v>2310</v>
       </c>
       <c r="G43" t="n">
-        <v>225.5</v>
+        <v>231</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>14_1</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4711,14 +4703,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="109">
     <mergeCell ref="B82:B86"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="C137:C138"/>
     <mergeCell ref="A92:A99"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C94:C95"/>
-    <mergeCell ref="B42:B43"/>
     <mergeCell ref="C114:C115"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C123:C124"/>
@@ -4755,15 +4746,15 @@
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="C102:C103"/>
     <mergeCell ref="C131:C134"/>
-    <mergeCell ref="B39:B41"/>
     <mergeCell ref="C87:C88"/>
     <mergeCell ref="B135:B138"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="A23:A30"/>
     <mergeCell ref="B125:B128"/>
+    <mergeCell ref="B39:B43"/>
     <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C5:C6"/>
     <mergeCell ref="D90:D91"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A31:A38"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="D131:D132"/>
@@ -4779,6 +4770,7 @@
     <mergeCell ref="A82:A91"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="B2:B4"/>
@@ -4805,9 +4797,7 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A39:A41"/>
     <mergeCell ref="D56:D59"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="D121:D122"/>
     <mergeCell ref="B112:B115"/>
     <mergeCell ref="D104:D106"/>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>1_H_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>127</v>
+        <v>6450</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7</v>
+        <v>215</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -549,71 +549,95 @@
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>1_H_WOB_2m_2.avi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>2464</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>82.13333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>1_R_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1867</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>10_holdingbreath_blanket_2me-12222022145955.avi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>1813</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>181.3</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -621,49 +645,61 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>10_H_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>1988</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>198.8</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>10_relaxed_blanket_2me-12222022145805.avi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>1855</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>185.5</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -671,53 +707,65 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>10_relaxed_withoutblanket_2me-12222022145402.avi</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>2103</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>210.3</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>10_holdingbreathing_blanket_3me-12222022144836.avi</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>2006</v>
       </c>
       <c r="G9" t="n">
-        <v>11.4</v>
+        <v>200.6</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -725,49 +773,61 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>10_holdbreath_withoutblanket_3me-12222022144453.avi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>1869</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>186.9</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>10_relaxed_blanket_3me-12222022144649.avi</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1821</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>182.1</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -775,107 +835,131 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>10_relaxed_withoutblanket_3me-12222022144300.avi</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>1938</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>193.8</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>11_holdingbreath_blanket_2me-12222022150959.avi</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>176</v>
+        <v>1822</v>
       </c>
       <c r="G13" t="n">
-        <v>17.6</v>
+        <v>182.2</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>11_holdbreathing_wob_2me-12222022150554.avi</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>27</v>
+        <v>2009</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>200.9</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>11_relaxed_blanket_2me-12222022150811.avi</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>66</v>
+        <v>1768</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>176.8</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -883,24 +967,28 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>11_relaxed_wob_2me-12222022150232.avi</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>543</v>
+        <v>1759</v>
       </c>
       <c r="G16" t="n">
-        <v>54.3</v>
+        <v>175.9</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -911,50 +999,58 @@
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>11_relaxed_wob_2me-12222022150410.avi</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>633</v>
+        <v>1821</v>
       </c>
       <c r="G17" t="n">
-        <v>63.3</v>
+        <v>182.1</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>11_holdbreathing_blanket_3me-12222022153145.avi</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>995</v>
+        <v>1981</v>
       </c>
       <c r="G18" t="n">
-        <v>99.5</v>
+        <v>198.1</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -962,24 +1058,28 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>11_holdbreathing_withoutblanket2_3me-12222022152746.avi</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>74</v>
       </c>
       <c r="H19" t="n">
         <v>10</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -990,46 +1090,54 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>11_holdbreathing_withoutblanket_3me-12222022152654.avi</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>1129</v>
       </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>112.9</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>11_relaxedd_blanket_3me-12222022152948.avi</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>56</v>
+        <v>2130</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>213</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1037,49 +1145,69 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>11_relaxed_withoutblanket_3me-12222022152505.avi</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>206</v>
+        <v>1932</v>
       </c>
       <c r="G22" t="n">
-        <v>20.6</v>
+        <v>193.2</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>12_holdingbreath_blanket_2me-12222022151756.avi</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>391</v>
+        <v>1925</v>
       </c>
       <c r="G23" t="n">
-        <v>78.2</v>
+        <v>192.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1087,49 +1215,61 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>12_holdbreathing_withoutblanket_2me-12222022151409.avi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>1951</v>
       </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>195.1</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>12_relaxed_blanket_2me-12222022151611.avi</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>77</v>
+        <v>1957</v>
       </c>
       <c r="G25" t="n">
-        <v>15.4</v>
+        <v>195.7</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1277,3579 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
+          <t>12_relaxed_withoutblanket_2me-12222022151224.avi</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1889</v>
+      </c>
+      <c r="G26" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>12_holdingbreath_blanket_3me-12222022153923.avi</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G27" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>12_holdbreathing_wob_3me-12222022153552.avi</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1910</v>
+      </c>
+      <c r="G28" t="n">
+        <v>191</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>12_relaxed_blanket_3me-12222022153739.avi</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2031</v>
+      </c>
+      <c r="G29" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>12_relaxed_wob_3me-12222022153404.avi</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1907</v>
+      </c>
+      <c r="G30" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreathing_blanket_2me-12222022160101.avi</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1985</v>
+      </c>
+      <c r="G31" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>13_holdingbreath_withoutblanket_2me-12222022155708.avi</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G32" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_blanket_2me-12222022155919.avi</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G33" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_withoutblanket_2me-12222022155522.avi</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreath_blanket_3me-12222022155045.avi</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2075</v>
+      </c>
+      <c r="G35" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreathing_wob_3me-12222022154705.avi</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2077</v>
+      </c>
+      <c r="G36" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_blanket_3me-12222022154853.avi</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G37" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_wob_3me-12222022154509.avi</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2075</v>
+      </c>
+      <c r="G38" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing_blanked_2me-12222022162951.avi</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G39" t="n">
+        <v>193</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing2_wob_2me-12222022162548.avi</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>205</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing_wob_2me-12222022162453.avi</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2255</v>
+      </c>
+      <c r="G42" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>14_relaxed_wob_2me-12222022162257.avi</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2310</v>
+      </c>
+      <c r="G43" t="n">
+        <v>231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>15_2</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>15_2nd_2meters</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>15_2nd_hold_blanket_2meters</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>output_video.mp4</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2114</v>
+      </c>
+      <c r="G44" t="n">
+        <v>70.46666666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>127</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>160</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>32</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>114</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="n"/>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>14</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>64</v>
+      </c>
+      <c r="G55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>176</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>27</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="n"/>
+      <c r="D58" s="1" t="n"/>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>66</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>543</v>
+      </c>
+      <c r="G59" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>633</v>
+      </c>
+      <c r="G60" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>995</v>
+      </c>
+      <c r="G61" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="n"/>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>105</v>
+      </c>
+      <c r="G63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>56</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>206</v>
+      </c>
+      <c r="G65" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>391</v>
+      </c>
+      <c r="G66" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>28</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>77</v>
+      </c>
+      <c r="G68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
           <t>15_relaxed_wob_2meters-12232022085400.avi</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F69" t="n">
         <v>92</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G69" t="n">
         <v>18.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H69" t="n">
         <v>5</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>2_H_B_2m-12222022100256.avi</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>4567</v>
+      </c>
+      <c r="G70" t="n">
+        <v>152.2333333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>30</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n"/>
+      <c r="B71" s="1" t="n"/>
+      <c r="C71" s="1" t="n"/>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4466</v>
+      </c>
+      <c r="G71" t="n">
+        <v>148.8666666666667</v>
+      </c>
+      <c r="H71" t="n">
+        <v>30</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>2_R_B_2m-12222022095917.avi</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>4691</v>
+      </c>
+      <c r="G72" t="n">
+        <v>156.3666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="n"/>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>4344</v>
+      </c>
+      <c r="G73" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="H73" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>2_H_B_3m-12222022102602.avi</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G74" t="n">
+        <v>133.0666666666667</v>
+      </c>
+      <c r="H74" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="n"/>
+      <c r="C75" s="1" t="n"/>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>3952</v>
+      </c>
+      <c r="G75" t="n">
+        <v>131.7333333333333</v>
+      </c>
+      <c r="H75" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>2_R_B_3m-12222022102314.avi</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3834</v>
+      </c>
+      <c r="G76" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H76" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>656</v>
+      </c>
+      <c r="G77" t="n">
+        <v>21.86666666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="n"/>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>3880</v>
+      </c>
+      <c r="G78" t="n">
+        <v>129.3333333333333</v>
+      </c>
+      <c r="H78" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>3_HB_B_3m-12222022103839.avi</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3295</v>
+      </c>
+      <c r="G79" t="n">
+        <v>109.8333333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n"/>
+      <c r="B80" s="1" t="n"/>
+      <c r="C80" s="1" t="n"/>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3921</v>
+      </c>
+      <c r="G80" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="H80" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>4064</v>
+      </c>
+      <c r="G81" t="n">
+        <v>135.4666666666667</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="n"/>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>3949</v>
+      </c>
+      <c r="G82" t="n">
+        <v>131.6333333333333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>30</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>30</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n"/>
+      <c r="B84" s="1" t="n"/>
+      <c r="C84" s="1" t="n"/>
+      <c r="D84" s="1" t="n"/>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>4756</v>
+      </c>
+      <c r="G84" t="n">
+        <v>158.5333333333333</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2626</v>
+      </c>
+      <c r="G85" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>3821</v>
+      </c>
+      <c r="G86" t="n">
+        <v>127.3666666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="n"/>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>4594</v>
+      </c>
+      <c r="G87" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>4683</v>
+      </c>
+      <c r="G88" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="n"/>
+      <c r="C89" s="1" t="n"/>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>3855</v>
+      </c>
+      <c r="G89" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>30</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>3871</v>
+      </c>
+      <c r="G90" t="n">
+        <v>129.0333333333333</v>
+      </c>
+      <c r="H90" t="n">
+        <v>30</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>124</v>
+      </c>
+      <c r="G91" t="n">
+        <v>4.133292</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30.00030000300003</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="n"/>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>3497</v>
+      </c>
+      <c r="G92" t="n">
+        <v>116.5666666666667</v>
+      </c>
+      <c r="H92" t="n">
+        <v>30</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>3579</v>
+      </c>
+      <c r="G93" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n"/>
+      <c r="B94" s="1" t="n"/>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3471</v>
+      </c>
+      <c r="G94" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>4450</v>
+      </c>
+      <c r="G95" t="n">
+        <v>445</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="n"/>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>3554</v>
+      </c>
+      <c r="G96" t="n">
+        <v>355.4</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>4079</v>
+      </c>
+      <c r="G97" t="n">
+        <v>135.9666666666667</v>
+      </c>
+      <c r="H97" t="n">
+        <v>30</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="n"/>
+      <c r="C98" s="1" t="n"/>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G98" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="H98" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4026</v>
+      </c>
+      <c r="G99" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="H99" t="n">
+        <v>30</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="n"/>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>3556</v>
+      </c>
+      <c r="G100" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>6_holding_blanket_2me-12222022161854.avi</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>2186</v>
+      </c>
+      <c r="G101" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n"/>
+      <c r="B102" s="1" t="n"/>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2214</v>
+      </c>
+      <c r="G102" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2566</v>
+      </c>
+      <c r="G103" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="n"/>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2438</v>
+      </c>
+      <c r="G104" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>4844</v>
+      </c>
+      <c r="G105" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1452</v>
+      </c>
+      <c r="G106" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>3246</v>
+      </c>
+      <c r="G107" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>2703</v>
+      </c>
+      <c r="G108" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>30</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1538</v>
+      </c>
+      <c r="G109" t="n">
+        <v>51.26666666666667</v>
+      </c>
+      <c r="H109" t="n">
+        <v>30</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1423</v>
+      </c>
+      <c r="G110" t="n">
+        <v>47.43333333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>30</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G111" t="n">
+        <v>391</v>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="n"/>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G112" t="n">
+        <v>123.6666666666667</v>
+      </c>
+      <c r="H112" t="n">
+        <v>30</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3585</v>
+      </c>
+      <c r="G113" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n"/>
+      <c r="B114" s="1" t="n"/>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G114" t="n">
+        <v>345.3</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>5048</v>
+      </c>
+      <c r="G115" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="n"/>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>2593</v>
+      </c>
+      <c r="G116" t="n">
+        <v>86.43333333333334</v>
+      </c>
+      <c r="H116" t="n">
+        <v>30</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>3611</v>
+      </c>
+      <c r="G117" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="n"/>
+      <c r="C118" s="1" t="n"/>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>3599</v>
+      </c>
+      <c r="G118" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3946</v>
+      </c>
+      <c r="G119" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>3438</v>
+      </c>
+      <c r="G120" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>3544</v>
+      </c>
+      <c r="G121" t="n">
+        <v>354.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n"/>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>3551</v>
+      </c>
+      <c r="G122" t="n">
+        <v>355.1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="n"/>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>3741</v>
+      </c>
+      <c r="G123" t="n">
+        <v>374.1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3553</v>
+      </c>
+      <c r="G124" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="n"/>
+      <c r="D125" s="1" t="n"/>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G125" t="n">
+        <v>355</v>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E126" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>1917</v>
+      </c>
+      <c r="G126" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="n"/>
+      <c r="C127" s="1" t="n"/>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>3706</v>
+      </c>
+      <c r="G127" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D128" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>1935</v>
+      </c>
+      <c r="G128" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="n"/>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>3569</v>
+      </c>
+      <c r="G129" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>3380</v>
+      </c>
+      <c r="G130" t="n">
+        <v>338</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n"/>
+      <c r="B131" s="1" t="n"/>
+      <c r="C131" s="1" t="n"/>
+      <c r="D131" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>3570</v>
+      </c>
+      <c r="G131" t="n">
+        <v>357</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>1654</v>
+      </c>
+      <c r="G132" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="n"/>
+      <c r="D133" s="1" t="n"/>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G133" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="n"/>
+      <c r="D134" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E134" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1546</v>
+      </c>
+      <c r="G134" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="n"/>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1752</v>
+      </c>
+      <c r="G135" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D136" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G136" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="n"/>
+      <c r="C137" s="1" t="n"/>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1944</v>
+      </c>
+      <c r="G137" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G138" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="n"/>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob_3me-12222022142904.avi</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1814</v>
+      </c>
+      <c r="G139" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C14:C26"/>
+  <mergeCells count="109">
+    <mergeCell ref="A101:A112"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A44:A69"/>
+    <mergeCell ref="A70:A78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A130:A139"/>
+    <mergeCell ref="A93:A100"/>
+    <mergeCell ref="A83:A92"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C57:C69"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="D45:D51"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="D61:D69"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B45:B69"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D108:D110"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D124:D125"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,41 +504,41 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2 Meters</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>2 meters</t>
+          <t>With Blankets</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Hold Breath</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>frames_Arun2_lower_bound</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>1_H_WOB_2m.avi</t>
+          <t>15-2m-WB-HB_0.png</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6450</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -549,95 +549,71 @@
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>1_H_WOB_2m_2.avi</t>
+          <t>15-2m-WB-HB_1.png</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2464</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>82.13333333333334</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>1_R_WOB_2m.avi</t>
+          <t>15-2m-WB-HB_10.png</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1867</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>62.23333333333333</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+      <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>10_holdingbreath_blanket_2me-12222022145955.avi</t>
+          <t>15-2m-WB-HB_11.png</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1813</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>181.3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -645,61 +621,49 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>10_H_WOB_2m.avi</t>
+          <t>15-2m-WB-HB_12.png</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1988</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>198.8</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>10_relaxed_blanket_2me-12222022145805.avi</t>
+          <t>15-2m-WB-HB_13.png</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1855</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>185.5</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -707,65 +671,49 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>10_relaxed_withoutblanket_2me-12222022145402.avi</t>
+          <t>15-2m-WB-HB_14.png</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2103</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>210.3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>10_holdingbreathing_blanket_3me-12222022144836.avi</t>
+          <t>15-2m-WB-HB_15.png</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2006</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>200.6</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -773,61 +721,49 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>10_holdbreath_withoutblanket_3me-12222022144453.avi</t>
+          <t>15-2m-WB-HB_16.png</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1869</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>186.9</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>10_relaxed_blanket_3me-12222022144649.avi</t>
+          <t>15-2m-WB-HB_2.png</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1821</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>182.1</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -835,69 +771,49 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>10_relaxed_withoutblanket_3me-12222022144300.avi</t>
+          <t>15-2m-WB-HB_3.png</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1938</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>193.8</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>11_holdingbreath_blanket_2me-12222022150959.avi</t>
+          <t>15-2m-WB-HB_4.png</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1822</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>182.2</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -905,61 +821,49 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>11_holdbreathing_wob_2me-12222022150554.avi</t>
+          <t>15-2m-WB-HB_5.png</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2009</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>200.9</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>11_relaxed_blanket_2me-12222022150811.avi</t>
+          <t>15-2m-WB-HB_6.png</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1768</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>176.8</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -967,28 +871,24 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>11_relaxed_wob_2me-12222022150232.avi</t>
+          <t>15-2m-WB-HB_7.png</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1759</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -999,87 +899,79 @@
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>11_relaxed_wob_2me-12222022150410.avi</t>
+          <t>15-2m-WB-HB_8.png</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1821</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>182.1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B18" s="1" t="n"/>
+      <c r="C18" s="1" t="n"/>
+      <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>11_holdbreathing_blanket_3me-12222022153145.avi</t>
+          <t>15-2m-WB-HB_9.png</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1981</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>198.1</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Relaxed</t>
+        </is>
+      </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>frames</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>11_holdbreathing_withoutblanket2_3me-12222022152746.avi</t>
+          <t>frame_0.png</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>740</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1090,54 +982,46 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>11_holdbreathing_withoutblanket_3me-12222022152654.avi</t>
+          <t>frame_1.png</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1129</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>112.9</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>11_relaxedd_blanket_3me-12222022152948.avi</t>
+          <t>frame_10.png</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2130</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1145,69 +1029,49 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>11_relaxed_withoutblanket_3me-12222022152505.avi</t>
+          <t>frame_100.png</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1932</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>193.2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>12_holdingbreath_blanket_2me-12222022151756.avi</t>
+          <t>frame_101.png</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1925</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>192.5</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1215,61 +1079,49 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>12_holdbreathing_withoutblanket_2me-12222022151409.avi</t>
+          <t>frame_11.png</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1951</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>195.1</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>12_relaxed_blanket_2me-12222022151611.avi</t>
+          <t>frame_12.png</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1957</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>195.7</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1277,65 +1129,49 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>12_relaxed_withoutblanket_2me-12222022151224.avi</t>
+          <t>frame_13.png</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1889</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>188.9</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>12_holdingbreath_blanket_3me-12222022153923.avi</t>
+          <t>frame_14.png</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2059</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>205.9</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1343,61 +1179,49 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
       <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>12_holdbreathing_wob_3me-12222022153552.avi</t>
+          <t>frame_15.png</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1910</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>12_relaxed_blanket_3me-12222022153739.avi</t>
+          <t>frame_16.png</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2031</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>203.1</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1405,69 +1229,49 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="n"/>
       <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>12_relaxed_wob_3me-12222022153404.avi</t>
+          <t>frame_17.png</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1907</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>190.7</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>13_holdbreathing_blanket_2me-12222022160101.avi</t>
+          <t>frame_18.png</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1985</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>198.5</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1475,61 +1279,49 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="n"/>
       <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>13_holdingbreath_withoutblanket_2me-12222022155708.avi</t>
+          <t>frame_19.png</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2589</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>258.9</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>13_relaxed_blanket_2me-12222022155919.avi</t>
+          <t>frame_2.png</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>201.1</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1537,65 +1329,49 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="n"/>
       <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>13_relaxed_withoutblanket_2me-12222022155522.avi</t>
+          <t>frame_20.png</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2112</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>211.2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>13_holdbreath_blanket_3me-12222022155045.avi</t>
+          <t>frame_21.png</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2075</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>207.5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1603,61 +1379,49 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>13_holdbreathing_wob_3me-12222022154705.avi</t>
+          <t>frame_22.png</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2077</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>207.7</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>13_relaxed_blanket_3me-12222022154853.avi</t>
+          <t>frame_23.png</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2025</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>202.5</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1665,69 +1429,49 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>13_relaxed_wob_3me-12222022154509.avi</t>
+          <t>frame_24.png</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2075</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>207.5</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>14_holdbreathing_blanked_2me-12222022162951.avi</t>
+          <t>frame_25.png</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1930</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1735,28 +1479,24 @@
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
       <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>14_holdbreathing2_wob_2me-12222022162548.avi</t>
+          <t>frame_26.png</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>20.5</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1767,54 +1507,46 @@
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>14_holdbreathing_wob_2me-12222022162453.avi</t>
+          <t>frame_27.png</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1296</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>129.6</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C42" s="1" t="n"/>
+      <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
+          <t>frame_28.png</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2255</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>225.5</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1822,106 +1554,74 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
       <c r="C43" s="1" t="n"/>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>14_relaxed_wob_2me-12222022162257.avi</t>
+          <t>frame_29.png</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2310</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>15_2</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>15_2nd_2meters</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>15_2nd_hold_blanket_2meters</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="1" t="n"/>
+      <c r="C44" s="1" t="n"/>
+      <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>output_video.mp4</t>
+          <t>frame_3.png</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2114</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>70.46666666666667</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B45" s="1" t="n"/>
+      <c r="C45" s="1" t="n"/>
+      <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>frame_30.png</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>12.7</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1932,21 +1632,21 @@
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>frame_31.png</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1957,21 +1657,21 @@
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>frame_32.png</t>
         </is>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -1982,21 +1682,21 @@
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>frame_33.png</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2007,21 +1707,21 @@
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>frame_34.png</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2032,21 +1732,21 @@
       <c r="D50" s="1" t="n"/>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>frame_35.png</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2057,21 +1757,21 @@
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>frame_36.png</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2079,28 +1779,24 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="n"/>
       <c r="C52" s="1" t="n"/>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>frame_37.png</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>11.4</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2111,21 +1807,21 @@
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>frame_38.png</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2136,21 +1832,21 @@
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>frame_39.png</t>
         </is>
       </c>
       <c r="F54" t="n">
         <v>1</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2161,21 +1857,21 @@
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>frame_4.png</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>6.4</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2186,54 +1882,46 @@
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>frame_40.png</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>176</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>17.6</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="n"/>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>frame_41.png</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2244,21 +1932,21 @@
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>frame_42.png</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2269,21 +1957,21 @@
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>frame_43.png</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>543</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>54.3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2294,21 +1982,21 @@
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>frame_44.png</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>633</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>63.3</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2316,28 +2004,24 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="n"/>
       <c r="C61" s="1" t="n"/>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>frame_45.png</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>995</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>99.5</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2348,21 +2032,21 @@
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>frame_46.png</t>
         </is>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2373,21 +2057,21 @@
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>frame_47.png</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2398,21 +2082,21 @@
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>frame_48.png</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2423,21 +2107,21 @@
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>frame_49.png</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>20.6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2448,21 +2132,21 @@
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>frame_5.png</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>391</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>78.2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2473,21 +2157,21 @@
       <c r="D67" s="1" t="n"/>
       <c r="E67" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>frame_50.png</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2498,21 +2182,21 @@
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>frame_51.png</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>15.4</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2523,62 +2207,46 @@
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085400.avi</t>
+          <t>frame_52.png</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>18.4</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_2m-12222022100256.avi</t>
+          <t>frame_53.png</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4567</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>152.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2586,61 +2254,49 @@
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="n"/>
       <c r="C71" s="1" t="n"/>
-      <c r="D71" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_2m-12222022095411.avi</t>
+          <t>frame_54.png</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4466</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>148.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D72" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_2m-12222022095917.avi</t>
+          <t>frame_55.png</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>4691</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>156.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2648,65 +2304,49 @@
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="n"/>
       <c r="C73" s="1" t="n"/>
-      <c r="D73" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_2m-12222022095034.avi</t>
+          <t>frame_56.png</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>4344</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>144.8</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D74" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="inlineStr">
         <is>
-          <t>2_H_B_3m-12222022102602.avi</t>
+          <t>frame_57.png</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>3992</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>133.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2714,61 +2354,49 @@
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="n"/>
       <c r="C75" s="1" t="n"/>
-      <c r="D75" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="inlineStr">
         <is>
-          <t>2_H_WOB_3m-12222022101944.avi</t>
+          <t>frame_58.png</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>3952</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>131.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="n"/>
-      <c r="C76" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D76" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="inlineStr">
         <is>
-          <t>2_R_B_3m-12222022102314.avi</t>
+          <t>frame_59.png</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3834</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>127.8</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2776,28 +2404,24 @@
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="n"/>
       <c r="C77" s="1" t="n"/>
-      <c r="D77" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101525.avi</t>
+          <t>frame_6.png</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>656</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>21.86666666666667</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2808,62 +2432,46 @@
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="inlineStr">
         <is>
-          <t>2_R_WOB_3m-12222022101644.avi</t>
+          <t>frame_60.png</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3880</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>129.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D79" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="inlineStr">
         <is>
-          <t>3_HB_B_3m-12222022103839.avi</t>
+          <t>frame_61.png</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>3295</v>
+        <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>109.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2871,61 +2479,49 @@
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
       <c r="C80" s="1" t="n"/>
-      <c r="D80" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="inlineStr">
         <is>
-          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+          <t>frame_62.png</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3921</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>130.7</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D81" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="inlineStr">
         <is>
-          <t>3_R_B_3METERS-12222022103546.avi</t>
+          <t>frame_63.png</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>4064</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>135.4666666666667</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -2933,69 +2529,49 @@
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="n"/>
       <c r="C82" s="1" t="n"/>
-      <c r="D82" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D82" s="1" t="n"/>
       <c r="E82" s="1" t="inlineStr">
         <is>
-          <t>3_R_WOB_3m-12222022103229.avi</t>
+          <t>frame_64.png</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>3949</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>131.6333333333333</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D83" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+          <t>frame_65.png</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3006,21 +2582,21 @@
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="inlineStr">
         <is>
-          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+          <t>frame_66.png</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4756</v>
+        <v>1</v>
       </c>
       <c r="G84" t="n">
-        <v>158.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3028,61 +2604,49 @@
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="n"/>
-      <c r="D85" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D85" s="1" t="n"/>
       <c r="E85" s="1" t="inlineStr">
         <is>
-          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+          <t>frame_67.png</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>2626</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>87.53333333333333</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="n"/>
-      <c r="C86" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="n"/>
       <c r="E86" s="1" t="inlineStr">
         <is>
-          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+          <t>frame_68.png</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3821</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>127.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3090,65 +2654,49 @@
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="n"/>
       <c r="C87" s="1" t="n"/>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D87" s="1" t="n"/>
       <c r="E87" s="1" t="inlineStr">
         <is>
-          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+          <t>frame_69.png</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4594</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>153.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C88" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D88" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="n"/>
       <c r="E88" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+          <t>frame_7.png</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4683</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>156.1</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3156,61 +2704,49 @@
       <c r="A89" s="1" t="n"/>
       <c r="B89" s="1" t="n"/>
       <c r="C89" s="1" t="n"/>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="inlineStr">
         <is>
-          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+          <t>frame_70.png</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>3855</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>128.5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="n"/>
       <c r="E90" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+          <t>frame_71.png</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>3871</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
-        <v>129.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3218,28 +2754,24 @@
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D91" s="1" t="n"/>
       <c r="E91" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+          <t>frame_72.png</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>4.133292</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>30.00030000300003</v>
+        <v>1</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3250,62 +2782,46 @@
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="inlineStr">
         <is>
-          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+          <t>frame_73.png</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>3497</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>116.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
       <c r="E93" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+          <t>frame_74.png</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>3579</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>357.9</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3313,61 +2829,49 @@
       <c r="A94" s="1" t="n"/>
       <c r="B94" s="1" t="n"/>
       <c r="C94" s="1" t="n"/>
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="inlineStr">
         <is>
-          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+          <t>frame_75.png</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3471</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
-        <v>347.1</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+          <t>frame_76.png</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4450</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>445</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3375,65 +2879,49 @@
       <c r="A96" s="1" t="n"/>
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="n"/>
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+          <t>frame_77.png</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3554</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>355.4</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C97" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="inlineStr">
         <is>
-          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+          <t>frame_78.png</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4079</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>135.9666666666667</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3441,61 +2929,49 @@
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="n"/>
-      <c r="D98" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="inlineStr">
         <is>
-          <t>5_holding_wob_3ME-12222022120954.avi</t>
+          <t>frame_79.png</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4041</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>134.7</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D99" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="inlineStr">
         <is>
-          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+          <t>frame_8.png</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4026</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>134.2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3503,69 +2979,49 @@
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="n"/>
       <c r="C100" s="1" t="n"/>
-      <c r="D100" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="inlineStr">
         <is>
-          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+          <t>frame_80.png</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3556</v>
+        <v>1</v>
       </c>
       <c r="G100" t="n">
-        <v>118.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C101" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D101" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
       <c r="E101" s="1" t="inlineStr">
         <is>
-          <t>6_holding_blanket_2me-12222022161854.avi</t>
+          <t>frame_81.png</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2186</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>218.6</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3573,61 +3029,49 @@
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n"/>
       <c r="C102" s="1" t="n"/>
-      <c r="D102" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D102" s="1" t="n"/>
       <c r="E102" s="1" t="inlineStr">
         <is>
-          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+          <t>frame_82.png</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>2214</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>221.4</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="n"/>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D103" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="n"/>
       <c r="E103" s="1" t="inlineStr">
         <is>
-          <t>6_relax_blanket_2me-12222022161616.avi</t>
+          <t>frame_83.png</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>2566</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>256.6</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3635,65 +3079,49 @@
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="n"/>
-      <c r="D104" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D104" s="1" t="n"/>
       <c r="E104" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+          <t>frame_84.png</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2438</v>
+        <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>243.8</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C105" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="n"/>
       <c r="E105" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+          <t>frame_85.png</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4844</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>484.4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3704,21 +3132,21 @@
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+          <t>frame_86.png</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1452</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>145.2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3729,21 +3157,21 @@
       <c r="D107" s="1" t="n"/>
       <c r="E107" s="1" t="inlineStr">
         <is>
-          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+          <t>frame_87.png</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>3246</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>324.6</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3751,28 +3179,24 @@
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="n"/>
       <c r="C108" s="1" t="n"/>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D108" s="1" t="n"/>
       <c r="E108" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+          <t>frame_88.png</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2703</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>90.09999999999999</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3783,21 +3207,21 @@
       <c r="D109" s="1" t="n"/>
       <c r="E109" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+          <t>frame_89.png</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1538</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>51.26666666666667</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3808,54 +3232,46 @@
       <c r="D110" s="1" t="n"/>
       <c r="E110" s="1" t="inlineStr">
         <is>
-          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+          <t>frame_9.png</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1423</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>47.43333333333333</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D111" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="n"/>
       <c r="E111" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+          <t>frame_90.png</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3910</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>391</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3863,69 +3279,49 @@
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="n"/>
       <c r="C112" s="1" t="n"/>
-      <c r="D112" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D112" s="1" t="n"/>
       <c r="E112" s="1" t="inlineStr">
         <is>
-          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+          <t>frame_91.png</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3710</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>123.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="n"/>
       <c r="E113" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+          <t>frame_92.png</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3585</v>
+        <v>1</v>
       </c>
       <c r="G113" t="n">
-        <v>358.5</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3933,61 +3329,49 @@
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="n"/>
       <c r="C114" s="1" t="n"/>
-      <c r="D114" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D114" s="1" t="n"/>
       <c r="E114" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+          <t>frame_93.png</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>3453</v>
+        <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>345.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="n"/>
-      <c r="C115" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="n"/>
       <c r="E115" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+          <t>frame_94.png</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>5048</v>
+        <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>504.8</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -3995,65 +3379,49 @@
       <c r="A116" s="1" t="n"/>
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="n"/>
-      <c r="D116" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D116" s="1" t="n"/>
       <c r="E116" s="1" t="inlineStr">
         <is>
-          <t>7_relax_wob_2me-12222022131934.avi</t>
+          <t>frame_95.png</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2593</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
-        <v>86.43333333333334</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="n"/>
       <c r="E117" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+          <t>frame_96.png</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3611</v>
+        <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>361.1</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4061,61 +3429,49 @@
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="n"/>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D118" s="1" t="n"/>
       <c r="E118" s="1" t="inlineStr">
         <is>
-          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+          <t>frame_97.png</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3599</v>
+        <v>1</v>
       </c>
       <c r="G118" t="n">
-        <v>359.9</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
       <c r="B119" s="1" t="n"/>
-      <c r="C119" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="n"/>
       <c r="E119" s="1" t="inlineStr">
         <is>
-          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+          <t>frame_98.png</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>3946</v>
+        <v>1</v>
       </c>
       <c r="G119" t="n">
-        <v>394.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4123,69 +3479,53 @@
       <c r="A120" s="1" t="n"/>
       <c r="B120" s="1" t="n"/>
       <c r="C120" s="1" t="n"/>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D120" s="1" t="n"/>
       <c r="E120" s="1" t="inlineStr">
         <is>
-          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+          <t>frame_99.png</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>3438</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>343.8</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>frames_Arun2_lower_bound</t>
         </is>
       </c>
       <c r="E121" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+          <t>15_1-2m-WB-rel_0.png</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>3544</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>354.4</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4193,28 +3533,24 @@
       <c r="A122" s="1" t="n"/>
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="n"/>
-      <c r="D122" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D122" s="1" t="n"/>
       <c r="E122" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+          <t>15_1-2m-WB-rel_1.png</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3551</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>355.1</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4225,54 +3561,46 @@
       <c r="D123" s="1" t="n"/>
       <c r="E123" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+          <t>15_1-2m-WB-rel_10.png</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3741</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
-        <v>374.1</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
       <c r="B124" s="1" t="n"/>
-      <c r="C124" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D124" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
       <c r="E124" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+          <t>15_1-2m-WB-rel_11.png</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3553</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>355.3</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4283,58 +3611,46 @@
       <c r="D125" s="1" t="n"/>
       <c r="E125" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+          <t>15_1-2m-WB-rel_12.png</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3550</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
-        <v>355</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C126" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D126" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
       <c r="E126" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+          <t>15_1-2m-WB-rel_13.png</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1917</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
-        <v>191.7</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4342,61 +3658,49 @@
       <c r="A127" s="1" t="n"/>
       <c r="B127" s="1" t="n"/>
       <c r="C127" s="1" t="n"/>
-      <c r="D127" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D127" s="1" t="n"/>
       <c r="E127" s="1" t="inlineStr">
         <is>
-          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+          <t>15_1-2m-WB-rel_14.png</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>3706</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
-        <v>370.6</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
       <c r="B128" s="1" t="n"/>
-      <c r="C128" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D128" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="n"/>
       <c r="E128" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+          <t>15_1-2m-WB-rel_15.png</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1935</v>
+        <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>193.5</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4404,69 +3708,49 @@
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="n"/>
       <c r="C129" s="1" t="n"/>
-      <c r="D129" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D129" s="1" t="n"/>
       <c r="E129" s="1" t="inlineStr">
         <is>
-          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+          <t>15_1-2m-WB-rel_16.png</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>3569</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>356.9</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="inlineStr">
-        <is>
-          <t>2 meters</t>
-        </is>
-      </c>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D130" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="n"/>
       <c r="E130" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+          <t>15_1-2m-WB-rel_17.png</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>3380</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>338</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4474,61 +3758,49 @@
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="n"/>
       <c r="C131" s="1" t="n"/>
-      <c r="D131" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D131" s="1" t="n"/>
       <c r="E131" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+          <t>15_1-2m-WB-rel_18.png</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>3570</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>357</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
       <c r="B132" s="1" t="n"/>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="n"/>
       <c r="E132" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+          <t>15_1-2m-WB-rel_19.png</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1654</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>165.4</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4539,21 +3811,21 @@
       <c r="D133" s="1" t="n"/>
       <c r="E133" s="1" t="inlineStr">
         <is>
-          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+          <t>15_1-2m-WB-rel_2.png</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1487</v>
+        <v>1</v>
       </c>
       <c r="G133" t="n">
-        <v>148.7</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4561,28 +3833,24 @@
       <c r="A134" s="1" t="n"/>
       <c r="B134" s="1" t="n"/>
       <c r="C134" s="1" t="n"/>
-      <c r="D134" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D134" s="1" t="n"/>
       <c r="E134" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+          <t>15_1-2m-WB-rel_20.png</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1546</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
-        <v>154.6</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4593,58 +3861,46 @@
       <c r="D135" s="1" t="n"/>
       <c r="E135" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+          <t>15_1-2m-WB-rel_21.png</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1752</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>175.2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
-      <c r="B136" s="1" t="inlineStr">
-        <is>
-          <t>3 meters</t>
-        </is>
-      </c>
-      <c r="C136" s="1" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="D136" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
+      <c r="D136" s="1" t="n"/>
       <c r="E136" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+          <t>15_1-2m-WB-rel_22.png</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>1784</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
-        <v>178.4</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4652,61 +3908,49 @@
       <c r="A137" s="1" t="n"/>
       <c r="B137" s="1" t="n"/>
       <c r="C137" s="1" t="n"/>
-      <c r="D137" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D137" s="1" t="n"/>
       <c r="E137" s="1" t="inlineStr">
         <is>
-          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+          <t>15_1-2m-WB-rel_23.png</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>1944</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>194.4</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
       <c r="B138" s="1" t="n"/>
-      <c r="C138" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D138" s="1" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="n"/>
       <c r="E138" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+          <t>15_1-2m-WB-rel_24.png</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1937</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>193.7</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
@@ -4714,142 +3958,4291 @@
       <c r="A139" s="1" t="n"/>
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="n"/>
-      <c r="D139" s="1" t="inlineStr">
-        <is>
-          <t>WOB</t>
-        </is>
-      </c>
+      <c r="D139" s="1" t="n"/>
       <c r="E139" s="1" t="inlineStr">
         <is>
-          <t>9_relaxed_wob_3me-12222022142904.avi</t>
+          <t>15_1-2m-WB-rel_25.png</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1814</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>181.4</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="n"/>
+      <c r="D140" s="1" t="n"/>
+      <c r="E140" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_26.png</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n"/>
+      <c r="B141" s="1" t="n"/>
+      <c r="C141" s="1" t="n"/>
+      <c r="D141" s="1" t="n"/>
+      <c r="E141" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_27.png</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n"/>
+      <c r="B142" s="1" t="n"/>
+      <c r="C142" s="1" t="n"/>
+      <c r="D142" s="1" t="n"/>
+      <c r="E142" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_28.png</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n"/>
+      <c r="B143" s="1" t="n"/>
+      <c r="C143" s="1" t="n"/>
+      <c r="D143" s="1" t="n"/>
+      <c r="E143" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_29.png</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n"/>
+      <c r="B144" s="1" t="n"/>
+      <c r="C144" s="1" t="n"/>
+      <c r="D144" s="1" t="n"/>
+      <c r="E144" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_3.png</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n"/>
+      <c r="B145" s="1" t="n"/>
+      <c r="C145" s="1" t="n"/>
+      <c r="D145" s="1" t="n"/>
+      <c r="E145" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_30.png</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n"/>
+      <c r="B146" s="1" t="n"/>
+      <c r="C146" s="1" t="n"/>
+      <c r="D146" s="1" t="n"/>
+      <c r="E146" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_31.png</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n"/>
+      <c r="B147" s="1" t="n"/>
+      <c r="C147" s="1" t="n"/>
+      <c r="D147" s="1" t="n"/>
+      <c r="E147" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_32.png</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n"/>
+      <c r="B148" s="1" t="n"/>
+      <c r="C148" s="1" t="n"/>
+      <c r="D148" s="1" t="n"/>
+      <c r="E148" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_33.png</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n"/>
+      <c r="B149" s="1" t="n"/>
+      <c r="C149" s="1" t="n"/>
+      <c r="D149" s="1" t="n"/>
+      <c r="E149" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_34.png</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n"/>
+      <c r="B150" s="1" t="n"/>
+      <c r="C150" s="1" t="n"/>
+      <c r="D150" s="1" t="n"/>
+      <c r="E150" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_35.png</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n"/>
+      <c r="B151" s="1" t="n"/>
+      <c r="C151" s="1" t="n"/>
+      <c r="D151" s="1" t="n"/>
+      <c r="E151" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_36.png</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n"/>
+      <c r="B152" s="1" t="n"/>
+      <c r="C152" s="1" t="n"/>
+      <c r="D152" s="1" t="n"/>
+      <c r="E152" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_37.png</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n"/>
+      <c r="B153" s="1" t="n"/>
+      <c r="C153" s="1" t="n"/>
+      <c r="D153" s="1" t="n"/>
+      <c r="E153" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_38.png</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n"/>
+      <c r="B154" s="1" t="n"/>
+      <c r="C154" s="1" t="n"/>
+      <c r="D154" s="1" t="n"/>
+      <c r="E154" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_39.png</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n"/>
+      <c r="B155" s="1" t="n"/>
+      <c r="C155" s="1" t="n"/>
+      <c r="D155" s="1" t="n"/>
+      <c r="E155" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_4.png</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n"/>
+      <c r="B156" s="1" t="n"/>
+      <c r="C156" s="1" t="n"/>
+      <c r="D156" s="1" t="n"/>
+      <c r="E156" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_40.png</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n"/>
+      <c r="B157" s="1" t="n"/>
+      <c r="C157" s="1" t="n"/>
+      <c r="D157" s="1" t="n"/>
+      <c r="E157" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_41.png</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n"/>
+      <c r="B158" s="1" t="n"/>
+      <c r="C158" s="1" t="n"/>
+      <c r="D158" s="1" t="n"/>
+      <c r="E158" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_42.png</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n"/>
+      <c r="B159" s="1" t="n"/>
+      <c r="C159" s="1" t="n"/>
+      <c r="D159" s="1" t="n"/>
+      <c r="E159" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_43.png</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n"/>
+      <c r="B160" s="1" t="n"/>
+      <c r="C160" s="1" t="n"/>
+      <c r="D160" s="1" t="n"/>
+      <c r="E160" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_44.png</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n"/>
+      <c r="B161" s="1" t="n"/>
+      <c r="C161" s="1" t="n"/>
+      <c r="D161" s="1" t="n"/>
+      <c r="E161" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_45.png</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n"/>
+      <c r="C162" s="1" t="n"/>
+      <c r="D162" s="1" t="n"/>
+      <c r="E162" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_46.png</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n"/>
+      <c r="B163" s="1" t="n"/>
+      <c r="C163" s="1" t="n"/>
+      <c r="D163" s="1" t="n"/>
+      <c r="E163" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_47.png</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n"/>
+      <c r="B164" s="1" t="n"/>
+      <c r="C164" s="1" t="n"/>
+      <c r="D164" s="1" t="n"/>
+      <c r="E164" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_48.png</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n"/>
+      <c r="B165" s="1" t="n"/>
+      <c r="C165" s="1" t="n"/>
+      <c r="D165" s="1" t="n"/>
+      <c r="E165" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_49.png</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n"/>
+      <c r="B166" s="1" t="n"/>
+      <c r="C166" s="1" t="n"/>
+      <c r="D166" s="1" t="n"/>
+      <c r="E166" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_5.png</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n"/>
+      <c r="B167" s="1" t="n"/>
+      <c r="C167" s="1" t="n"/>
+      <c r="D167" s="1" t="n"/>
+      <c r="E167" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_50.png</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n"/>
+      <c r="B168" s="1" t="n"/>
+      <c r="C168" s="1" t="n"/>
+      <c r="D168" s="1" t="n"/>
+      <c r="E168" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_51.png</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n"/>
+      <c r="B169" s="1" t="n"/>
+      <c r="C169" s="1" t="n"/>
+      <c r="D169" s="1" t="n"/>
+      <c r="E169" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_52.png</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n"/>
+      <c r="B170" s="1" t="n"/>
+      <c r="C170" s="1" t="n"/>
+      <c r="D170" s="1" t="n"/>
+      <c r="E170" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_53.png</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n"/>
+      <c r="B171" s="1" t="n"/>
+      <c r="C171" s="1" t="n"/>
+      <c r="D171" s="1" t="n"/>
+      <c r="E171" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_54.png</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n"/>
+      <c r="B172" s="1" t="n"/>
+      <c r="C172" s="1" t="n"/>
+      <c r="D172" s="1" t="n"/>
+      <c r="E172" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_55.png</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n"/>
+      <c r="C173" s="1" t="n"/>
+      <c r="D173" s="1" t="n"/>
+      <c r="E173" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_56.png</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n"/>
+      <c r="C174" s="1" t="n"/>
+      <c r="D174" s="1" t="n"/>
+      <c r="E174" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_57.png</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n"/>
+      <c r="C175" s="1" t="n"/>
+      <c r="D175" s="1" t="n"/>
+      <c r="E175" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_58.png</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n"/>
+      <c r="B176" s="1" t="n"/>
+      <c r="C176" s="1" t="n"/>
+      <c r="D176" s="1" t="n"/>
+      <c r="E176" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_59.png</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n"/>
+      <c r="B177" s="1" t="n"/>
+      <c r="C177" s="1" t="n"/>
+      <c r="D177" s="1" t="n"/>
+      <c r="E177" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_6.png</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n"/>
+      <c r="B178" s="1" t="n"/>
+      <c r="C178" s="1" t="n"/>
+      <c r="D178" s="1" t="n"/>
+      <c r="E178" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_60.png</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n"/>
+      <c r="B179" s="1" t="n"/>
+      <c r="C179" s="1" t="n"/>
+      <c r="D179" s="1" t="n"/>
+      <c r="E179" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_61.png</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n"/>
+      <c r="B180" s="1" t="n"/>
+      <c r="C180" s="1" t="n"/>
+      <c r="D180" s="1" t="n"/>
+      <c r="E180" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_62.png</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n"/>
+      <c r="B181" s="1" t="n"/>
+      <c r="C181" s="1" t="n"/>
+      <c r="D181" s="1" t="n"/>
+      <c r="E181" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_63.png</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n"/>
+      <c r="B182" s="1" t="n"/>
+      <c r="C182" s="1" t="n"/>
+      <c r="D182" s="1" t="n"/>
+      <c r="E182" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_64.png</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n"/>
+      <c r="B183" s="1" t="n"/>
+      <c r="C183" s="1" t="n"/>
+      <c r="D183" s="1" t="n"/>
+      <c r="E183" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_65.png</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n"/>
+      <c r="B184" s="1" t="n"/>
+      <c r="C184" s="1" t="n"/>
+      <c r="D184" s="1" t="n"/>
+      <c r="E184" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_66.png</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n"/>
+      <c r="B185" s="1" t="n"/>
+      <c r="C185" s="1" t="n"/>
+      <c r="D185" s="1" t="n"/>
+      <c r="E185" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_67.png</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n"/>
+      <c r="B186" s="1" t="n"/>
+      <c r="C186" s="1" t="n"/>
+      <c r="D186" s="1" t="n"/>
+      <c r="E186" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_68.png</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n"/>
+      <c r="B187" s="1" t="n"/>
+      <c r="C187" s="1" t="n"/>
+      <c r="D187" s="1" t="n"/>
+      <c r="E187" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_69.png</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n"/>
+      <c r="B188" s="1" t="n"/>
+      <c r="C188" s="1" t="n"/>
+      <c r="D188" s="1" t="n"/>
+      <c r="E188" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_7.png</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n"/>
+      <c r="B189" s="1" t="n"/>
+      <c r="C189" s="1" t="n"/>
+      <c r="D189" s="1" t="n"/>
+      <c r="E189" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_8.png</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n"/>
+      <c r="B190" s="1" t="n"/>
+      <c r="C190" s="1" t="n"/>
+      <c r="D190" s="1" t="n"/>
+      <c r="E190" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_9.png</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n"/>
+      <c r="B191" s="1" t="n"/>
+      <c r="C191" s="1" t="n"/>
+      <c r="D191" s="1" t="inlineStr">
+        <is>
+          <t>frames_Arun2_upper_bound</t>
+        </is>
+      </c>
+      <c r="E191" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_0.png</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n"/>
+      <c r="B192" s="1" t="n"/>
+      <c r="C192" s="1" t="n"/>
+      <c r="D192" s="1" t="n"/>
+      <c r="E192" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_1.png</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n"/>
+      <c r="B193" s="1" t="n"/>
+      <c r="C193" s="1" t="n"/>
+      <c r="D193" s="1" t="n"/>
+      <c r="E193" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_10.png</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n"/>
+      <c r="B194" s="1" t="n"/>
+      <c r="C194" s="1" t="n"/>
+      <c r="D194" s="1" t="n"/>
+      <c r="E194" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_100.png</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n"/>
+      <c r="B195" s="1" t="n"/>
+      <c r="C195" s="1" t="n"/>
+      <c r="D195" s="1" t="n"/>
+      <c r="E195" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_101.png</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n"/>
+      <c r="B196" s="1" t="n"/>
+      <c r="C196" s="1" t="n"/>
+      <c r="D196" s="1" t="n"/>
+      <c r="E196" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_102.png</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n"/>
+      <c r="B197" s="1" t="n"/>
+      <c r="C197" s="1" t="n"/>
+      <c r="D197" s="1" t="n"/>
+      <c r="E197" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_103.png</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n"/>
+      <c r="B198" s="1" t="n"/>
+      <c r="C198" s="1" t="n"/>
+      <c r="D198" s="1" t="n"/>
+      <c r="E198" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_104.png</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n"/>
+      <c r="B199" s="1" t="n"/>
+      <c r="C199" s="1" t="n"/>
+      <c r="D199" s="1" t="n"/>
+      <c r="E199" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_106.png</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n"/>
+      <c r="B200" s="1" t="n"/>
+      <c r="C200" s="1" t="n"/>
+      <c r="D200" s="1" t="n"/>
+      <c r="E200" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_107.png</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n"/>
+      <c r="B201" s="1" t="n"/>
+      <c r="C201" s="1" t="n"/>
+      <c r="D201" s="1" t="n"/>
+      <c r="E201" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_108.png</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n"/>
+      <c r="B202" s="1" t="n"/>
+      <c r="C202" s="1" t="n"/>
+      <c r="D202" s="1" t="n"/>
+      <c r="E202" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_109.png</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n"/>
+      <c r="B203" s="1" t="n"/>
+      <c r="C203" s="1" t="n"/>
+      <c r="D203" s="1" t="n"/>
+      <c r="E203" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_110.png</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n"/>
+      <c r="B204" s="1" t="n"/>
+      <c r="C204" s="1" t="n"/>
+      <c r="D204" s="1" t="n"/>
+      <c r="E204" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_112.png</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n"/>
+      <c r="B205" s="1" t="n"/>
+      <c r="C205" s="1" t="n"/>
+      <c r="D205" s="1" t="n"/>
+      <c r="E205" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_113.png</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n"/>
+      <c r="B206" s="1" t="n"/>
+      <c r="C206" s="1" t="n"/>
+      <c r="D206" s="1" t="n"/>
+      <c r="E206" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_114.png</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n"/>
+      <c r="B207" s="1" t="n"/>
+      <c r="C207" s="1" t="n"/>
+      <c r="D207" s="1" t="n"/>
+      <c r="E207" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_115.png</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n"/>
+      <c r="B208" s="1" t="n"/>
+      <c r="C208" s="1" t="n"/>
+      <c r="D208" s="1" t="n"/>
+      <c r="E208" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_116.png</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>1</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n"/>
+      <c r="B209" s="1" t="n"/>
+      <c r="C209" s="1" t="n"/>
+      <c r="D209" s="1" t="n"/>
+      <c r="E209" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_118.png</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n"/>
+      <c r="B210" s="1" t="n"/>
+      <c r="C210" s="1" t="n"/>
+      <c r="D210" s="1" t="n"/>
+      <c r="E210" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_119.png</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n"/>
+      <c r="B211" s="1" t="n"/>
+      <c r="C211" s="1" t="n"/>
+      <c r="D211" s="1" t="n"/>
+      <c r="E211" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_12.png</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n"/>
+      <c r="B212" s="1" t="n"/>
+      <c r="C212" s="1" t="n"/>
+      <c r="D212" s="1" t="n"/>
+      <c r="E212" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_120.png</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n"/>
+      <c r="B213" s="1" t="n"/>
+      <c r="C213" s="1" t="n"/>
+      <c r="D213" s="1" t="n"/>
+      <c r="E213" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_121.png</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n"/>
+      <c r="B214" s="1" t="n"/>
+      <c r="C214" s="1" t="n"/>
+      <c r="D214" s="1" t="n"/>
+      <c r="E214" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_122.png</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n"/>
+      <c r="B215" s="1" t="n"/>
+      <c r="C215" s="1" t="n"/>
+      <c r="D215" s="1" t="n"/>
+      <c r="E215" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_123.png</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n"/>
+      <c r="B216" s="1" t="n"/>
+      <c r="C216" s="1" t="n"/>
+      <c r="D216" s="1" t="n"/>
+      <c r="E216" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_124.png</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>1</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n"/>
+      <c r="B217" s="1" t="n"/>
+      <c r="C217" s="1" t="n"/>
+      <c r="D217" s="1" t="n"/>
+      <c r="E217" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_126.png</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n"/>
+      <c r="B218" s="1" t="n"/>
+      <c r="C218" s="1" t="n"/>
+      <c r="D218" s="1" t="n"/>
+      <c r="E218" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_127.png</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n"/>
+      <c r="B219" s="1" t="n"/>
+      <c r="C219" s="1" t="n"/>
+      <c r="D219" s="1" t="n"/>
+      <c r="E219" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_128.png</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n"/>
+      <c r="B220" s="1" t="n"/>
+      <c r="C220" s="1" t="n"/>
+      <c r="D220" s="1" t="n"/>
+      <c r="E220" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_129.png</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n"/>
+      <c r="B221" s="1" t="n"/>
+      <c r="C221" s="1" t="n"/>
+      <c r="D221" s="1" t="n"/>
+      <c r="E221" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_13.png</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n"/>
+      <c r="B222" s="1" t="n"/>
+      <c r="C222" s="1" t="n"/>
+      <c r="D222" s="1" t="n"/>
+      <c r="E222" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_130.png</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n"/>
+      <c r="B223" s="1" t="n"/>
+      <c r="C223" s="1" t="n"/>
+      <c r="D223" s="1" t="n"/>
+      <c r="E223" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_132.png</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n"/>
+      <c r="B224" s="1" t="n"/>
+      <c r="C224" s="1" t="n"/>
+      <c r="D224" s="1" t="n"/>
+      <c r="E224" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_133.png</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>1</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n"/>
+      <c r="B225" s="1" t="n"/>
+      <c r="C225" s="1" t="n"/>
+      <c r="D225" s="1" t="n"/>
+      <c r="E225" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_134.png</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n"/>
+      <c r="B226" s="1" t="n"/>
+      <c r="C226" s="1" t="n"/>
+      <c r="D226" s="1" t="n"/>
+      <c r="E226" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_135.png</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1</v>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n"/>
+      <c r="B227" s="1" t="n"/>
+      <c r="C227" s="1" t="n"/>
+      <c r="D227" s="1" t="n"/>
+      <c r="E227" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_136.png</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1</v>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n"/>
+      <c r="B228" s="1" t="n"/>
+      <c r="C228" s="1" t="n"/>
+      <c r="D228" s="1" t="n"/>
+      <c r="E228" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_138.png</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n"/>
+      <c r="B229" s="1" t="n"/>
+      <c r="C229" s="1" t="n"/>
+      <c r="D229" s="1" t="n"/>
+      <c r="E229" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_139.png</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n"/>
+      <c r="B230" s="1" t="n"/>
+      <c r="C230" s="1" t="n"/>
+      <c r="D230" s="1" t="n"/>
+      <c r="E230" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_14.png</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n"/>
+      <c r="B231" s="1" t="n"/>
+      <c r="C231" s="1" t="n"/>
+      <c r="D231" s="1" t="n"/>
+      <c r="E231" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_15.png</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n"/>
+      <c r="B232" s="1" t="n"/>
+      <c r="C232" s="1" t="n"/>
+      <c r="D232" s="1" t="n"/>
+      <c r="E232" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_16.png</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n"/>
+      <c r="B233" s="1" t="n"/>
+      <c r="C233" s="1" t="n"/>
+      <c r="D233" s="1" t="n"/>
+      <c r="E233" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_18.png</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>1</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n"/>
+      <c r="B234" s="1" t="n"/>
+      <c r="C234" s="1" t="n"/>
+      <c r="D234" s="1" t="n"/>
+      <c r="E234" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_19.png</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n"/>
+      <c r="B235" s="1" t="n"/>
+      <c r="C235" s="1" t="n"/>
+      <c r="D235" s="1" t="n"/>
+      <c r="E235" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_2.png</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n"/>
+      <c r="B236" s="1" t="n"/>
+      <c r="C236" s="1" t="n"/>
+      <c r="D236" s="1" t="n"/>
+      <c r="E236" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_20.png</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>1</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n"/>
+      <c r="B237" s="1" t="n"/>
+      <c r="C237" s="1" t="n"/>
+      <c r="D237" s="1" t="n"/>
+      <c r="E237" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_21.png</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>1</v>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n"/>
+      <c r="B238" s="1" t="n"/>
+      <c r="C238" s="1" t="n"/>
+      <c r="D238" s="1" t="n"/>
+      <c r="E238" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_22.png</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H238" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n"/>
+      <c r="B239" s="1" t="n"/>
+      <c r="C239" s="1" t="n"/>
+      <c r="D239" s="1" t="n"/>
+      <c r="E239" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_23.png</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n"/>
+      <c r="B240" s="1" t="n"/>
+      <c r="C240" s="1" t="n"/>
+      <c r="D240" s="1" t="n"/>
+      <c r="E240" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_24.png</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n"/>
+      <c r="B241" s="1" t="n"/>
+      <c r="C241" s="1" t="n"/>
+      <c r="D241" s="1" t="n"/>
+      <c r="E241" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_26.png</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n"/>
+      <c r="B242" s="1" t="n"/>
+      <c r="C242" s="1" t="n"/>
+      <c r="D242" s="1" t="n"/>
+      <c r="E242" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_27.png</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n"/>
+      <c r="B243" s="1" t="n"/>
+      <c r="C243" s="1" t="n"/>
+      <c r="D243" s="1" t="n"/>
+      <c r="E243" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_28.png</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n"/>
+      <c r="B244" s="1" t="n"/>
+      <c r="C244" s="1" t="n"/>
+      <c r="D244" s="1" t="n"/>
+      <c r="E244" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_29.png</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n"/>
+      <c r="B245" s="1" t="n"/>
+      <c r="C245" s="1" t="n"/>
+      <c r="D245" s="1" t="n"/>
+      <c r="E245" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_3.png</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n"/>
+      <c r="B246" s="1" t="n"/>
+      <c r="C246" s="1" t="n"/>
+      <c r="D246" s="1" t="n"/>
+      <c r="E246" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_30.png</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H246" t="n">
+        <v>1</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n"/>
+      <c r="B247" s="1" t="n"/>
+      <c r="C247" s="1" t="n"/>
+      <c r="D247" s="1" t="n"/>
+      <c r="E247" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_32.png</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="n">
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n"/>
+      <c r="B248" s="1" t="n"/>
+      <c r="C248" s="1" t="n"/>
+      <c r="D248" s="1" t="n"/>
+      <c r="E248" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_33.png</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n"/>
+      <c r="B249" s="1" t="n"/>
+      <c r="C249" s="1" t="n"/>
+      <c r="D249" s="1" t="n"/>
+      <c r="E249" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_34.png</t>
+        </is>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n"/>
+      <c r="B250" s="1" t="n"/>
+      <c r="C250" s="1" t="n"/>
+      <c r="D250" s="1" t="n"/>
+      <c r="E250" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_35.png</t>
+        </is>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H250" t="n">
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n"/>
+      <c r="B251" s="1" t="n"/>
+      <c r="C251" s="1" t="n"/>
+      <c r="D251" s="1" t="n"/>
+      <c r="E251" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_36.png</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H251" t="n">
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n"/>
+      <c r="B252" s="1" t="n"/>
+      <c r="C252" s="1" t="n"/>
+      <c r="D252" s="1" t="n"/>
+      <c r="E252" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_38.png</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n"/>
+      <c r="B253" s="1" t="n"/>
+      <c r="C253" s="1" t="n"/>
+      <c r="D253" s="1" t="n"/>
+      <c r="E253" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_39.png</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n"/>
+      <c r="B254" s="1" t="n"/>
+      <c r="C254" s="1" t="n"/>
+      <c r="D254" s="1" t="n"/>
+      <c r="E254" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_4.png</t>
+        </is>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n"/>
+      <c r="B255" s="1" t="n"/>
+      <c r="C255" s="1" t="n"/>
+      <c r="D255" s="1" t="n"/>
+      <c r="E255" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_40.png</t>
+        </is>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n"/>
+      <c r="B256" s="1" t="n"/>
+      <c r="C256" s="1" t="n"/>
+      <c r="D256" s="1" t="n"/>
+      <c r="E256" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_41.png</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n"/>
+      <c r="B257" s="1" t="n"/>
+      <c r="C257" s="1" t="n"/>
+      <c r="D257" s="1" t="n"/>
+      <c r="E257" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_42.png</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n"/>
+      <c r="B258" s="1" t="n"/>
+      <c r="C258" s="1" t="n"/>
+      <c r="D258" s="1" t="n"/>
+      <c r="E258" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_43.png</t>
+        </is>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n"/>
+      <c r="B259" s="1" t="n"/>
+      <c r="C259" s="1" t="n"/>
+      <c r="D259" s="1" t="n"/>
+      <c r="E259" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_44.png</t>
+        </is>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n"/>
+      <c r="B260" s="1" t="n"/>
+      <c r="C260" s="1" t="n"/>
+      <c r="D260" s="1" t="n"/>
+      <c r="E260" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_46.png</t>
+        </is>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n"/>
+      <c r="B261" s="1" t="n"/>
+      <c r="C261" s="1" t="n"/>
+      <c r="D261" s="1" t="n"/>
+      <c r="E261" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_47.png</t>
+        </is>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1</v>
+      </c>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n"/>
+      <c r="B262" s="1" t="n"/>
+      <c r="C262" s="1" t="n"/>
+      <c r="D262" s="1" t="n"/>
+      <c r="E262" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_48.png</t>
+        </is>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n"/>
+      <c r="B263" s="1" t="n"/>
+      <c r="C263" s="1" t="n"/>
+      <c r="D263" s="1" t="n"/>
+      <c r="E263" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_49.png</t>
+        </is>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n"/>
+      <c r="B264" s="1" t="n"/>
+      <c r="C264" s="1" t="n"/>
+      <c r="D264" s="1" t="n"/>
+      <c r="E264" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_50.png</t>
+        </is>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n"/>
+      <c r="B265" s="1" t="n"/>
+      <c r="C265" s="1" t="n"/>
+      <c r="D265" s="1" t="n"/>
+      <c r="E265" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_52.png</t>
+        </is>
+      </c>
+      <c r="F265" t="n">
+        <v>1</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n"/>
+      <c r="B266" s="1" t="n"/>
+      <c r="C266" s="1" t="n"/>
+      <c r="D266" s="1" t="n"/>
+      <c r="E266" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_53.png</t>
+        </is>
+      </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n"/>
+      <c r="B267" s="1" t="n"/>
+      <c r="C267" s="1" t="n"/>
+      <c r="D267" s="1" t="n"/>
+      <c r="E267" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_54.png</t>
+        </is>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n"/>
+      <c r="B268" s="1" t="n"/>
+      <c r="C268" s="1" t="n"/>
+      <c r="D268" s="1" t="n"/>
+      <c r="E268" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_55.png</t>
+        </is>
+      </c>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n"/>
+      <c r="B269" s="1" t="n"/>
+      <c r="C269" s="1" t="n"/>
+      <c r="D269" s="1" t="n"/>
+      <c r="E269" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_56.png</t>
+        </is>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n"/>
+      <c r="B270" s="1" t="n"/>
+      <c r="C270" s="1" t="n"/>
+      <c r="D270" s="1" t="n"/>
+      <c r="E270" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_58.png</t>
+        </is>
+      </c>
+      <c r="F270" t="n">
+        <v>1</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1</v>
+      </c>
+      <c r="H270" t="n">
+        <v>1</v>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n"/>
+      <c r="B271" s="1" t="n"/>
+      <c r="C271" s="1" t="n"/>
+      <c r="D271" s="1" t="n"/>
+      <c r="E271" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_59.png</t>
+        </is>
+      </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+      <c r="H271" t="n">
+        <v>1</v>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n"/>
+      <c r="B272" s="1" t="n"/>
+      <c r="C272" s="1" t="n"/>
+      <c r="D272" s="1" t="n"/>
+      <c r="E272" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_6.png</t>
+        </is>
+      </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="n">
+        <v>1</v>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n"/>
+      <c r="B273" s="1" t="n"/>
+      <c r="C273" s="1" t="n"/>
+      <c r="D273" s="1" t="n"/>
+      <c r="E273" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_60.png</t>
+        </is>
+      </c>
+      <c r="F273" t="n">
+        <v>1</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1</v>
+      </c>
+      <c r="H273" t="n">
+        <v>1</v>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n"/>
+      <c r="B274" s="1" t="n"/>
+      <c r="C274" s="1" t="n"/>
+      <c r="D274" s="1" t="n"/>
+      <c r="E274" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_61.png</t>
+        </is>
+      </c>
+      <c r="F274" t="n">
+        <v>1</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n"/>
+      <c r="B275" s="1" t="n"/>
+      <c r="C275" s="1" t="n"/>
+      <c r="D275" s="1" t="n"/>
+      <c r="E275" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_62.png</t>
+        </is>
+      </c>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1</v>
+      </c>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n"/>
+      <c r="B276" s="1" t="n"/>
+      <c r="C276" s="1" t="n"/>
+      <c r="D276" s="1" t="n"/>
+      <c r="E276" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_63.png</t>
+        </is>
+      </c>
+      <c r="F276" t="n">
+        <v>1</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1</v>
+      </c>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n"/>
+      <c r="B277" s="1" t="n"/>
+      <c r="C277" s="1" t="n"/>
+      <c r="D277" s="1" t="n"/>
+      <c r="E277" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_64.png</t>
+        </is>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1</v>
+      </c>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n"/>
+      <c r="B278" s="1" t="n"/>
+      <c r="C278" s="1" t="n"/>
+      <c r="D278" s="1" t="n"/>
+      <c r="E278" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_66.png</t>
+        </is>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1</v>
+      </c>
+      <c r="H278" t="n">
+        <v>1</v>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n"/>
+      <c r="B279" s="1" t="n"/>
+      <c r="C279" s="1" t="n"/>
+      <c r="D279" s="1" t="n"/>
+      <c r="E279" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_67.png</t>
+        </is>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1</v>
+      </c>
+      <c r="H279" t="n">
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n"/>
+      <c r="B280" s="1" t="n"/>
+      <c r="C280" s="1" t="n"/>
+      <c r="D280" s="1" t="n"/>
+      <c r="E280" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_68.png</t>
+        </is>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1</v>
+      </c>
+      <c r="H280" t="n">
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n"/>
+      <c r="B281" s="1" t="n"/>
+      <c r="C281" s="1" t="n"/>
+      <c r="D281" s="1" t="n"/>
+      <c r="E281" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_69.png</t>
+        </is>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n"/>
+      <c r="B282" s="1" t="n"/>
+      <c r="C282" s="1" t="n"/>
+      <c r="D282" s="1" t="n"/>
+      <c r="E282" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_7.png</t>
+        </is>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n"/>
+      <c r="B283" s="1" t="n"/>
+      <c r="C283" s="1" t="n"/>
+      <c r="D283" s="1" t="n"/>
+      <c r="E283" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_70.png</t>
+        </is>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n"/>
+      <c r="B284" s="1" t="n"/>
+      <c r="C284" s="1" t="n"/>
+      <c r="D284" s="1" t="n"/>
+      <c r="E284" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_72.png</t>
+        </is>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n"/>
+      <c r="B285" s="1" t="n"/>
+      <c r="C285" s="1" t="n"/>
+      <c r="D285" s="1" t="n"/>
+      <c r="E285" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_73.png</t>
+        </is>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n"/>
+      <c r="B286" s="1" t="n"/>
+      <c r="C286" s="1" t="n"/>
+      <c r="D286" s="1" t="n"/>
+      <c r="E286" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_74.png</t>
+        </is>
+      </c>
+      <c r="F286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n"/>
+      <c r="B287" s="1" t="n"/>
+      <c r="C287" s="1" t="n"/>
+      <c r="D287" s="1" t="n"/>
+      <c r="E287" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_75.png</t>
+        </is>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n"/>
+      <c r="B288" s="1" t="n"/>
+      <c r="C288" s="1" t="n"/>
+      <c r="D288" s="1" t="n"/>
+      <c r="E288" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_76.png</t>
+        </is>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n"/>
+      <c r="B289" s="1" t="n"/>
+      <c r="C289" s="1" t="n"/>
+      <c r="D289" s="1" t="n"/>
+      <c r="E289" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_78.png</t>
+        </is>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n"/>
+      <c r="B290" s="1" t="n"/>
+      <c r="C290" s="1" t="n"/>
+      <c r="D290" s="1" t="n"/>
+      <c r="E290" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_79.png</t>
+        </is>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n"/>
+      <c r="B291" s="1" t="n"/>
+      <c r="C291" s="1" t="n"/>
+      <c r="D291" s="1" t="n"/>
+      <c r="E291" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_8.png</t>
+        </is>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>1</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n"/>
+      <c r="B292" s="1" t="n"/>
+      <c r="C292" s="1" t="n"/>
+      <c r="D292" s="1" t="n"/>
+      <c r="E292" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_80.png</t>
+        </is>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>1</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n"/>
+      <c r="B293" s="1" t="n"/>
+      <c r="C293" s="1" t="n"/>
+      <c r="D293" s="1" t="n"/>
+      <c r="E293" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_81.png</t>
+        </is>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n"/>
+      <c r="B294" s="1" t="n"/>
+      <c r="C294" s="1" t="n"/>
+      <c r="D294" s="1" t="n"/>
+      <c r="E294" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_82.png</t>
+        </is>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n"/>
+      <c r="B295" s="1" t="n"/>
+      <c r="C295" s="1" t="n"/>
+      <c r="D295" s="1" t="n"/>
+      <c r="E295" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_83.png</t>
+        </is>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n"/>
+      <c r="B296" s="1" t="n"/>
+      <c r="C296" s="1" t="n"/>
+      <c r="D296" s="1" t="n"/>
+      <c r="E296" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_84.png</t>
+        </is>
+      </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n"/>
+      <c r="B297" s="1" t="n"/>
+      <c r="C297" s="1" t="n"/>
+      <c r="D297" s="1" t="n"/>
+      <c r="E297" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_86.png</t>
+        </is>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1</v>
+      </c>
+      <c r="H297" t="n">
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n"/>
+      <c r="B298" s="1" t="n"/>
+      <c r="C298" s="1" t="n"/>
+      <c r="D298" s="1" t="n"/>
+      <c r="E298" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_87.png</t>
+        </is>
+      </c>
+      <c r="F298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1</v>
+      </c>
+      <c r="H298" t="n">
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n"/>
+      <c r="B299" s="1" t="n"/>
+      <c r="C299" s="1" t="n"/>
+      <c r="D299" s="1" t="n"/>
+      <c r="E299" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_88.png</t>
+        </is>
+      </c>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1</v>
+      </c>
+      <c r="H299" t="n">
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n"/>
+      <c r="B300" s="1" t="n"/>
+      <c r="C300" s="1" t="n"/>
+      <c r="D300" s="1" t="n"/>
+      <c r="E300" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_89.png</t>
+        </is>
+      </c>
+      <c r="F300" t="n">
+        <v>1</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n"/>
+      <c r="B301" s="1" t="n"/>
+      <c r="C301" s="1" t="n"/>
+      <c r="D301" s="1" t="n"/>
+      <c r="E301" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_9.png</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n"/>
+      <c r="B302" s="1" t="n"/>
+      <c r="C302" s="1" t="n"/>
+      <c r="D302" s="1" t="n"/>
+      <c r="E302" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_90.png</t>
+        </is>
+      </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1</v>
+      </c>
+      <c r="H302" t="n">
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n"/>
+      <c r="B303" s="1" t="n"/>
+      <c r="C303" s="1" t="n"/>
+      <c r="D303" s="1" t="n"/>
+      <c r="E303" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_92.png</t>
+        </is>
+      </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1</v>
+      </c>
+      <c r="H303" t="n">
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n"/>
+      <c r="B304" s="1" t="n"/>
+      <c r="C304" s="1" t="n"/>
+      <c r="D304" s="1" t="n"/>
+      <c r="E304" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_93.png</t>
+        </is>
+      </c>
+      <c r="F304" t="n">
+        <v>1</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H304" t="n">
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n"/>
+      <c r="B305" s="1" t="n"/>
+      <c r="C305" s="1" t="n"/>
+      <c r="D305" s="1" t="n"/>
+      <c r="E305" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_94.png</t>
+        </is>
+      </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1</v>
+      </c>
+      <c r="H305" t="n">
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n"/>
+      <c r="B306" s="1" t="n"/>
+      <c r="C306" s="1" t="n"/>
+      <c r="D306" s="1" t="n"/>
+      <c r="E306" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_95.png</t>
+        </is>
+      </c>
+      <c r="F306" t="n">
+        <v>1</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H306" t="n">
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n"/>
+      <c r="B307" s="1" t="n"/>
+      <c r="C307" s="1" t="n"/>
+      <c r="D307" s="1" t="n"/>
+      <c r="E307" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_96.png</t>
+        </is>
+      </c>
+      <c r="F307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1</v>
+      </c>
+      <c r="H307" t="n">
+        <v>1</v>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n"/>
+      <c r="B308" s="1" t="n"/>
+      <c r="C308" s="1" t="n"/>
+      <c r="D308" s="1" t="n"/>
+      <c r="E308" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_98.png</t>
+        </is>
+      </c>
+      <c r="F308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="n">
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n"/>
+      <c r="B309" s="1" t="n"/>
+      <c r="C309" s="1" t="n"/>
+      <c r="D309" s="1" t="n"/>
+      <c r="E309" s="1" t="inlineStr">
+        <is>
+          <t>15_1-2m-WB-rel_99.png</t>
+        </is>
+      </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="n">
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>2 Meters</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A101:A112"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D134:D135"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A113:A120"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A44:A69"/>
-    <mergeCell ref="A70:A78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A130:A139"/>
-    <mergeCell ref="A93:A100"/>
-    <mergeCell ref="A83:A92"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C57:C69"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="D45:D51"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="D61:D69"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B45:B69"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D108:D110"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D124:D125"/>
+  <mergeCells count="8">
+    <mergeCell ref="D2:D18"/>
+    <mergeCell ref="A2:A309"/>
+    <mergeCell ref="D191:D309"/>
+    <mergeCell ref="D121:D190"/>
+    <mergeCell ref="C2:C18"/>
+    <mergeCell ref="D19:D120"/>
+    <mergeCell ref="B2:B309"/>
+    <mergeCell ref="C19:C309"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/records/xlsx/thermal.xlsx
+++ b/records/xlsx/thermal.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -519,26 +519,26 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+          <t>1_H_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>127</v>
+        <v>6450</v>
       </c>
       <c r="G2" t="n">
-        <v>12.7</v>
+        <v>215</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -549,71 +549,95 @@
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+          <t>1_H_WOB_2m_2.avi</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>2464</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>82.13333333333334</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-      <c r="D4" s="1" t="n"/>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+          <t>1_R_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>1867</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-      <c r="D5" s="1" t="n"/>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+          <t>10_holdingbreath_blanket_2me-12222022145955.avi</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>1813</v>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>181.3</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -621,49 +645,61 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="n"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+          <t>10_H_WOB_2m.avi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>25</v>
+        <v>1988</v>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>198.8</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-      <c r="D7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+          <t>10_relaxed_blanket_2me-12222022145805.avi</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>1855</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>185.5</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -671,53 +707,65 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+          <t>10_relaxed_withoutblanket_2me-12222022145402.avi</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>2103</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>210.3</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+          <t>10_holdingbreathing_blanket_3me-12222022144836.avi</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>2006</v>
       </c>
       <c r="G9" t="n">
-        <v>11.4</v>
+        <v>200.6</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -725,49 +773,61 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
-      <c r="D10" s="1" t="n"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+          <t>10_holdbreath_withoutblanket_3me-12222022144453.avi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>1869</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>186.9</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="n"/>
-      <c r="D11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+          <t>10_relaxed_blanket_3me-12222022144649.avi</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>1821</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>182.1</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -775,107 +835,131 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
-      <c r="D12" s="1" t="n"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090012.avi</t>
+          <t>10_relaxed_withoutblanket_3me-12222022144300.avi</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>64</v>
+        <v>1938</v>
       </c>
       <c r="G12" t="n">
-        <v>6.4</v>
+        <v>193.8</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
-      <c r="D13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>15_test_wob_2meters-12232022090456.avi</t>
+          <t>11_holdingbreath_blanket_2me-12222022150959.avi</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>176</v>
+        <v>1822</v>
       </c>
       <c r="G13" t="n">
-        <v>17.6</v>
+        <v>182.2</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>WOB</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+          <t>11_holdbreathing_wob_2me-12222022150554.avi</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>27</v>
+        <v>2009</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>200.9</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
-      <c r="D15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+          <t>11_relaxed_blanket_2me-12222022150811.avi</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>66</v>
+        <v>1768</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6</v>
+        <v>176.8</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -883,24 +967,28 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="n"/>
-      <c r="D16" s="1" t="n"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+          <t>11_relaxed_wob_2me-12222022150232.avi</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>543</v>
+        <v>1759</v>
       </c>
       <c r="G16" t="n">
-        <v>54.3</v>
+        <v>175.9</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -911,50 +999,58 @@
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+          <t>11_relaxed_wob_2me-12222022150410.avi</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>633</v>
+        <v>1821</v>
       </c>
       <c r="G17" t="n">
-        <v>63.3</v>
+        <v>182.1</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>WOB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+          <t>11_holdbreathing_blanket_3me-12222022153145.avi</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>995</v>
+        <v>1981</v>
       </c>
       <c r="G18" t="n">
-        <v>99.5</v>
+        <v>198.1</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -962,24 +1058,28 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="1" t="n"/>
-      <c r="D19" s="1" t="n"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+          <t>11_holdbreathing_withoutblanket2_3me-12222022152746.avi</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>740</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>74</v>
       </c>
       <c r="H19" t="n">
         <v>10</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -990,46 +1090,54 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+          <t>11_holdbreathing_withoutblanket_3me-12222022152654.avi</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>1129</v>
       </c>
       <c r="G20" t="n">
-        <v>10.5</v>
+        <v>112.9</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+          <t>11_relaxedd_blanket_3me-12222022152948.avi</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>56</v>
+        <v>2130</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>213</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -1037,49 +1145,69 @@
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+          <t>11_relaxed_withoutblanket_3me-12222022152505.avi</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>206</v>
+        <v>1932</v>
       </c>
       <c r="G22" t="n">
-        <v>20.6</v>
+        <v>193.2</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+          <t>12_holdingbreath_blanket_2me-12222022151756.avi</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>391</v>
+        <v>1925</v>
       </c>
       <c r="G23" t="n">
-        <v>78.2</v>
+        <v>192.5</v>
       </c>
       <c r="H23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1087,49 +1215,61 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+          <t>12_holdbreathing_withoutblanket_2me-12222022151409.avi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>1951</v>
       </c>
       <c r="G24" t="n">
-        <v>5.6</v>
+        <v>195.1</v>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+          <t>12_relaxed_blanket_2me-12222022151611.avi</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>77</v>
+        <v>1957</v>
       </c>
       <c r="G25" t="n">
-        <v>15.4</v>
+        <v>195.7</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1137,37 +1277,3604 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
-      <c r="D26" s="1" t="n"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
+          <t>12_relaxed_withoutblanket_2me-12222022151224.avi</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1889</v>
+      </c>
+      <c r="G26" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>12_holdingbreath_blanket_3me-12222022153923.avi</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2059</v>
+      </c>
+      <c r="G27" t="n">
+        <v>205.9</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>12_holdbreathing_wob_3me-12222022153552.avi</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1910</v>
+      </c>
+      <c r="G28" t="n">
+        <v>191</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>12_relaxed_blanket_3me-12222022153739.avi</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2031</v>
+      </c>
+      <c r="G29" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>12_relaxed_wob_3me-12222022153404.avi</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1907</v>
+      </c>
+      <c r="G30" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreathing_blanket_2me-12222022160101.avi</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1985</v>
+      </c>
+      <c r="G31" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>13_holdingbreath_withoutblanket_2me-12222022155708.avi</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2589</v>
+      </c>
+      <c r="G32" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_blanket_2me-12222022155919.avi</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G33" t="n">
+        <v>201.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_withoutblanket_2me-12222022155522.avi</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2112</v>
+      </c>
+      <c r="G34" t="n">
+        <v>211.2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreath_blanket_3me-12222022155045.avi</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2075</v>
+      </c>
+      <c r="G35" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>13_holdbreathing_wob_3me-12222022154705.avi</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>2077</v>
+      </c>
+      <c r="G36" t="n">
+        <v>207.7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_blanket_3me-12222022154853.avi</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>2025</v>
+      </c>
+      <c r="G37" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>13_relaxed_wob_3me-12222022154509.avi</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2075</v>
+      </c>
+      <c r="G38" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing_blanked_2me-12222022162951.avi</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1930</v>
+      </c>
+      <c r="G39" t="n">
+        <v>193</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing2_wob_2me-12222022162548.avi</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>205</v>
+      </c>
+      <c r="G40" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n"/>
+      <c r="C41" s="1" t="n"/>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>14_holdbreathing_wob_2me-12222022162453.avi</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1296</v>
+      </c>
+      <c r="G41" t="n">
+        <v>129.6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="n"/>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>14_relaxed_blanked_2me-12222022162724.avi</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2255</v>
+      </c>
+      <c r="G42" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="n"/>
+      <c r="C43" s="1" t="n"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>14_relaxed_wob_2me-12222022162257.avi</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2310</v>
+      </c>
+      <c r="G43" t="n">
+        <v>231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>15_2</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>15_2nd_2meters</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>15_2nd_hold_blanket_2meters</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>output_video.mp4</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>2114</v>
+      </c>
+      <c r="G44" t="n">
+        <v>70.46666666666667</v>
+      </c>
+      <c r="H44" t="n">
+        <v>30</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092537.avi</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>127</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="1" t="n"/>
+      <c r="C46" s="1" t="n"/>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092548.avi</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>160</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n"/>
+      <c r="C47" s="1" t="n"/>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092600.avi</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="1" t="n"/>
+      <c r="C48" s="1" t="n"/>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092720-0000.avi</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>29</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="1" t="n"/>
+      <c r="C49" s="1" t="n"/>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092843-0000.avi</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>25</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="n"/>
+      <c r="C50" s="1" t="n"/>
+      <c r="D50" s="1" t="n"/>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092857-0000.avi</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="n"/>
+      <c r="C51" s="1" t="n"/>
+      <c r="D51" s="1" t="n"/>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>15_holdingbreath_blanket_2me-12232022092924-0000.avi</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>32</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n"/>
+      <c r="C52" s="1" t="n"/>
+      <c r="D52" s="1" t="n"/>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>output_video.mp4</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2114</v>
+      </c>
+      <c r="G52" t="n">
+        <v>70.46666666666667</v>
+      </c>
+      <c r="H52" t="n">
+        <v>30</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090750.avi</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>114</v>
+      </c>
+      <c r="G53" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n"/>
+      <c r="C54" s="1" t="n"/>
+      <c r="D54" s="1" t="n"/>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090832.avi</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="1" t="n"/>
+      <c r="C55" s="1" t="n"/>
+      <c r="D55" s="1" t="n"/>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>15_holdbreath_wob_2meters-12232022090914.avi</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="1" t="n"/>
+      <c r="C56" s="1" t="n"/>
+      <c r="D56" s="1" t="n"/>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>15_test_wob_2meters-12232022090012.avi</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>64</v>
+      </c>
+      <c r="G56" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="1" t="n"/>
+      <c r="C57" s="1" t="n"/>
+      <c r="D57" s="1" t="n"/>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>15_test_wob_2meters-12232022090456.avi</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>176</v>
+      </c>
+      <c r="G57" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="1" t="n"/>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022091943.avi</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>27</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="1" t="n"/>
+      <c r="C59" s="1" t="n"/>
+      <c r="D59" s="1" t="n"/>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092035.avi</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>66</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n"/>
+      <c r="B60" s="1" t="n"/>
+      <c r="C60" s="1" t="n"/>
+      <c r="D60" s="1" t="n"/>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092305.avi</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>543</v>
+      </c>
+      <c r="G60" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n"/>
+      <c r="B61" s="1" t="n"/>
+      <c r="C61" s="1" t="n"/>
+      <c r="D61" s="1" t="n"/>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_blanket_2me-12232022092332.avi</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>633</v>
+      </c>
+      <c r="G61" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n"/>
+      <c r="B62" s="1" t="n"/>
+      <c r="C62" s="1" t="n"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085117.avi</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>995</v>
+      </c>
+      <c r="G62" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n"/>
+      <c r="B63" s="1" t="n"/>
+      <c r="C63" s="1" t="n"/>
+      <c r="D63" s="1" t="n"/>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085205.avi</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n"/>
+      <c r="B64" s="1" t="n"/>
+      <c r="C64" s="1" t="n"/>
+      <c r="D64" s="1" t="n"/>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085212.avi</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>105</v>
+      </c>
+      <c r="G64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n"/>
+      <c r="B65" s="1" t="n"/>
+      <c r="C65" s="1" t="n"/>
+      <c r="D65" s="1" t="n"/>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085224.avi</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>56</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n"/>
+      <c r="B66" s="1" t="n"/>
+      <c r="C66" s="1" t="n"/>
+      <c r="D66" s="1" t="n"/>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085242.avi</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>206</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n"/>
+      <c r="B67" s="1" t="n"/>
+      <c r="C67" s="1" t="n"/>
+      <c r="D67" s="1" t="n"/>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085306.avi</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>391</v>
+      </c>
+      <c r="G67" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n"/>
+      <c r="B68" s="1" t="n"/>
+      <c r="C68" s="1" t="n"/>
+      <c r="D68" s="1" t="n"/>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085332.avi</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>28</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n"/>
+      <c r="B69" s="1" t="n"/>
+      <c r="C69" s="1" t="n"/>
+      <c r="D69" s="1" t="n"/>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>15_relaxed_wob_2meters-12232022085344.avi</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>77</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n"/>
+      <c r="B70" s="1" t="n"/>
+      <c r="C70" s="1" t="n"/>
+      <c r="D70" s="1" t="n"/>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
           <t>15_relaxed_wob_2meters-12232022085400.avi</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F70" t="n">
         <v>92</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G70" t="n">
         <v>18.4</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H70" t="n">
         <v>5</v>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>2_H_B_2m-12222022100256.avi</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>4567</v>
+      </c>
+      <c r="G71" t="n">
+        <v>152.2333333333333</v>
+      </c>
+      <c r="H71" t="n">
+        <v>30</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n"/>
+      <c r="B72" s="1" t="n"/>
+      <c r="C72" s="1" t="n"/>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>2_H_WOB_2m-12222022095411.avi</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>4466</v>
+      </c>
+      <c r="G72" t="n">
+        <v>148.8666666666667</v>
+      </c>
+      <c r="H72" t="n">
+        <v>30</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n"/>
+      <c r="B73" s="1" t="n"/>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>2_R_B_2m-12222022095917.avi</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>4691</v>
+      </c>
+      <c r="G73" t="n">
+        <v>156.3666666666667</v>
+      </c>
+      <c r="H73" t="n">
+        <v>30</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n"/>
+      <c r="C74" s="1" t="n"/>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_2m-12222022095034.avi</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>4344</v>
+      </c>
+      <c r="G74" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="H74" t="n">
+        <v>30</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>2_H_B_3m-12222022102602.avi</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G75" t="n">
+        <v>133.0666666666667</v>
+      </c>
+      <c r="H75" t="n">
+        <v>30</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n"/>
+      <c r="B76" s="1" t="n"/>
+      <c r="C76" s="1" t="n"/>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>2_H_WOB_3m-12222022101944.avi</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>3952</v>
+      </c>
+      <c r="G76" t="n">
+        <v>131.7333333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>30</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n"/>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>2_R_B_3m-12222022102314.avi</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>3834</v>
+      </c>
+      <c r="G77" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="H77" t="n">
+        <v>30</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n"/>
+      <c r="B78" s="1" t="n"/>
+      <c r="C78" s="1" t="n"/>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_3m-12222022101525.avi</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>656</v>
+      </c>
+      <c r="G78" t="n">
+        <v>21.86666666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>30</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n"/>
+      <c r="B79" s="1" t="n"/>
+      <c r="C79" s="1" t="n"/>
+      <c r="D79" s="1" t="n"/>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>2_R_WOB_3m-12222022101644.avi</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>3880</v>
+      </c>
+      <c r="G79" t="n">
+        <v>129.3333333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>30</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>3_HB_B_3m-12222022103839.avi</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>3295</v>
+      </c>
+      <c r="G80" t="n">
+        <v>109.8333333333333</v>
+      </c>
+      <c r="H80" t="n">
+        <v>30</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n"/>
+      <c r="B81" s="1" t="n"/>
+      <c r="C81" s="1" t="n"/>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>3_HB_WOB_3METERS-12222022104233.avi</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3921</v>
+      </c>
+      <c r="G81" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="H81" t="n">
+        <v>30</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n"/>
+      <c r="B82" s="1" t="n"/>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>3_R_B_3METERS-12222022103546.avi</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>4064</v>
+      </c>
+      <c r="G82" t="n">
+        <v>135.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
+        <v>30</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n"/>
+      <c r="B83" s="1" t="n"/>
+      <c r="C83" s="1" t="n"/>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>3_R_WOB_3m-12222022103229.avi</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>3949</v>
+      </c>
+      <c r="G83" t="n">
+        <v>131.6333333333333</v>
+      </c>
+      <c r="H83" t="n">
+        <v>30</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>4_b_holdbreath_2METERS-12222022113635.avi</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>30</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n"/>
+      <c r="C85" s="1" t="n"/>
+      <c r="D85" s="1" t="n"/>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>4_b_holdbreath_2METERS-12222022113645.avi</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>4756</v>
+      </c>
+      <c r="G85" t="n">
+        <v>158.5333333333333</v>
+      </c>
+      <c r="H85" t="n">
+        <v>30</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n"/>
+      <c r="B86" s="1" t="n"/>
+      <c r="C86" s="1" t="n"/>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>4_wob_HoldBreath_2METERS-12222022112005-12222022112746.avi</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>2626</v>
+      </c>
+      <c r="G86" t="n">
+        <v>87.53333333333333</v>
+      </c>
+      <c r="H86" t="n">
+        <v>30</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n"/>
+      <c r="B87" s="1" t="n"/>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>4_b_relaxed_2METERS-12222022113126.avi</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>3821</v>
+      </c>
+      <c r="G87" t="n">
+        <v>127.3666666666667</v>
+      </c>
+      <c r="H87" t="n">
+        <v>30</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n"/>
+      <c r="B88" s="1" t="n"/>
+      <c r="C88" s="1" t="n"/>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>4_wob_relaxed_2METERS-12222022112005-12222022112340.avi</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>4594</v>
+      </c>
+      <c r="G88" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H88" t="n">
+        <v>30</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>4_holdbreth_blanket_3ME-12222022115812.avi</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>4683</v>
+      </c>
+      <c r="G89" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>30</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n"/>
+      <c r="B90" s="1" t="n"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>4_holdbreathing_wob_3ME-12222022115105.avi</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>3855</v>
+      </c>
+      <c r="G90" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="H90" t="n">
+        <v>30</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n"/>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_b_3ME-12222022115452.avi</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>3871</v>
+      </c>
+      <c r="G91" t="n">
+        <v>129.0333333333333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>30</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n"/>
+      <c r="B92" s="1" t="n"/>
+      <c r="C92" s="1" t="n"/>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_wob_3ME-12222022114801-0000.avi</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>124</v>
+      </c>
+      <c r="G92" t="n">
+        <v>4.133292</v>
+      </c>
+      <c r="H92" t="n">
+        <v>30.00030000300003</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n"/>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>4_relaxed_wob_3ME-12222022114811.avi</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>3497</v>
+      </c>
+      <c r="G93" t="n">
+        <v>116.5666666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>30</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbreath_blanked_2me-12222022134041.avi</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>3579</v>
+      </c>
+      <c r="G94" t="n">
+        <v>357.9</v>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n"/>
+      <c r="B95" s="1" t="n"/>
+      <c r="C95" s="1" t="n"/>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbreath_wob_2me-12222022133505.avi</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>3471</v>
+      </c>
+      <c r="G95" t="n">
+        <v>347.1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n"/>
+      <c r="B96" s="1" t="n"/>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_blamked_2me-12222022133744.avi</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>4450</v>
+      </c>
+      <c r="G96" t="n">
+        <v>445</v>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n"/>
+      <c r="B97" s="1" t="n"/>
+      <c r="C97" s="1" t="n"/>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_wob_2me-12222022133228.avi</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>3554</v>
+      </c>
+      <c r="G97" t="n">
+        <v>355.4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n"/>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>5_holdbrething_blanket_3ME-12222022121630.avi</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>4079</v>
+      </c>
+      <c r="G98" t="n">
+        <v>135.9666666666667</v>
+      </c>
+      <c r="H98" t="n">
+        <v>30</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n"/>
+      <c r="B99" s="1" t="n"/>
+      <c r="C99" s="1" t="n"/>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>5_holding_wob_3ME-12222022120954.avi</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G99" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="H99" t="n">
+        <v>30</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n"/>
+      <c r="B100" s="1" t="n"/>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>5_relax_blanket_3ME-12222022121330.avi</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>4026</v>
+      </c>
+      <c r="G100" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="H100" t="n">
+        <v>30</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>5_relaxed_wob_3ME-12222022120703.avi</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>3556</v>
+      </c>
+      <c r="G101" t="n">
+        <v>118.5333333333333</v>
+      </c>
+      <c r="H101" t="n">
+        <v>30</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>6_holding_blanket_2me-12222022161854.avi</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>2186</v>
+      </c>
+      <c r="G102" t="n">
+        <v>218.6</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n"/>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>6_holdingbbreath_wob_2me-12222022161254.avi</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>2214</v>
+      </c>
+      <c r="G103" t="n">
+        <v>221.4</v>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n"/>
+      <c r="B104" s="1" t="n"/>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>6_relax_blanket_2me-12222022161616.avi</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>2566</v>
+      </c>
+      <c r="G104" t="n">
+        <v>256.6</v>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n"/>
+      <c r="B105" s="1" t="n"/>
+      <c r="C105" s="1" t="n"/>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_wob_2me-12222022161005.avi</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>2438</v>
+      </c>
+      <c r="G105" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanketvairable2_3ME_-12222022125229.avi</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>4844</v>
+      </c>
+      <c r="G106" t="n">
+        <v>484.4</v>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n"/>
+      <c r="B107" s="1" t="n"/>
+      <c r="C107" s="1" t="n"/>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanket_3ME-12222022124654.avi</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1452</v>
+      </c>
+      <c r="G107" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n"/>
+      <c r="B108" s="1" t="n"/>
+      <c r="C108" s="1" t="n"/>
+      <c r="D108" s="1" t="n"/>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>6_holdbreath_blanket_3ME_x2-12222022124816.avi</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>3246</v>
+      </c>
+      <c r="G108" t="n">
+        <v>324.6</v>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n"/>
+      <c r="B109" s="1" t="n"/>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath2_WOB_3ME-12222022123516.avi</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>2703</v>
+      </c>
+      <c r="G109" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>30</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n"/>
+      <c r="B110" s="1" t="n"/>
+      <c r="C110" s="1" t="n"/>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath_WOB_3ME-12222022122738.avi</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1538</v>
+      </c>
+      <c r="G110" t="n">
+        <v>51.26666666666667</v>
+      </c>
+      <c r="H110" t="n">
+        <v>30</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n"/>
+      <c r="B111" s="1" t="n"/>
+      <c r="C111" s="1" t="n"/>
+      <c r="D111" s="1" t="n"/>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>6_heldbreath_WOB_3ME-12222022122914.avi</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1423</v>
+      </c>
+      <c r="G111" t="n">
+        <v>47.43333333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n"/>
+      <c r="B112" s="1" t="n"/>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_blanket_3ME-12222022124350.avi</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>3910</v>
+      </c>
+      <c r="G112" t="n">
+        <v>391</v>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n"/>
+      <c r="B113" s="1" t="n"/>
+      <c r="C113" s="1" t="n"/>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>6_relaxed_WOB_3ME-12222022122444.avi</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>3710</v>
+      </c>
+      <c r="G113" t="n">
+        <v>123.6666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>30</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_blankets_2me-12222022132801.avi</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>3585</v>
+      </c>
+      <c r="G114" t="n">
+        <v>358.5</v>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n"/>
+      <c r="B115" s="1" t="n"/>
+      <c r="C115" s="1" t="n"/>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreath_wob_2me-12222022132145.avi</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>3453</v>
+      </c>
+      <c r="G115" t="n">
+        <v>345.3</v>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n"/>
+      <c r="B116" s="1" t="n"/>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>7_relaxed_blankets_2me-12222022132436.avi</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>5048</v>
+      </c>
+      <c r="G116" t="n">
+        <v>504.8</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n"/>
+      <c r="B117" s="1" t="n"/>
+      <c r="C117" s="1" t="n"/>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>7_relax_wob_2me-12222022131934.avi</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>2593</v>
+      </c>
+      <c r="G117" t="n">
+        <v>86.43333333333334</v>
+      </c>
+      <c r="H117" t="n">
+        <v>30</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n"/>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_blanket_3ME_-12222022131008.avi</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>3611</v>
+      </c>
+      <c r="G118" t="n">
+        <v>361.1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n"/>
+      <c r="B119" s="1" t="n"/>
+      <c r="C119" s="1" t="n"/>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>7_holdbreathing_WOB_3ME_-12222022130357.avi</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>3599</v>
+      </c>
+      <c r="G119" t="n">
+        <v>359.9</v>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n"/>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>7_relaxed_blanket_3ME_-12222022130717.avi</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>3946</v>
+      </c>
+      <c r="G120" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n"/>
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>7_relax_WOB_3ME_-12222022130055.avi</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>3438</v>
+      </c>
+      <c r="G121" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathing_blanket_2me-12222022135956.avi</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>3544</v>
+      </c>
+      <c r="G122" t="n">
+        <v>354.4</v>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n"/>
+      <c r="B123" s="1" t="n"/>
+      <c r="C123" s="1" t="n"/>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreath_withoutblanked_2me-12222022135120.avi</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>3551</v>
+      </c>
+      <c r="G123" t="n">
+        <v>355.1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n"/>
+      <c r="B124" s="1" t="n"/>
+      <c r="C124" s="1" t="n"/>
+      <c r="D124" s="1" t="n"/>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreath_withoutblanked_2me-12222022135413.avi</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>3741</v>
+      </c>
+      <c r="G124" t="n">
+        <v>374.1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n"/>
+      <c r="B125" s="1" t="n"/>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanked_2me-12222022134840.avi</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>3553</v>
+      </c>
+      <c r="G125" t="n">
+        <v>355.3</v>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n"/>
+      <c r="B126" s="1" t="n"/>
+      <c r="C126" s="1" t="n"/>
+      <c r="D126" s="1" t="n"/>
+      <c r="E126" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanket_2me-12222022135727.avi</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G126" t="n">
+        <v>355</v>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n"/>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathin_blanked_3me-12222022142640.avi</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1917</v>
+      </c>
+      <c r="G127" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n"/>
+      <c r="B128" s="1" t="n"/>
+      <c r="C128" s="1" t="n"/>
+      <c r="D128" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E128" s="1" t="inlineStr">
+        <is>
+          <t>8_holdbreathing_withoutblanked_3me-12222022142104.avi</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>3706</v>
+      </c>
+      <c r="G128" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n"/>
+      <c r="B129" s="1" t="n"/>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D129" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E129" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_blanked_3me-12222022142425.avi</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>1935</v>
+      </c>
+      <c r="G129" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n"/>
+      <c r="B130" s="1" t="n"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E130" s="1" t="inlineStr">
+        <is>
+          <t>8_relaxed_withoutblanked_3me-12222022141804.avi</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>3569</v>
+      </c>
+      <c r="G130" t="n">
+        <v>356.9</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>2 meters</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D131" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E131" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_blanked_2me-12222022141159.avi</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>3380</v>
+      </c>
+      <c r="G131" t="n">
+        <v>338</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n"/>
+      <c r="B132" s="1" t="n"/>
+      <c r="C132" s="1" t="n"/>
+      <c r="D132" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E132" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreath_wob2_2me-12222022140630.avi</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>3570</v>
+      </c>
+      <c r="G132" t="n">
+        <v>357</v>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n"/>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D133" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E133" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxedh_blanked2_2me-12222022141019.avi</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>1654</v>
+      </c>
+      <c r="G133" t="n">
+        <v>165.4</v>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n"/>
+      <c r="B134" s="1" t="n"/>
+      <c r="C134" s="1" t="n"/>
+      <c r="D134" s="1" t="n"/>
+      <c r="E134" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxedh_blanked_2me-12222022140919.avi</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>1487</v>
+      </c>
+      <c r="G134" t="n">
+        <v>148.7</v>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n"/>
+      <c r="B135" s="1" t="n"/>
+      <c r="C135" s="1" t="n"/>
+      <c r="D135" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E135" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob2_2me-12222022140457.avi</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>1546</v>
+      </c>
+      <c r="G135" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n"/>
+      <c r="B136" s="1" t="n"/>
+      <c r="C136" s="1" t="n"/>
+      <c r="D136" s="1" t="n"/>
+      <c r="E136" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob_2me-12222022140345.avi</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>1752</v>
+      </c>
+      <c r="G136" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n"/>
+      <c r="B137" s="1" t="inlineStr">
+        <is>
+          <t>3 meters</t>
+        </is>
+      </c>
+      <c r="C137" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D137" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E137" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_blanket_3me-12222022143501.avi</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>1784</v>
+      </c>
+      <c r="G137" t="n">
+        <v>178.4</v>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n"/>
+      <c r="B138" s="1" t="n"/>
+      <c r="C138" s="1" t="n"/>
+      <c r="D138" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E138" s="1" t="inlineStr">
+        <is>
+          <t>9_holdbreathing_wob_3me-12222022143053.avi</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>1944</v>
+      </c>
+      <c r="G138" t="n">
+        <v>194.4</v>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
+      <c r="C139" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D139" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E139" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_blanket_3me-12222022143308.avi</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>1937</v>
+      </c>
+      <c r="G139" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n"/>
+      <c r="B140" s="1" t="n"/>
+      <c r="C140" s="1" t="n"/>
+      <c r="D140" s="1" t="inlineStr">
+        <is>
+          <t>WOB</t>
+        </is>
+      </c>
+      <c r="E140" s="1" t="inlineStr">
+        <is>
+          <t>9_relaxed_wob_3me-12222022142904.avi</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>1814</v>
+      </c>
+      <c r="G140" t="n">
+        <v>181.4</v>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="B2:B26"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="C14:C26"/>
+  <mergeCells count="109">
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="A122:A130"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A131:A140"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B131:B136"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D62:D70"/>
+    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D109:D111"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="B75:B79"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="C58:C70"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="C45:C57"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="A71:A79"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="C106:C111"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A102:A113"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A44:A70"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B45:B70"/>
+    <mergeCell ref="D84:D85"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
